--- a/input/reg_partnership.xlsx
+++ b/input/reg_partnership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA2991-3F9F-4396-B7A1-318A582672ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034D45E9-8CF4-4000-807A-86FD3C6033B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="901" xr2:uid="{23DD8559-F003-43B3-945C-B71846295B58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="901" activeTab="3" xr2:uid="{23DD8559-F003-43B3-945C-B71846295B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="11" r:id="rId1"/>
@@ -203,12 +203,6 @@
     <t>U2b contains a new variable New_rel_L1</t>
   </si>
   <si>
-    <t>REGRESSORS</t>
-  </si>
-  <si>
-    <t>COEFFICIENTS</t>
-  </si>
-  <si>
     <t>Dhe</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>HUB</t>
   </si>
   <si>
-    <t>COFFICIENTS</t>
-  </si>
-  <si>
     <t>dag</t>
   </si>
   <si>
@@ -249,6 +240,15 @@
   </si>
   <si>
     <t>New_rel_L1</t>
+  </si>
+  <si>
+    <t>REGRESSOR</t>
+  </si>
+  <si>
+    <t>COEFFICIENT</t>
+  </si>
+  <si>
+    <t>COFFICIENT</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2912273F-E984-4B39-93F8-C80E0A415E58}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -761,7 +761,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,10 +772,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -799,13 +799,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>33</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5">
         <v>-7.066683745964597E-2</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5">
         <v>0.29160085298937433</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5">
         <v>0.40422119850642069</v>
@@ -1352,7 +1352,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,16 +1363,16 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>10</v>
@@ -1381,25 +1381,25 @@
         <v>11</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>4</v>
@@ -1432,10 +1432,10 @@
         <v>32</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>33</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5">
         <v>-7.0048250109431318E-2</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5">
         <v>0.15240817241157409</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5">
         <v>-0.26666117598557482</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5">
         <v>-0.53368909967324429</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5">
         <v>-0.26839199457985324</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5">
         <v>0.44317930965088237</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5">
         <v>7.6944426232280025E-2</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5">
         <v>0.12998588984980533</v>
@@ -3532,9 +3532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB23CB7F-C1D3-4667-AC86-F85D5E3D71F0}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3544,10 +3542,10 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -3595,7 +3593,7 @@
         <v>34</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>16</v>
@@ -3622,10 +3620,10 @@
         <v>15</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>33</v>
@@ -5016,7 +5014,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" s="5">
         <v>0.94781223141784599</v>
@@ -5844,7 +5842,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="5">
         <v>9.2935726465997098E-2</v>
@@ -5936,7 +5934,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="5">
         <v>6.6579786652100903E-2</v>

--- a/input/reg_partnership.xlsx
+++ b/input/reg_partnership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC2DAE9-F4F9-4FBE-AED0-2A3BEF5E46EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130E6B7-32EA-4A6C-97E1-4587A4E5C08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="901" activeTab="3" xr2:uid="{23DD8559-F003-43B3-945C-B71846295B58}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15345" tabRatio="901" activeTab="1" xr2:uid="{23DD8559-F003-43B3-945C-B71846295B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="11" r:id="rId1"/>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B222CC59-87EC-426E-9308-62866657AA83}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -804,528 +804,528 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>-0.13454881964574364</v>
-      </c>
-      <c r="C2" s="6">
-        <v>3.8928478992958176E-2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>4.94440491517565E-3</v>
-      </c>
-      <c r="E2" s="6">
-        <v>-1.4801701377975345E-4</v>
-      </c>
-      <c r="F2" s="6">
-        <v>3.6916254314849836E-3</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1.3072097453945386E-2</v>
-      </c>
-      <c r="H2" s="6">
-        <v>2.8101808308321645E-2</v>
-      </c>
-      <c r="I2" s="6">
-        <v>3.2865007228075941E-3</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2.1938265367809056E-4</v>
-      </c>
-      <c r="K2" s="6">
-        <v>-3.9868682639345419E-2</v>
-      </c>
-      <c r="L2" s="6">
-        <v>-3.1754328498036249E-2</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1.296483167477647E-3</v>
-      </c>
-      <c r="N2" s="6">
-        <v>-5.6996908492249754E-2</v>
+      <c r="B2">
+        <v>-0.14207781397738986</v>
+      </c>
+      <c r="C2">
+        <v>3.9099736512404268E-2</v>
+      </c>
+      <c r="D2">
+        <v>-2.618773595208243E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.8598518496328841E-4</v>
+      </c>
+      <c r="F2">
+        <v>3.7526975228583531E-3</v>
+      </c>
+      <c r="G2">
+        <v>1.0572877447602047E-2</v>
+      </c>
+      <c r="H2">
+        <v>2.3104007605285824E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.123338556850451E-3</v>
+      </c>
+      <c r="J2">
+        <v>4.0560258119748914E-4</v>
+      </c>
+      <c r="K2">
+        <v>-4.1727704056742893E-2</v>
+      </c>
+      <c r="L2">
+        <v>-3.3616158247294754E-2</v>
+      </c>
+      <c r="M2">
+        <v>1.4633370720082244E-3</v>
+      </c>
+      <c r="N2">
+        <v>0.26993629683316778</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>1.5758135559426147</v>
-      </c>
-      <c r="C3" s="6">
-        <v>4.94440491517565E-3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.45528165527309028</v>
-      </c>
-      <c r="E3" s="6">
-        <v>-1.1005186987685794E-2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3.2255642773666438E-3</v>
-      </c>
-      <c r="G3" s="6">
-        <v>-6.1021141268166268E-2</v>
-      </c>
-      <c r="H3" s="6">
-        <v>8.3852321848463252E-2</v>
-      </c>
-      <c r="I3" s="6">
-        <v>-1.5169720818918542E-2</v>
-      </c>
-      <c r="J3" s="6">
-        <v>-5.8985251244870196E-2</v>
-      </c>
-      <c r="K3" s="6">
-        <v>-0.10653366846238477</v>
-      </c>
-      <c r="L3" s="6">
-        <v>9.6654028277867177E-3</v>
-      </c>
-      <c r="M3" s="6">
-        <v>-4.3239905911987564E-3</v>
-      </c>
-      <c r="N3" s="6">
-        <v>-4.3038092704922519</v>
+      <c r="B3">
+        <v>0.91595425602714586</v>
+      </c>
+      <c r="C3">
+        <v>-2.618773595208243E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.77227331779013397</v>
+      </c>
+      <c r="E3">
+        <v>-1.7868253106205989E-2</v>
+      </c>
+      <c r="F3">
+        <v>-3.7394954911670553E-2</v>
+      </c>
+      <c r="G3">
+        <v>-0.13967597249802388</v>
+      </c>
+      <c r="H3">
+        <v>6.6725660850274315E-2</v>
+      </c>
+      <c r="I3">
+        <v>-8.0128946048574345E-3</v>
+      </c>
+      <c r="J3">
+        <v>-4.7346964551454485E-2</v>
+      </c>
+      <c r="K3">
+        <v>-0.10753579576157302</v>
+      </c>
+      <c r="L3">
+        <v>-1.6805353605709783E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.4029596075838535E-3</v>
+      </c>
+      <c r="N3">
+        <v>-7.9691541135136958</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>-3.7614603253864419E-2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-1.4801701377975345E-4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>-1.1005186987685794E-2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2.6798325416524642E-4</v>
-      </c>
-      <c r="F4" s="6">
-        <v>-2.4618185033975504E-4</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1.21367551888929E-3</v>
-      </c>
-      <c r="H4" s="6">
-        <v>-1.9827711668974901E-3</v>
-      </c>
-      <c r="I4" s="6">
-        <v>4.2760843737632212E-4</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1.4576997866231484E-3</v>
-      </c>
-      <c r="K4" s="6">
-        <v>2.6576850198931218E-3</v>
-      </c>
-      <c r="L4" s="6">
-        <v>-2.9333133649112053E-4</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1.2793554270651084E-4</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.10281768942755409</v>
+      <c r="B4">
+        <v>-2.2270470896169778E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.8598518496328841E-4</v>
+      </c>
+      <c r="D4">
+        <v>-1.7868253106205989E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1502823114809503E-4</v>
+      </c>
+      <c r="F4">
+        <v>7.2805086520663642E-4</v>
+      </c>
+      <c r="G4">
+        <v>3.08056731284026E-3</v>
+      </c>
+      <c r="H4">
+        <v>-1.5257164527659236E-3</v>
+      </c>
+      <c r="I4">
+        <v>2.5399765414441458E-4</v>
+      </c>
+      <c r="J4">
+        <v>1.1689079215027876E-3</v>
+      </c>
+      <c r="K4">
+        <v>2.6427450608180192E-3</v>
+      </c>
+      <c r="L4">
+        <v>3.3224448668943418E-4</v>
+      </c>
+      <c r="M4">
+        <v>-9.1271085454844997E-6</v>
+      </c>
+      <c r="N4">
+        <v>0.18306269763041705</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>-0.32448950423480311</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3.6916254314849836E-3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3.2255642773666438E-3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>-2.4618185033975504E-4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>6.9932115672396988E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2.158462555913717E-2</v>
-      </c>
-      <c r="H5" s="6">
-        <v>9.767006696082315E-3</v>
-      </c>
-      <c r="I5" s="6">
-        <v>-3.0236299110190648E-3</v>
-      </c>
-      <c r="J5" s="6">
-        <v>-4.9990154960601659E-3</v>
-      </c>
-      <c r="K5" s="6">
-        <v>-3.1467800804355706E-3</v>
-      </c>
-      <c r="L5" s="6">
-        <v>7.0574208964884234E-3</v>
-      </c>
-      <c r="M5" s="6">
-        <v>3.7883453738689959E-3</v>
-      </c>
-      <c r="N5" s="6">
-        <v>-2.1060933637492993E-2</v>
+      <c r="B5">
+        <v>-0.32709430964378433</v>
+      </c>
+      <c r="C5">
+        <v>3.7526975228583531E-3</v>
+      </c>
+      <c r="D5">
+        <v>-3.7394954911670553E-2</v>
+      </c>
+      <c r="E5">
+        <v>7.2805086520663642E-4</v>
+      </c>
+      <c r="F5">
+        <v>7.0513101545748871E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.996431402641629E-2</v>
+      </c>
+      <c r="H5">
+        <v>6.1561442211249453E-3</v>
+      </c>
+      <c r="I5">
+        <v>-3.3204129319544164E-3</v>
+      </c>
+      <c r="J5">
+        <v>-5.3198194806704071E-3</v>
+      </c>
+      <c r="K5">
+        <v>-3.791241687210989E-3</v>
+      </c>
+      <c r="L5">
+        <v>6.4611284148303316E-3</v>
+      </c>
+      <c r="M5">
+        <v>3.9370561063523622E-3</v>
+      </c>
+      <c r="N5">
+        <v>0.39982721517354414</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>-0.14084683942170961</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.3072097453945386E-2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>-6.1021141268166268E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1.21367551888929E-3</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2.158462555913717E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>4.6753176943902519E-2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>-5.4859883097793105E-3</v>
-      </c>
-      <c r="I6" s="6">
-        <v>-4.8807554259510874E-3</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2.6221441902030476E-3</v>
-      </c>
-      <c r="K6" s="6">
-        <v>-1.9048744501986015E-3</v>
-      </c>
-      <c r="L6" s="6">
-        <v>3.5999621787283775E-3</v>
-      </c>
-      <c r="M6" s="6">
-        <v>-2.536131077869562E-3</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.73901448183211471</v>
+      <c r="B6">
+        <v>-0.15178401145857037</v>
+      </c>
+      <c r="C6">
+        <v>1.0572877447602047E-2</v>
+      </c>
+      <c r="D6">
+        <v>-0.13967597249802388</v>
+      </c>
+      <c r="E6">
+        <v>3.08056731284026E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.996431402641629E-2</v>
+      </c>
+      <c r="G6">
+        <v>4.1233758580018598E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.822709277687808E-2</v>
+      </c>
+      <c r="I6">
+        <v>-4.4678536908201588E-3</v>
+      </c>
+      <c r="J6">
+        <v>4.0601149925975979E-3</v>
+      </c>
+      <c r="K6">
+        <v>-2.6529309933064904E-3</v>
+      </c>
+      <c r="L6">
+        <v>1.4722325361961608E-3</v>
+      </c>
+      <c r="M6">
+        <v>-2.1085473478027611E-3</v>
+      </c>
+      <c r="N6">
+        <v>1.5538975083032049</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>-3.1327642630876881E-2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2.8101808308321645E-2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8.3852321848463252E-2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>-1.9827711668974901E-3</v>
-      </c>
-      <c r="F7" s="6">
-        <v>9.767006696082315E-3</v>
-      </c>
-      <c r="G7" s="6">
-        <v>-5.4859883097793105E-3</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.11898647918256888</v>
-      </c>
-      <c r="I7" s="6">
-        <v>-5.1455838473550564E-3</v>
-      </c>
-      <c r="J7" s="6">
-        <v>-3.4200498178760724E-2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>-7.1018924633419189E-3</v>
-      </c>
-      <c r="L7" s="6">
-        <v>9.677203902424325E-3</v>
-      </c>
-      <c r="M7" s="6">
-        <v>8.3728384353583263E-4</v>
-      </c>
-      <c r="N7" s="6">
-        <v>-0.76364819928800642</v>
+      <c r="B7">
+        <v>-6.2890788086950353E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.3104007605285824E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.6725660850274315E-2</v>
+      </c>
+      <c r="E7">
+        <v>-1.5257164527659236E-3</v>
+      </c>
+      <c r="F7">
+        <v>6.1561442211249453E-3</v>
+      </c>
+      <c r="G7">
+        <v>-1.822709277687808E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.10911202882183177</v>
+      </c>
+      <c r="I7">
+        <v>-5.4740086371200536E-3</v>
+      </c>
+      <c r="J7">
+        <v>-3.2259892463744194E-2</v>
+      </c>
+      <c r="K7">
+        <v>-7.0095466919185556E-3</v>
+      </c>
+      <c r="L7">
+        <v>7.1115188747810087E-3</v>
+      </c>
+      <c r="M7">
+        <v>1.3879288912782145E-3</v>
+      </c>
+      <c r="N7">
+        <v>-0.61313481186356</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
-        <v>7.9141629118308229E-2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3.2865007228075941E-3</v>
-      </c>
-      <c r="D8" s="6">
-        <v>-1.5169720818918542E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.2760843737632212E-4</v>
-      </c>
-      <c r="F8" s="6">
-        <v>-3.0236299110190648E-3</v>
-      </c>
-      <c r="G8" s="6">
-        <v>-4.8807554259510874E-3</v>
-      </c>
-      <c r="H8" s="6">
-        <v>-5.1455838473550564E-3</v>
-      </c>
-      <c r="I8" s="6">
-        <v>5.7257340783870439E-3</v>
-      </c>
-      <c r="J8" s="6">
-        <v>5.7713359937824043E-3</v>
-      </c>
-      <c r="K8" s="6">
-        <v>3.3839838504602232E-3</v>
-      </c>
-      <c r="L8" s="6">
-        <v>-3.8479666205940635E-3</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1.0390594210173982E-3</v>
-      </c>
-      <c r="N8" s="6">
-        <v>8.6415242495117672E-2</v>
+      <c r="B8">
+        <v>8.0314423940431381E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.123338556850451E-3</v>
+      </c>
+      <c r="D8">
+        <v>-8.0128946048574345E-3</v>
+      </c>
+      <c r="E8">
+        <v>2.5399765414441458E-4</v>
+      </c>
+      <c r="F8">
+        <v>-3.3204129319544164E-3</v>
+      </c>
+      <c r="G8">
+        <v>-4.4678536908201588E-3</v>
+      </c>
+      <c r="H8">
+        <v>-5.4740086371200536E-3</v>
+      </c>
+      <c r="I8">
+        <v>6.2801808381461122E-3</v>
+      </c>
+      <c r="J8">
+        <v>6.4121021336828142E-3</v>
+      </c>
+      <c r="K8">
+        <v>4.028493455235406E-3</v>
+      </c>
+      <c r="L8">
+        <v>-4.3032014843607316E-3</v>
+      </c>
+      <c r="M8">
+        <v>1.159068718196727E-3</v>
+      </c>
+      <c r="N8">
+        <v>8.3563390140843907E-3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="5">
-        <v>-7.066683745964597E-2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2.1938265367809056E-4</v>
-      </c>
-      <c r="D9" s="6">
-        <v>-5.8985251244870196E-2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1.4576997866231484E-3</v>
-      </c>
-      <c r="F9" s="6">
-        <v>-4.9990154960601659E-3</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2.6221441902030476E-3</v>
-      </c>
-      <c r="H9" s="6">
-        <v>-3.4200498178760724E-2</v>
-      </c>
-      <c r="I9" s="6">
-        <v>5.7713359937824043E-3</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1.6611606370432949E-2</v>
-      </c>
-      <c r="K9" s="6">
-        <v>2.1245997331571093E-4</v>
-      </c>
-      <c r="L9" s="6">
-        <v>-1.6148872582779448E-2</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1.3940344789640209E-3</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0.50654193148947035</v>
+      <c r="B9">
+        <v>-6.9952798698799626E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.0560258119748914E-4</v>
+      </c>
+      <c r="D9">
+        <v>-4.7346964551454485E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.1689079215027876E-3</v>
+      </c>
+      <c r="F9">
+        <v>-5.3198194806704071E-3</v>
+      </c>
+      <c r="G9">
+        <v>4.0601149925975979E-3</v>
+      </c>
+      <c r="H9">
+        <v>-3.2259892463744194E-2</v>
+      </c>
+      <c r="I9">
+        <v>6.4121021336828142E-3</v>
+      </c>
+      <c r="J9">
+        <v>1.6737684879381386E-2</v>
+      </c>
+      <c r="K9">
+        <v>7.795262747052889E-4</v>
+      </c>
+      <c r="L9">
+        <v>-1.6463150465742392E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.5430686955089073E-3</v>
+      </c>
+      <c r="N9">
+        <v>0.38657918714809858</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.29160085298937433</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-3.9868682639345419E-2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>-0.10653366846238477</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2.6576850198931218E-3</v>
-      </c>
-      <c r="F10" s="6">
-        <v>-3.1467800804355706E-3</v>
-      </c>
-      <c r="G10" s="6">
-        <v>-1.9048744501986015E-3</v>
-      </c>
-      <c r="H10" s="6">
-        <v>-7.1018924633419189E-3</v>
-      </c>
-      <c r="I10" s="6">
-        <v>3.3839838504602232E-3</v>
-      </c>
-      <c r="J10" s="6">
-        <v>2.1245997331571093E-4</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.11639712547955447</v>
-      </c>
-      <c r="L10" s="6">
-        <v>7.6358771516179536E-2</v>
-      </c>
-      <c r="M10" s="6">
-        <v>-2.5050062563642204E-3</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1.0299878231969664</v>
+      <c r="B10">
+        <v>0.28698026707993862</v>
+      </c>
+      <c r="C10">
+        <v>-4.1727704056742893E-2</v>
+      </c>
+      <c r="D10">
+        <v>-0.10753579576157302</v>
+      </c>
+      <c r="E10">
+        <v>2.6427450608180192E-3</v>
+      </c>
+      <c r="F10">
+        <v>-3.791241687210989E-3</v>
+      </c>
+      <c r="G10">
+        <v>-2.6529309933064904E-3</v>
+      </c>
+      <c r="H10">
+        <v>-7.0095466919185556E-3</v>
+      </c>
+      <c r="I10">
+        <v>4.028493455235406E-3</v>
+      </c>
+      <c r="J10">
+        <v>7.795262747052889E-4</v>
+      </c>
+      <c r="K10">
+        <v>0.11758966698153482</v>
+      </c>
+      <c r="L10">
+        <v>7.6596526702307391E-2</v>
+      </c>
+      <c r="M10">
+        <v>-2.3975540522050975E-3</v>
+      </c>
+      <c r="N10">
+        <v>1.0528365402341322</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.40422119850642069</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-3.1754328498036249E-2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>9.6654028277867177E-3</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-2.9333133649112053E-4</v>
-      </c>
-      <c r="F11" s="6">
-        <v>7.0574208964884234E-3</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3.5999621787283775E-3</v>
-      </c>
-      <c r="H11" s="6">
-        <v>9.677203902424325E-3</v>
-      </c>
-      <c r="I11" s="6">
-        <v>-3.8479666205940635E-3</v>
-      </c>
-      <c r="J11" s="6">
-        <v>-1.6148872582779448E-2</v>
-      </c>
-      <c r="K11" s="6">
-        <v>7.6358771516179536E-2</v>
-      </c>
-      <c r="L11" s="6">
-        <v>8.9434446446745586E-2</v>
-      </c>
-      <c r="M11" s="6">
-        <v>-5.4722105681034895E-3</v>
-      </c>
-      <c r="N11" s="6">
-        <v>1.3730868028230869E-2</v>
+      <c r="B11">
+        <v>0.4029488529453894</v>
+      </c>
+      <c r="C11">
+        <v>-3.3616158247294754E-2</v>
+      </c>
+      <c r="D11">
+        <v>-1.6805353605709783E-2</v>
+      </c>
+      <c r="E11">
+        <v>3.3224448668943418E-4</v>
+      </c>
+      <c r="F11">
+        <v>6.4611284148303316E-3</v>
+      </c>
+      <c r="G11">
+        <v>1.4722325361961608E-3</v>
+      </c>
+      <c r="H11">
+        <v>7.1115188747810087E-3</v>
+      </c>
+      <c r="I11">
+        <v>-4.3032014843607316E-3</v>
+      </c>
+      <c r="J11">
+        <v>-1.6463150465742392E-2</v>
+      </c>
+      <c r="K11">
+        <v>7.6596526702307391E-2</v>
+      </c>
+      <c r="L11">
+        <v>9.0075935470496415E-2</v>
+      </c>
+      <c r="M11">
+        <v>-5.6347966817148973E-3</v>
+      </c>
+      <c r="N11">
+        <v>0.29678918708959046</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5">
-        <v>-6.4703111379457098E-2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1.296483167477647E-3</v>
-      </c>
-      <c r="D12" s="6">
-        <v>-4.3239905911987564E-3</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1.2793554270651084E-4</v>
-      </c>
-      <c r="F12" s="6">
-        <v>3.7883453738689959E-3</v>
-      </c>
-      <c r="G12" s="6">
-        <v>-2.536131077869562E-3</v>
-      </c>
-      <c r="H12" s="6">
-        <v>8.3728384353583263E-4</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1.0390594210173982E-3</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1.3940344789640209E-3</v>
-      </c>
-      <c r="K12" s="6">
-        <v>-2.5050062563642204E-3</v>
-      </c>
-      <c r="L12" s="6">
-        <v>-5.4722105681034895E-3</v>
-      </c>
-      <c r="M12" s="6">
-        <v>1.4135747979328057E-3</v>
-      </c>
-      <c r="N12" s="6">
-        <v>1.0447578676296393E-2</v>
+      <c r="B12">
+        <v>-6.443959417262439E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.4633370720082244E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.4029596075838535E-3</v>
+      </c>
+      <c r="E12">
+        <v>-9.1271085454844997E-6</v>
+      </c>
+      <c r="F12">
+        <v>3.9370561063523622E-3</v>
+      </c>
+      <c r="G12">
+        <v>-2.1085473478027611E-3</v>
+      </c>
+      <c r="H12">
+        <v>1.3879288912782145E-3</v>
+      </c>
+      <c r="I12">
+        <v>1.159068718196727E-3</v>
+      </c>
+      <c r="J12">
+        <v>1.5430686955089073E-3</v>
+      </c>
+      <c r="K12">
+        <v>-2.3975540522050975E-3</v>
+      </c>
+      <c r="L12">
+        <v>-5.6347966817148973E-3</v>
+      </c>
+      <c r="M12">
+        <v>1.45632446695021E-3</v>
+      </c>
+      <c r="N12">
+        <v>-5.0505140231000029E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5">
-        <v>-18.345407366420307</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-5.6996908492249754E-2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>-4.3038092704922519</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.10281768942755409</v>
-      </c>
-      <c r="F13" s="6">
-        <v>-2.1060933637492993E-2</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.73901448183211471</v>
-      </c>
-      <c r="H13" s="6">
-        <v>-0.76364819928800642</v>
-      </c>
-      <c r="I13" s="6">
-        <v>8.6415242495117672E-2</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0.50654193148947035</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1.0299878231969664</v>
-      </c>
-      <c r="L13" s="6">
-        <v>1.3730868028230869E-2</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1.0447578676296393E-2</v>
-      </c>
-      <c r="N13" s="6">
-        <v>41.799855997739769</v>
+      <c r="B13">
+        <v>-11.295675051520156</v>
+      </c>
+      <c r="C13">
+        <v>0.26993629683316778</v>
+      </c>
+      <c r="D13">
+        <v>-7.9691541135136958</v>
+      </c>
+      <c r="E13">
+        <v>0.18306269763041705</v>
+      </c>
+      <c r="F13">
+        <v>0.39982721517354414</v>
+      </c>
+      <c r="G13">
+        <v>1.5538975083032049</v>
+      </c>
+      <c r="H13">
+        <v>-0.61313481186356</v>
+      </c>
+      <c r="I13">
+        <v>8.3563390140843907E-3</v>
+      </c>
+      <c r="J13">
+        <v>0.38657918714809858</v>
+      </c>
+      <c r="K13">
+        <v>1.0528365402341322</v>
+      </c>
+      <c r="L13">
+        <v>0.29678918708959046</v>
+      </c>
+      <c r="M13">
+        <v>-5.0505140231000029E-2</v>
+      </c>
+      <c r="N13">
+        <v>83.733272096101246</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +3512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB23CB7F-C1D3-4667-AC86-F85D5E3D71F0}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/input/reg_partnership.xlsx
+++ b/input/reg_partnership.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786FC872-1805-484B-97F4-162E36E61CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348DA25E-4355-4042-85EB-D4DBD803E96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="U1a" sheetId="3" r:id="rId2"/>
-    <sheet name="U1b" sheetId="4" r:id="rId3"/>
-    <sheet name="U2b" sheetId="5" r:id="rId4"/>
+    <sheet name="PL_U1a" sheetId="3" r:id="rId2"/>
+    <sheet name="PL_U1b" sheetId="4" r:id="rId3"/>
+    <sheet name="PL_U2b" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2660,7 +2660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6036,7 +6036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/input/reg_partnership.xlsx
+++ b/input/reg_partnership.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1D1DE7-B5BB-4378-883A-380917087893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32C3EC5-3453-4BCD-92DB-60EB33589B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1567,9 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:O1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1628,46 +1626,46 @@
         <v>15</v>
       </c>
       <c r="B2" s="70">
-        <v>-0.32102378913052609</v>
+        <v>-0.33122424353835767</v>
       </c>
       <c r="C2">
-        <v>3.4350113868376726E-2</v>
+        <v>3.2021496577159372E-2</v>
       </c>
       <c r="D2">
-        <v>-1.0028260514725051E-3</v>
+        <v>5.7660404522399678E-3</v>
       </c>
       <c r="E2">
-        <v>-8.2741338293378878E-5</v>
+        <v>-2.2188255669932776E-4</v>
       </c>
       <c r="F2">
-        <v>2.4438256021891105E-2</v>
+        <v>-4.5110950777018256E-3</v>
       </c>
       <c r="G2">
-        <v>3.3318724233490457E-2</v>
+        <v>2.5779843134846582E-2</v>
       </c>
       <c r="H2">
-        <v>1.0102947394657627E-2</v>
+        <v>1.3976627385740556E-2</v>
       </c>
       <c r="I2">
-        <v>5.8783513229136858E-3</v>
+        <v>5.2599114323009788E-3</v>
       </c>
       <c r="J2">
-        <v>-2.9880886327165755E-2</v>
+        <v>-2.6970921630731719E-2</v>
       </c>
       <c r="K2">
-        <v>-2.3351695358116972E-2</v>
+        <v>-2.0696929811738925E-2</v>
       </c>
       <c r="L2">
-        <v>-2.1942412313583168E-2</v>
+        <v>-2.0703374451917826E-2</v>
       </c>
       <c r="M2">
-        <v>-3.196969404586518E-2</v>
+        <v>-2.8089046581488825E-2</v>
       </c>
       <c r="N2">
-        <v>6.1274920253518881E-4</v>
+        <v>7.2739067533747655E-4</v>
       </c>
       <c r="O2">
-        <v>3.0180109206661809E-2</v>
+        <v>-4.4923138129243423E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1675,46 +1673,46 @@
         <v>16</v>
       </c>
       <c r="B3" s="70">
-        <v>2.4372802450631785</v>
+        <v>2.3903525641020997</v>
       </c>
       <c r="C3">
-        <v>-1.0028260514725051E-3</v>
+        <v>5.7660404522399678E-3</v>
       </c>
       <c r="D3">
-        <v>1.4672383061108505</v>
+        <v>1.4110366952118163</v>
       </c>
       <c r="E3">
-        <v>-3.3664872153906733E-2</v>
+        <v>-3.242479098948875E-2</v>
       </c>
       <c r="F3">
-        <v>7.1689762620223973E-3</v>
+        <v>7.82590615129099E-2</v>
       </c>
       <c r="G3">
-        <v>4.9676036641509214E-2</v>
+        <v>7.5293873945854628E-2</v>
       </c>
       <c r="H3">
-        <v>-9.7433896105661333E-2</v>
+        <v>-7.8228966887815332E-2</v>
       </c>
       <c r="I3">
-        <v>1.8274632527869983E-2</v>
+        <v>1.6215886287685777E-2</v>
       </c>
       <c r="J3">
-        <v>-0.2662765139897374</v>
+        <v>-0.25934014022429963</v>
       </c>
       <c r="K3">
-        <v>-0.1407775600280079</v>
+        <v>-0.14260822171898324</v>
       </c>
       <c r="L3">
-        <v>-0.11746981065560647</v>
+        <v>-0.11630795651201531</v>
       </c>
       <c r="M3">
-        <v>2.2423896722914449E-2</v>
+        <v>1.6758769307109844E-2</v>
       </c>
       <c r="N3">
-        <v>1.5794650547504119E-2</v>
+        <v>1.6588220168392898E-2</v>
       </c>
       <c r="O3">
-        <v>-16.174119827630193</v>
+        <v>-15.571844685284219</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -1722,46 +1720,46 @@
         <v>17</v>
       </c>
       <c r="B4" s="70">
-        <v>-5.214903738121817E-2</v>
+        <v>-5.1157954660009088E-2</v>
       </c>
       <c r="C4">
-        <v>-8.2741338293378878E-5</v>
+        <v>-2.2188255669932776E-4</v>
       </c>
       <c r="D4">
-        <v>-3.3664872153906733E-2</v>
+        <v>-3.242479098948875E-2</v>
       </c>
       <c r="E4">
-        <v>7.7366144626603642E-4</v>
+        <v>7.462475199220709E-4</v>
       </c>
       <c r="F4">
-        <v>-2.9657008833500198E-4</v>
+        <v>-1.7833565563671293E-3</v>
       </c>
       <c r="G4">
-        <v>-1.2503312212208129E-3</v>
+        <v>-1.7959369100047085E-3</v>
       </c>
       <c r="H4">
-        <v>1.995974208783502E-3</v>
+        <v>1.5162096023922378E-3</v>
       </c>
       <c r="I4">
-        <v>-4.7979772240258622E-4</v>
+        <v>-4.2773446209509736E-4</v>
       </c>
       <c r="J4">
-        <v>6.3372179668454987E-3</v>
+        <v>6.1696500945855326E-3</v>
       </c>
       <c r="K4">
-        <v>3.1636551317566902E-3</v>
+        <v>3.1932237208716213E-3</v>
       </c>
       <c r="L4">
-        <v>2.6504758283268925E-3</v>
+        <v>2.6237495066000482E-3</v>
       </c>
       <c r="M4">
-        <v>-4.1412086933415027E-4</v>
+        <v>-3.0285292761950133E-4</v>
       </c>
       <c r="N4">
-        <v>-3.7018387677889043E-4</v>
+        <v>-3.8918793856575554E-4</v>
       </c>
       <c r="O4">
-        <v>0.37092072940029208</v>
+        <v>0.35764514428700167</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -1769,46 +1767,46 @@
         <v>18</v>
       </c>
       <c r="B5" s="70">
-        <v>-0.44359154942541268</v>
+        <v>-0.19187495596321671</v>
       </c>
       <c r="C5">
-        <v>2.4438256021891105E-2</v>
+        <v>-4.5110950777018256E-3</v>
       </c>
       <c r="D5">
-        <v>7.1689762620223973E-3</v>
+        <v>7.82590615129099E-2</v>
       </c>
       <c r="E5">
-        <v>-2.9657008833500198E-4</v>
+        <v>-1.7833565563671293E-3</v>
       </c>
       <c r="F5">
-        <v>5.1552614267464325E-2</v>
+        <v>4.9459403980002349E-2</v>
       </c>
       <c r="G5">
-        <v>2.2098493901817035E-2</v>
+        <v>2.4791473214298282E-2</v>
       </c>
       <c r="H5">
-        <v>1.6831656046326082E-4</v>
+        <v>-6.7973325752928027E-3</v>
       </c>
       <c r="I5">
-        <v>1.2430075402457455E-2</v>
+        <v>2.8290154747366431E-3</v>
       </c>
       <c r="J5">
-        <v>-3.1568615667246419E-2</v>
+        <v>-2.4478988424764786E-2</v>
       </c>
       <c r="K5">
-        <v>-2.0261870582427E-2</v>
+        <v>-4.4276048100678339E-3</v>
       </c>
       <c r="L5">
-        <v>-1.0906570292896961E-2</v>
+        <v>-1.059282567279024E-3</v>
       </c>
       <c r="M5">
-        <v>-2.5371964073717113E-2</v>
+        <v>5.0810742086650207E-3</v>
       </c>
       <c r="N5">
-        <v>-1.455627947974502E-4</v>
+        <v>-2.8588054708143973E-3</v>
       </c>
       <c r="O5">
-        <v>-7.114847501182453E-2</v>
+        <v>-0.83874840353654601</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -1816,46 +1814,46 @@
         <v>19</v>
       </c>
       <c r="B6" s="70">
-        <v>-9.3279419382758161E-2</v>
+        <v>-1.5749575934086636E-2</v>
       </c>
       <c r="C6">
-        <v>3.3318724233490457E-2</v>
+        <v>2.5779843134846582E-2</v>
       </c>
       <c r="D6">
-        <v>4.9676036641509214E-2</v>
+        <v>7.5293873945854628E-2</v>
       </c>
       <c r="E6">
-        <v>-1.2503312212208129E-3</v>
+        <v>-1.7959369100047085E-3</v>
       </c>
       <c r="F6">
-        <v>2.2098493901817035E-2</v>
+        <v>2.4791473214298282E-2</v>
       </c>
       <c r="G6">
-        <v>5.7215743679689866E-2</v>
+        <v>5.969600513823059E-2</v>
       </c>
       <c r="H6">
-        <v>1.3020610546909124E-2</v>
+        <v>1.3906300081807169E-2</v>
       </c>
       <c r="I6">
-        <v>1.6734690746681997E-2</v>
+        <v>1.3573937170128759E-2</v>
       </c>
       <c r="J6">
-        <v>-3.5407005313331602E-2</v>
+        <v>-3.5453522582247904E-2</v>
       </c>
       <c r="K6">
-        <v>-2.4149741996540654E-2</v>
+        <v>-1.958087975392702E-2</v>
       </c>
       <c r="L6">
-        <v>-1.7613698107453009E-2</v>
+        <v>-1.6309169079220955E-2</v>
       </c>
       <c r="M6">
-        <v>-2.3885262258399556E-2</v>
+        <v>-1.553077468843601E-2</v>
       </c>
       <c r="N6">
-        <v>1.6958656982277768E-3</v>
+        <v>7.3470813718943834E-4</v>
       </c>
       <c r="O6">
-        <v>-0.59049214098581715</v>
+        <v>-0.86449264836344208</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -1863,46 +1861,46 @@
         <v>20</v>
       </c>
       <c r="B7" s="70">
-        <v>0.55256192089132261</v>
+        <v>0.50435092088439981</v>
       </c>
       <c r="C7">
-        <v>1.0102947394657627E-2</v>
+        <v>1.3976627385740556E-2</v>
       </c>
       <c r="D7">
-        <v>-9.7433896105661333E-2</v>
+        <v>-7.8228966887815332E-2</v>
       </c>
       <c r="E7">
-        <v>1.995974208783502E-3</v>
+        <v>1.5162096023922378E-3</v>
       </c>
       <c r="F7">
-        <v>1.6831656046326082E-4</v>
+        <v>-6.7973325752928027E-3</v>
       </c>
       <c r="G7">
-        <v>1.3020610546909124E-2</v>
+        <v>1.3906300081807169E-2</v>
       </c>
       <c r="H7">
-        <v>0.15114826008730969</v>
+        <v>0.1667800924508587</v>
       </c>
       <c r="I7">
-        <v>8.7812154418668714E-3</v>
+        <v>1.3256332895415647E-2</v>
       </c>
       <c r="J7">
-        <v>-2.777952072703728E-2</v>
+        <v>-3.9739984951716316E-2</v>
       </c>
       <c r="K7">
-        <v>8.7309563220883707E-2</v>
+        <v>8.822375470105441E-2</v>
       </c>
       <c r="L7">
-        <v>-3.3349262136324054E-3</v>
+        <v>-4.6323534906277525E-3</v>
       </c>
       <c r="M7">
-        <v>-9.2701095838779515E-3</v>
+        <v>-1.1684587716284715E-2</v>
       </c>
       <c r="N7">
-        <v>1.6397650765560341E-3</v>
+        <v>2.1246719168116881E-3</v>
       </c>
       <c r="O7">
-        <v>1.1015225560176911</v>
+        <v>0.88772834516394861</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -1910,46 +1908,46 @@
         <v>21</v>
       </c>
       <c r="B8" s="70">
-        <v>-8.2490628801826824E-2</v>
+        <v>-7.2044286859631004E-2</v>
       </c>
       <c r="C8">
-        <v>5.8783513229136858E-3</v>
+        <v>5.2599114323009788E-3</v>
       </c>
       <c r="D8">
-        <v>1.8274632527869983E-2</v>
+        <v>1.6215886287685777E-2</v>
       </c>
       <c r="E8">
-        <v>-4.7979772240258622E-4</v>
+        <v>-4.2773446209509736E-4</v>
       </c>
       <c r="F8">
-        <v>1.2430075402457455E-2</v>
+        <v>2.8290154747366431E-3</v>
       </c>
       <c r="G8">
-        <v>1.6734690746681997E-2</v>
+        <v>1.3573937170128759E-2</v>
       </c>
       <c r="H8">
-        <v>8.7812154418668714E-3</v>
+        <v>1.3256332895415647E-2</v>
       </c>
       <c r="I8">
-        <v>1.2171486159178825E-2</v>
+        <v>1.0776000287810547E-2</v>
       </c>
       <c r="J8">
-        <v>-1.3426310945187009E-2</v>
+        <v>-1.2815839154776611E-2</v>
       </c>
       <c r="K8">
-        <v>-3.4234547823405112E-3</v>
+        <v>-1.8611988491128387E-3</v>
       </c>
       <c r="L8">
-        <v>-1.4727578512061454E-3</v>
+        <v>-2.6249946352308456E-3</v>
       </c>
       <c r="M8">
-        <v>-6.3032464138588935E-3</v>
+        <v>-6.3193772424971761E-3</v>
       </c>
       <c r="N8">
-        <v>5.2583077977219768E-4</v>
+        <v>5.1853812389095547E-4</v>
       </c>
       <c r="O8">
-        <v>-0.23554688015695158</v>
+        <v>-0.20698427140791686</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -1957,46 +1955,46 @@
         <v>61</v>
       </c>
       <c r="B9" s="70">
-        <v>3.8123507913576563E-2</v>
+        <v>3.865073522377787E-2</v>
       </c>
       <c r="C9">
-        <v>-2.9880886327165755E-2</v>
+        <v>-2.6970921630731719E-2</v>
       </c>
       <c r="D9">
-        <v>-0.2662765139897374</v>
+        <v>-0.25934014022429963</v>
       </c>
       <c r="E9">
-        <v>6.3372179668454987E-3</v>
+        <v>6.1696500945855326E-3</v>
       </c>
       <c r="F9">
-        <v>-3.1568615667246419E-2</v>
+        <v>-2.4478988424764786E-2</v>
       </c>
       <c r="G9">
-        <v>-3.5407005313331602E-2</v>
+        <v>-3.5453522582247904E-2</v>
       </c>
       <c r="H9">
-        <v>-2.777952072703728E-2</v>
+        <v>-3.9739984951716316E-2</v>
       </c>
       <c r="I9">
-        <v>-1.3426310945187009E-2</v>
+        <v>-1.2815839154776611E-2</v>
       </c>
       <c r="J9">
-        <v>0.11362619111525141</v>
+        <v>0.11014223292206105</v>
       </c>
       <c r="K9">
-        <v>3.4089177377574206E-2</v>
+        <v>2.9985594307395787E-2</v>
       </c>
       <c r="L9">
-        <v>3.6072069657963113E-2</v>
+        <v>3.496592955859168E-2</v>
       </c>
       <c r="M9">
-        <v>4.1040423717641383E-2</v>
+        <v>3.8329926060799435E-2</v>
       </c>
       <c r="N9">
-        <v>-3.3521041196516964E-3</v>
+        <v>-3.5382999780244929E-3</v>
       </c>
       <c r="O9">
-        <v>2.8650911227624904</v>
+        <v>2.7971763428405936</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -2004,46 +2002,46 @@
         <v>62</v>
       </c>
       <c r="B10" s="70">
-        <v>-0.29660917162046196</v>
+        <v>-0.2983074685839805</v>
       </c>
       <c r="C10">
-        <v>-2.3351695358116972E-2</v>
+        <v>-2.0696929811738925E-2</v>
       </c>
       <c r="D10">
-        <v>-0.1407775600280079</v>
+        <v>-0.14260822171898324</v>
       </c>
       <c r="E10">
-        <v>3.1636551317566902E-3</v>
+        <v>3.1932237208716213E-3</v>
       </c>
       <c r="F10">
-        <v>-2.0261870582427E-2</v>
+        <v>-4.4276048100678339E-3</v>
       </c>
       <c r="G10">
-        <v>-2.4149741996540654E-2</v>
+        <v>-1.958087975392702E-2</v>
       </c>
       <c r="H10">
-        <v>8.7309563220883707E-2</v>
+        <v>8.822375470105441E-2</v>
       </c>
       <c r="I10">
-        <v>-3.4234547823405112E-3</v>
+        <v>-1.8611988491128387E-3</v>
       </c>
       <c r="J10">
-        <v>3.4089177377574206E-2</v>
+        <v>2.9985594307395787E-2</v>
       </c>
       <c r="K10">
-        <v>0.1032274832991128</v>
+        <v>0.10216772808362176</v>
       </c>
       <c r="L10">
-        <v>3.6007493636034005E-2</v>
+        <v>3.565972107286787E-2</v>
       </c>
       <c r="M10">
-        <v>4.0554583365876071E-2</v>
+        <v>3.8864570072774968E-2</v>
       </c>
       <c r="N10">
-        <v>-8.5585899474716239E-4</v>
+        <v>-1.0895208002362541E-3</v>
       </c>
       <c r="O10">
-        <v>1.560002880203335</v>
+        <v>1.5801790776889955</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -2051,46 +2049,46 @@
         <v>63</v>
       </c>
       <c r="B11" s="70">
-        <v>-0.67261360599280473</v>
+        <v>-0.65820821447976952</v>
       </c>
       <c r="C11">
-        <v>-2.1942412313583168E-2</v>
+        <v>-2.0703374451917826E-2</v>
       </c>
       <c r="D11">
-        <v>-0.11746981065560647</v>
+        <v>-0.11630795651201531</v>
       </c>
       <c r="E11">
-        <v>2.6504758283268925E-3</v>
+        <v>2.6237495066000482E-3</v>
       </c>
       <c r="F11">
-        <v>-1.0906570292896961E-2</v>
+        <v>-1.059282567279024E-3</v>
       </c>
       <c r="G11">
-        <v>-1.7613698107453009E-2</v>
+        <v>-1.6309169079220955E-2</v>
       </c>
       <c r="H11">
-        <v>-3.3349262136324054E-3</v>
+        <v>-4.6323534906277525E-3</v>
       </c>
       <c r="I11">
-        <v>-1.4727578512061454E-3</v>
+        <v>-2.6249946352308456E-3</v>
       </c>
       <c r="J11">
-        <v>3.6072069657963113E-2</v>
+        <v>3.496592955859168E-2</v>
       </c>
       <c r="K11">
-        <v>3.6007493636034005E-2</v>
+        <v>3.565972107286787E-2</v>
       </c>
       <c r="L11">
-        <v>0.1186355982744399</v>
+        <v>0.11654953401251543</v>
       </c>
       <c r="M11">
-        <v>3.7496660225254275E-2</v>
+        <v>3.6902155404225145E-2</v>
       </c>
       <c r="N11">
-        <v>-8.6573773620064222E-4</v>
+        <v>-1.0720223772164202E-3</v>
       </c>
       <c r="O11">
-        <v>1.2866071661842735</v>
+        <v>1.2810461046511441</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -2098,46 +2096,46 @@
         <v>65</v>
       </c>
       <c r="B12" s="70">
-        <v>0.16353841843189729</v>
+        <v>0.16772970306585583</v>
       </c>
       <c r="C12">
-        <v>-3.196969404586518E-2</v>
+        <v>-2.8089046581488825E-2</v>
       </c>
       <c r="D12">
-        <v>2.2423896722914449E-2</v>
+        <v>1.6758769307109844E-2</v>
       </c>
       <c r="E12">
-        <v>-4.1412086933415027E-4</v>
+        <v>-3.0285292761950133E-4</v>
       </c>
       <c r="F12">
-        <v>-2.5371964073717113E-2</v>
+        <v>5.0810742086650207E-3</v>
       </c>
       <c r="G12">
-        <v>-2.3885262258399556E-2</v>
+        <v>-1.553077468843601E-2</v>
       </c>
       <c r="H12">
-        <v>-9.2701095838779515E-3</v>
+        <v>-1.1684587716284715E-2</v>
       </c>
       <c r="I12">
-        <v>-6.3032464138588935E-3</v>
+        <v>-6.3193772424971761E-3</v>
       </c>
       <c r="J12">
-        <v>4.1040423717641383E-2</v>
+        <v>3.8329926060799435E-2</v>
       </c>
       <c r="K12">
-        <v>4.0554583365876071E-2</v>
+        <v>3.8864570072774968E-2</v>
       </c>
       <c r="L12">
-        <v>3.7496660225254275E-2</v>
+        <v>3.6902155404225145E-2</v>
       </c>
       <c r="M12">
-        <v>5.857376534116867E-2</v>
+        <v>5.5388897910586987E-2</v>
       </c>
       <c r="N12">
-        <v>-4.2274579527027171E-4</v>
+        <v>-4.9245056950433059E-4</v>
       </c>
       <c r="O12">
-        <v>-0.2817152051514229</v>
+        <v>-0.21664421879197082</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -2145,46 +2143,46 @@
         <v>22</v>
       </c>
       <c r="B13" s="70">
-        <v>1.0738312729252675E-2</v>
+        <v>9.4039688667899354E-3</v>
       </c>
       <c r="C13">
-        <v>6.1274920253518881E-4</v>
+        <v>7.2739067533747655E-4</v>
       </c>
       <c r="D13">
-        <v>1.5794650547504119E-2</v>
+        <v>1.6588220168392898E-2</v>
       </c>
       <c r="E13">
-        <v>-3.7018387677889043E-4</v>
+        <v>-3.8918793856575554E-4</v>
       </c>
       <c r="F13">
-        <v>-1.455627947974502E-4</v>
+        <v>-2.8588054708143973E-3</v>
       </c>
       <c r="G13">
-        <v>1.6958656982277768E-3</v>
+        <v>7.3470813718943834E-4</v>
       </c>
       <c r="H13">
-        <v>1.6397650765560341E-3</v>
+        <v>2.1246719168116881E-3</v>
       </c>
       <c r="I13">
-        <v>5.2583077977219768E-4</v>
+        <v>5.1853812389095547E-4</v>
       </c>
       <c r="J13">
-        <v>-3.3521041196516964E-3</v>
+        <v>-3.5382999780244929E-3</v>
       </c>
       <c r="K13">
-        <v>-8.5585899474716239E-4</v>
+        <v>-1.0895208002362541E-3</v>
       </c>
       <c r="L13">
-        <v>-8.6573773620064222E-4</v>
+        <v>-1.0720223772164202E-3</v>
       </c>
       <c r="M13">
-        <v>-4.2274579527027171E-4</v>
+        <v>-4.9245056950433059E-4</v>
       </c>
       <c r="N13">
-        <v>9.4983653140124638E-4</v>
+        <v>9.8344516343736618E-4</v>
       </c>
       <c r="O13">
-        <v>-0.18421574499447202</v>
+        <v>-0.19185161934406664</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -2192,46 +2190,46 @@
         <v>23</v>
       </c>
       <c r="B14" s="70">
-        <v>-30.600973059217591</v>
+        <v>-30.150753458631865</v>
       </c>
       <c r="C14">
-        <v>3.0180109206661809E-2</v>
+        <v>-4.4923138129243423E-2</v>
       </c>
       <c r="D14">
-        <v>-16.174119827630193</v>
+        <v>-15.571844685284219</v>
       </c>
       <c r="E14">
-        <v>0.37092072940029208</v>
+        <v>0.35764514428700167</v>
       </c>
       <c r="F14">
-        <v>-7.114847501182453E-2</v>
+        <v>-0.83874840353654601</v>
       </c>
       <c r="G14">
-        <v>-0.59049214098581715</v>
+        <v>-0.86449264836344208</v>
       </c>
       <c r="H14">
-        <v>1.1015225560176911</v>
+        <v>0.88772834516394861</v>
       </c>
       <c r="I14">
-        <v>-0.23554688015695158</v>
+        <v>-0.20698427140791686</v>
       </c>
       <c r="J14">
-        <v>2.8650911227624904</v>
+        <v>2.7971763428405936</v>
       </c>
       <c r="K14">
-        <v>1.560002880203335</v>
+        <v>1.5801790776889955</v>
       </c>
       <c r="L14">
-        <v>1.2866071661842735</v>
+        <v>1.2810461046511441</v>
       </c>
       <c r="M14">
-        <v>-0.2817152051514229</v>
+        <v>-0.21664421879197082</v>
       </c>
       <c r="N14">
-        <v>-0.18421574499447202</v>
+        <v>-0.19185161934406664</v>
       </c>
       <c r="O14">
-        <v>178.73703411404904</v>
+        <v>172.23034756274046</v>
       </c>
     </row>
   </sheetData>
@@ -2350,94 +2348,94 @@
         <v>16</v>
       </c>
       <c r="B2" s="70">
-        <v>4.4430558974662478E-2</v>
+        <v>4.6483570788087514E-2</v>
       </c>
       <c r="C2">
-        <v>7.3874730961234322E-5</v>
+        <v>6.7022969496626652E-5</v>
       </c>
       <c r="D2">
-        <v>-8.7199822803831702E-7</v>
+        <v>-7.9851596558763203E-7</v>
       </c>
       <c r="E2">
-        <v>1.6126711212297891E-5</v>
+        <v>1.5770723649113532E-5</v>
       </c>
       <c r="F2">
-        <v>6.7317564854790362E-5</v>
+        <v>6.4890633838078361E-5</v>
       </c>
       <c r="G2">
-        <v>-1.996039348133949E-6</v>
+        <v>-1.1019812640281651E-5</v>
       </c>
       <c r="H2">
-        <v>1.6198813505826766E-4</v>
+        <v>1.1120658903815712E-4</v>
       </c>
       <c r="I2">
-        <v>1.2802387781430324E-4</v>
+        <v>9.9111722779368996E-5</v>
       </c>
       <c r="J2">
-        <v>4.3256276467481939E-4</v>
+        <v>4.2140335723450737E-4</v>
       </c>
       <c r="K2">
-        <v>6.748156570240266E-5</v>
+        <v>5.643316338652777E-5</v>
       </c>
       <c r="L2">
-        <v>-8.719326056609724E-5</v>
+        <v>-8.0308210371900582E-5</v>
       </c>
       <c r="M2">
-        <v>9.533002979043612E-6</v>
+        <v>1.4277196144474996E-5</v>
       </c>
       <c r="N2">
-        <v>9.619660523895742E-6</v>
+        <v>6.7849401830401398E-6</v>
       </c>
       <c r="O2">
-        <v>1.1487888568478962E-5</v>
+        <v>-1.5538223623796102E-5</v>
       </c>
       <c r="P2">
-        <v>-4.5183775121322912E-5</v>
+        <v>-7.5491978120348902E-5</v>
       </c>
       <c r="Q2">
-        <v>-7.8689790884780523E-5</v>
+        <v>-9.3398856776783596E-5</v>
       </c>
       <c r="R2">
-        <v>-9.201679299940561E-5</v>
+        <v>-8.3565568692161522E-5</v>
       </c>
       <c r="S2">
-        <v>2.5213325575512897E-5</v>
+        <v>3.0196816795164647E-5</v>
       </c>
       <c r="T2">
-        <v>-6.8386257461722222E-5</v>
+        <v>-3.9656715489193718E-6</v>
       </c>
       <c r="U2">
-        <v>4.4090953941282296E-5</v>
+        <v>1.32617929515277E-4</v>
       </c>
       <c r="V2">
-        <v>9.6994741113949493E-5</v>
+        <v>1.8015364686532092E-4</v>
       </c>
       <c r="W2">
-        <v>1.7255399192346273E-4</v>
+        <v>2.4254065810355136E-4</v>
       </c>
       <c r="X2">
-        <v>7.4220175053111496E-6</v>
+        <v>1.8387927746663156E-5</v>
       </c>
       <c r="Y2">
-        <v>4.1931158545479746E-5</v>
+        <v>4.5995766670492461E-5</v>
       </c>
       <c r="Z2">
-        <v>1.5603224264260042E-7</v>
+        <v>3.8430837645562826E-6</v>
       </c>
       <c r="AA2">
-        <v>-1.846901113348304E-5</v>
+        <v>-4.4870886545533026E-6</v>
       </c>
       <c r="AB2">
-        <v>1.9282451197653556E-6</v>
+        <v>1.6984471431330563E-6</v>
       </c>
       <c r="AC2">
-        <v>5.6323514074109937E-5</v>
+        <v>3.4412207624619044E-5</v>
       </c>
       <c r="AD2">
-        <v>-7.6860250666310292E-6</v>
+        <v>-5.1178191590117391E-6</v>
       </c>
       <c r="AE2">
-        <v>-1.5304638832862041E-3</v>
+        <v>-1.4482559087916696E-3</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.45">
@@ -2445,94 +2443,94 @@
         <v>17</v>
       </c>
       <c r="B3" s="70">
-        <v>-7.0767122427836139E-4</v>
+        <v>-7.1075095546563555E-4</v>
       </c>
       <c r="C3">
-        <v>-8.7199822803831702E-7</v>
+        <v>-7.9851596558763203E-7</v>
       </c>
       <c r="D3">
-        <v>1.0739524566577711E-8</v>
+        <v>9.9243319611043645E-9</v>
       </c>
       <c r="E3">
-        <v>-2.00458102568687E-7</v>
+        <v>-1.477572872857085E-7</v>
       </c>
       <c r="F3">
-        <v>-8.9432459644991163E-7</v>
+        <v>-8.1774339841186417E-7</v>
       </c>
       <c r="G3">
-        <v>2.9083897132083115E-7</v>
+        <v>3.7782720528296206E-7</v>
       </c>
       <c r="H3">
-        <v>-1.3939231572911766E-6</v>
+        <v>-8.8723371943284482E-7</v>
       </c>
       <c r="I3">
-        <v>-1.3128978452310717E-6</v>
+        <v>-1.0597010659433215E-6</v>
       </c>
       <c r="J3">
-        <v>-6.06157598246557E-6</v>
+        <v>-6.0032823007319817E-6</v>
       </c>
       <c r="K3">
-        <v>-9.6774210604593219E-7</v>
+        <v>-8.4287677749168817E-7</v>
       </c>
       <c r="L3">
-        <v>9.4066374698049711E-7</v>
+        <v>8.5671178593740169E-7</v>
       </c>
       <c r="M3">
-        <v>-4.8592381264578179E-7</v>
+        <v>-5.0126390604237887E-7</v>
       </c>
       <c r="N3">
-        <v>-6.8207994243289491E-8</v>
+        <v>-5.7056950604910654E-8</v>
       </c>
       <c r="O3">
-        <v>-1.8070900633847445E-8</v>
+        <v>2.68149257817461E-7</v>
       </c>
       <c r="P3">
-        <v>5.7755639054759216E-7</v>
+        <v>9.5490991858911791E-7</v>
       </c>
       <c r="Q3">
-        <v>8.0698963395916322E-7</v>
+        <v>9.956717464274546E-7</v>
       </c>
       <c r="R3">
-        <v>1.1138358991287517E-6</v>
+        <v>9.861235627505435E-7</v>
       </c>
       <c r="S3">
-        <v>-2.0693398466288895E-7</v>
+        <v>-1.9536593567929931E-7</v>
       </c>
       <c r="T3">
-        <v>1.039881005130557E-6</v>
+        <v>3.9556843236800354E-7</v>
       </c>
       <c r="U3">
-        <v>-5.7614982207139638E-7</v>
+        <v>-1.66524824924241E-6</v>
       </c>
       <c r="V3">
-        <v>-8.8887503585663517E-7</v>
+        <v>-1.9773036509107688E-6</v>
       </c>
       <c r="W3">
-        <v>-1.520242546508785E-6</v>
+        <v>-2.4925549744495805E-6</v>
       </c>
       <c r="X3">
-        <v>-1.7586186930598551E-7</v>
+        <v>-3.4291597099273727E-7</v>
       </c>
       <c r="Y3">
-        <v>-5.7009917614614604E-7</v>
+        <v>-6.8028425729610942E-7</v>
       </c>
       <c r="Z3">
-        <v>-1.0786328073395495E-7</v>
+        <v>-1.8865216586857173E-7</v>
       </c>
       <c r="AA3">
-        <v>8.5838364662171951E-8</v>
+        <v>-1.0249877965557024E-7</v>
       </c>
       <c r="AB3">
-        <v>-2.793222404243551E-8</v>
+        <v>-2.1864546023270786E-8</v>
       </c>
       <c r="AC3">
-        <v>-7.3224353665023491E-7</v>
+        <v>-3.516924212189723E-7</v>
       </c>
       <c r="AD3">
-        <v>8.0943572046759206E-9</v>
+        <v>1.5505449316306951E-8</v>
       </c>
       <c r="AE3">
-        <v>1.7177622539846921E-5</v>
+        <v>1.646784657681203E-5</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.45">
@@ -2540,94 +2538,94 @@
         <v>24</v>
       </c>
       <c r="B4" s="70">
-        <v>-5.1603489610948718E-2</v>
+        <v>-0.10343503154504324</v>
       </c>
       <c r="C4">
-        <v>1.6126711212297891E-5</v>
+        <v>1.5770723649113532E-5</v>
       </c>
       <c r="D4">
-        <v>-2.00458102568687E-7</v>
+        <v>-1.477572872857085E-7</v>
       </c>
       <c r="E4">
-        <v>1.6647671305788639E-3</v>
+        <v>1.5082497232892257E-3</v>
       </c>
       <c r="F4">
-        <v>1.289153115111677E-3</v>
+        <v>1.2313713671433465E-3</v>
       </c>
       <c r="G4">
-        <v>-2.4721901968486953E-4</v>
+        <v>-2.1197057073329062E-4</v>
       </c>
       <c r="H4">
-        <v>-3.436763902150654E-4</v>
+        <v>-2.1369012886464372E-4</v>
       </c>
       <c r="I4">
-        <v>-9.8972180307646323E-5</v>
+        <v>-6.1135574099965771E-5</v>
       </c>
       <c r="J4">
-        <v>-8.6676152015784775E-5</v>
+        <v>-7.6012301952356676E-5</v>
       </c>
       <c r="K4">
-        <v>1.2100394583547597E-4</v>
+        <v>8.2818269787850824E-5</v>
       </c>
       <c r="L4">
-        <v>-7.560176949390952E-5</v>
+        <v>-1.5199379253321831E-4</v>
       </c>
       <c r="M4">
-        <v>3.0486862430280804E-4</v>
+        <v>2.5519247577849571E-4</v>
       </c>
       <c r="N4">
-        <v>1.2304276682376455E-5</v>
+        <v>1.5153669205714092E-4</v>
       </c>
       <c r="O4">
-        <v>1.1114479974078253E-5</v>
+        <v>1.0497371216972083E-4</v>
       </c>
       <c r="P4">
-        <v>1.748738361776977E-4</v>
+        <v>3.0064816743503544E-4</v>
       </c>
       <c r="Q4">
-        <v>6.5151199319962792E-4</v>
+        <v>6.4619176060487732E-4</v>
       </c>
       <c r="R4">
-        <v>-8.1449825813216135E-5</v>
+        <v>1.7022300748544233E-6</v>
       </c>
       <c r="S4">
-        <v>2.2005742281466507E-4</v>
+        <v>8.0450616366571772E-5</v>
       </c>
       <c r="T4">
-        <v>-1.8505793038030196E-4</v>
+        <v>-3.9680785529168567E-6</v>
       </c>
       <c r="U4">
-        <v>1.1495824205067634E-4</v>
+        <v>7.9941167128580207E-5</v>
       </c>
       <c r="V4">
-        <v>6.4915910027004732E-5</v>
+        <v>1.4183215002400176E-4</v>
       </c>
       <c r="W4">
-        <v>1.9862947502182827E-4</v>
+        <v>2.4197836470508767E-4</v>
       </c>
       <c r="X4">
-        <v>-3.5689567895862265E-4</v>
+        <v>-2.282214050729168E-4</v>
       </c>
       <c r="Y4">
-        <v>-5.4351367295687309E-4</v>
+        <v>-5.1163244937448428E-4</v>
       </c>
       <c r="Z4">
-        <v>-2.4558129289422518E-4</v>
+        <v>-1.7311880688208165E-4</v>
       </c>
       <c r="AA4">
-        <v>-2.4686082921920296E-4</v>
+        <v>-1.4255905722650593E-4</v>
       </c>
       <c r="AB4">
-        <v>1.2280259966551457E-5</v>
+        <v>1.2956439446087838E-6</v>
       </c>
       <c r="AC4">
-        <v>8.6114081667749368E-5</v>
+        <v>-2.5141083886842143E-6</v>
       </c>
       <c r="AD4">
-        <v>6.7095298591383044E-5</v>
+        <v>1.1893983810891184E-4</v>
       </c>
       <c r="AE4">
-        <v>-1.462030072462006E-3</v>
+        <v>-1.531148193364047E-3</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.45">
@@ -2635,94 +2633,94 @@
         <v>25</v>
       </c>
       <c r="B5" s="70">
-        <v>-0.11970797957305709</v>
+        <v>-0.19063233612373731</v>
       </c>
       <c r="C5">
-        <v>6.7317564854790362E-5</v>
+        <v>6.4890633838078361E-5</v>
       </c>
       <c r="D5">
-        <v>-8.9432459644991163E-7</v>
+        <v>-8.1774339841186417E-7</v>
       </c>
       <c r="E5">
-        <v>1.289153115111677E-3</v>
+        <v>1.2313713671433465E-3</v>
       </c>
       <c r="F5">
-        <v>3.5067968869417713E-3</v>
+        <v>3.2592718443194895E-3</v>
       </c>
       <c r="G5">
-        <v>-4.3931906376537978E-4</v>
+        <v>-5.0937363852718992E-4</v>
       </c>
       <c r="H5">
-        <v>-7.4654801643235231E-4</v>
+        <v>-5.7299072828772527E-4</v>
       </c>
       <c r="I5">
-        <v>-2.4904747815056273E-4</v>
+        <v>-1.8788652625728174E-4</v>
       </c>
       <c r="J5">
-        <v>4.9746512582832334E-5</v>
+        <v>1.9061018913529718E-4</v>
       </c>
       <c r="K5">
-        <v>-9.0964379973285494E-5</v>
+        <v>4.4073656363514046E-5</v>
       </c>
       <c r="L5">
-        <v>-1.6385535397785969E-4</v>
+        <v>-7.9471818031278036E-5</v>
       </c>
       <c r="M5">
-        <v>9.2771217488160358E-4</v>
+        <v>9.0275755249058661E-4</v>
       </c>
       <c r="N5">
-        <v>1.7895228935637601E-4</v>
+        <v>2.9218749852467506E-4</v>
       </c>
       <c r="O5">
-        <v>1.3930905568918872E-4</v>
+        <v>2.6672934516987039E-4</v>
       </c>
       <c r="P5">
-        <v>3.8601508131910984E-4</v>
+        <v>4.4688415701310839E-4</v>
       </c>
       <c r="Q5">
-        <v>7.7739963422010223E-4</v>
+        <v>8.3008174900882749E-4</v>
       </c>
       <c r="R5">
-        <v>-1.9781221622411967E-4</v>
+        <v>-1.7453975751485665E-4</v>
       </c>
       <c r="S5">
-        <v>3.7958648895295805E-4</v>
+        <v>2.229355071306316E-4</v>
       </c>
       <c r="T5">
-        <v>2.570869884915743E-4</v>
+        <v>-8.3376882436049927E-4</v>
       </c>
       <c r="U5">
-        <v>9.8862279289500419E-4</v>
+        <v>-3.1621892258884142E-5</v>
       </c>
       <c r="V5">
-        <v>8.2497033611852468E-4</v>
+        <v>4.7782562763825243E-5</v>
       </c>
       <c r="W5">
-        <v>9.8269587834158524E-4</v>
+        <v>1.5111137928562282E-4</v>
       </c>
       <c r="X5">
-        <v>-4.2354281046463502E-4</v>
+        <v>-2.441049749357828E-4</v>
       </c>
       <c r="Y5">
-        <v>-5.612963945566665E-4</v>
+        <v>-5.1493189060318576E-4</v>
       </c>
       <c r="Z5">
-        <v>-3.7570271204842782E-4</v>
+        <v>-2.9755648421184871E-4</v>
       </c>
       <c r="AA5">
-        <v>-2.5027024251213995E-4</v>
+        <v>-1.5303273510930686E-4</v>
       </c>
       <c r="AB5">
-        <v>1.3125984943323957E-5</v>
+        <v>3.8760836679013237E-6</v>
       </c>
       <c r="AC5">
-        <v>3.5199319659241432E-6</v>
+        <v>-1.8952652462377365E-4</v>
       </c>
       <c r="AD5">
-        <v>4.5510265005672262E-5</v>
+        <v>5.3157637737241562E-5</v>
       </c>
       <c r="AE5">
-        <v>-3.0912567301996045E-3</v>
+        <v>-2.2567148848509021E-3</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.45">
@@ -2730,94 +2728,94 @@
         <v>15</v>
       </c>
       <c r="B6" s="70">
-        <v>-0.10852052465528909</v>
+        <v>-0.11358674295807832</v>
       </c>
       <c r="C6">
-        <v>-1.996039348133949E-6</v>
+        <v>-1.1019812640281651E-5</v>
       </c>
       <c r="D6">
-        <v>2.9083897132083115E-7</v>
+        <v>3.7782720528296206E-7</v>
       </c>
       <c r="E6">
-        <v>-2.4721901968486953E-4</v>
+        <v>-2.1197057073329062E-4</v>
       </c>
       <c r="F6">
-        <v>-4.3931906376537978E-4</v>
+        <v>-5.0937363852718992E-4</v>
       </c>
       <c r="G6">
-        <v>1.9929197729715996E-3</v>
+        <v>1.7082441373202585E-3</v>
       </c>
       <c r="H6">
-        <v>1.4574721916935131E-3</v>
+        <v>1.2097685806798349E-3</v>
       </c>
       <c r="I6">
-        <v>1.0247990430531846E-3</v>
+        <v>7.8452116175515749E-4</v>
       </c>
       <c r="J6">
-        <v>3.4749460783187224E-4</v>
+        <v>4.8335351706425801E-5</v>
       </c>
       <c r="K6">
-        <v>-1.9378291790180262E-3</v>
+        <v>-1.6626671593374695E-3</v>
       </c>
       <c r="L6">
-        <v>-1.7099393743240758E-3</v>
+        <v>-1.4160176163550186E-3</v>
       </c>
       <c r="M6">
-        <v>-2.077095855286299E-3</v>
+        <v>-1.7631395831637386E-3</v>
       </c>
       <c r="N6">
-        <v>-4.5749958760281858E-5</v>
+        <v>-6.3885275753985282E-5</v>
       </c>
       <c r="O6">
-        <v>1.4875818220155857E-5</v>
+        <v>-5.7462796267477281E-5</v>
       </c>
       <c r="P6">
-        <v>-1.7099982892453456E-4</v>
+        <v>-1.3319725264933282E-4</v>
       </c>
       <c r="Q6">
-        <v>1.3001433108149747E-4</v>
+        <v>-1.8100916907953676E-5</v>
       </c>
       <c r="R6">
-        <v>4.5247000374847512E-4</v>
+        <v>5.1731775598939001E-4</v>
       </c>
       <c r="S6">
-        <v>-1.0128007040616003E-4</v>
+        <v>-1.8062631154731212E-4</v>
       </c>
       <c r="T6">
-        <v>2.9993457681896604E-4</v>
+        <v>4.8988873526745278E-4</v>
       </c>
       <c r="U6">
-        <v>-1.3194018350394467E-4</v>
+        <v>-5.6887167668416626E-5</v>
       </c>
       <c r="V6">
-        <v>4.9515310603739427E-5</v>
+        <v>-1.3607352442479119E-5</v>
       </c>
       <c r="W6">
-        <v>-6.7475785211822727E-5</v>
+        <v>-9.6883309772528755E-5</v>
       </c>
       <c r="X6">
-        <v>-1.0438006303423937E-4</v>
+        <v>-1.1542044297003154E-4</v>
       </c>
       <c r="Y6">
-        <v>-1.9389266546909393E-4</v>
+        <v>-6.7738933906894236E-5</v>
       </c>
       <c r="Z6">
-        <v>-2.1731852279904056E-4</v>
+        <v>-1.5894779036708316E-4</v>
       </c>
       <c r="AA6">
-        <v>-1.1748677665657803E-4</v>
+        <v>-1.1674516304773292E-4</v>
       </c>
       <c r="AB6">
-        <v>-2.2324755899991856E-5</v>
+        <v>-1.5247948466656791E-5</v>
       </c>
       <c r="AC6">
-        <v>6.0338072335450296E-5</v>
+        <v>2.1887415031267705E-4</v>
       </c>
       <c r="AD6">
-        <v>-2.1487452743673138E-5</v>
+        <v>-8.2360628163838563E-6</v>
       </c>
       <c r="AE6">
-        <v>-7.5411191790240265E-4</v>
+        <v>-4.7319821372894121E-4</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.45">
@@ -2825,94 +2823,94 @@
         <v>26</v>
       </c>
       <c r="B7" s="70">
-        <v>-0.38247896748870019</v>
+        <v>-0.46054258908616919</v>
       </c>
       <c r="C7">
-        <v>1.6198813505826766E-4</v>
+        <v>1.1120658903815712E-4</v>
       </c>
       <c r="D7">
-        <v>-1.3939231572911766E-6</v>
+        <v>-8.8723371943284482E-7</v>
       </c>
       <c r="E7">
-        <v>-3.436763902150654E-4</v>
+        <v>-2.1369012886464372E-4</v>
       </c>
       <c r="F7">
-        <v>-7.4654801643235231E-4</v>
+        <v>-5.7299072828772527E-4</v>
       </c>
       <c r="G7">
-        <v>1.4574721916935131E-3</v>
+        <v>1.2097685806798349E-3</v>
       </c>
       <c r="H7">
-        <v>1.1802563767653398E-2</v>
+        <v>1.1582530788205316E-2</v>
       </c>
       <c r="I7">
-        <v>2.9209942748092644E-3</v>
+        <v>2.8803563352567197E-3</v>
       </c>
       <c r="J7">
-        <v>2.3518615838556529E-3</v>
+        <v>2.3955584535142304E-3</v>
       </c>
       <c r="K7">
-        <v>-9.5857643045450681E-3</v>
+        <v>-9.3336866046788494E-3</v>
       </c>
       <c r="L7">
-        <v>-1.0953308341816932E-3</v>
+        <v>-8.9095864906005642E-4</v>
       </c>
       <c r="M7">
-        <v>-1.4262877089126322E-3</v>
+        <v>-1.2453607670329077E-3</v>
       </c>
       <c r="N7">
-        <v>2.1201676484717711E-4</v>
+        <v>1.3504007589808448E-4</v>
       </c>
       <c r="O7">
-        <v>1.8208710430562148E-3</v>
+        <v>2.1105881667758605E-3</v>
       </c>
       <c r="P7">
-        <v>2.1722206425649464E-3</v>
+        <v>2.4209211843589694E-3</v>
       </c>
       <c r="Q7">
-        <v>2.038564770519806E-3</v>
+        <v>2.2556852895835667E-3</v>
       </c>
       <c r="R7">
-        <v>2.4556598907025202E-4</v>
+        <v>1.4255623610986436E-4</v>
       </c>
       <c r="S7">
-        <v>-5.0958614533132816E-4</v>
+        <v>-4.6056313435402919E-4</v>
       </c>
       <c r="T7">
-        <v>-2.0010060834564159E-4</v>
+        <v>4.9260944173518399E-4</v>
       </c>
       <c r="U7">
-        <v>-3.6031025688310493E-4</v>
+        <v>3.5988970313015003E-5</v>
       </c>
       <c r="V7">
-        <v>-6.598712444736473E-6</v>
+        <v>4.0985999258065362E-4</v>
       </c>
       <c r="W7">
-        <v>1.0525406689265281E-4</v>
+        <v>4.5054727012012346E-4</v>
       </c>
       <c r="X7">
-        <v>5.429175139843403E-4</v>
+        <v>3.4847479606210001E-4</v>
       </c>
       <c r="Y7">
-        <v>-1.8931182102379556E-4</v>
+        <v>-3.3964818053829521E-4</v>
       </c>
       <c r="Z7">
-        <v>-3.7314029750573998E-4</v>
+        <v>-4.0262429333195061E-4</v>
       </c>
       <c r="AA7">
-        <v>-2.4996897181250638E-4</v>
+        <v>-3.1184113926673398E-4</v>
       </c>
       <c r="AB7">
-        <v>-5.4055666537304222E-5</v>
+        <v>-3.3413664765257896E-5</v>
       </c>
       <c r="AC7">
-        <v>1.7853592122416603E-4</v>
+        <v>5.3511117477262303E-5</v>
       </c>
       <c r="AD7">
-        <v>-1.4717216641880896E-4</v>
+        <v>-1.2437131091591483E-4</v>
       </c>
       <c r="AE7">
-        <v>-5.7202152925189282E-3</v>
+        <v>-5.325657881742718E-3</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.45">
@@ -2920,94 +2918,94 @@
         <v>27</v>
       </c>
       <c r="B8" s="70">
-        <v>2.7004563820667252E-2</v>
+        <v>-6.1134501522107622E-2</v>
       </c>
       <c r="C8">
-        <v>1.2802387781430324E-4</v>
+        <v>9.9111722779368996E-5</v>
       </c>
       <c r="D8">
-        <v>-1.3128978452310717E-6</v>
+        <v>-1.0597010659433215E-6</v>
       </c>
       <c r="E8">
-        <v>-9.8972180307646323E-5</v>
+        <v>-6.1135574099965771E-5</v>
       </c>
       <c r="F8">
-        <v>-2.4904747815056273E-4</v>
+        <v>-1.8788652625728174E-4</v>
       </c>
       <c r="G8">
-        <v>1.0247990430531846E-3</v>
+        <v>7.8452116175515749E-4</v>
       </c>
       <c r="H8">
-        <v>2.9209942748092644E-3</v>
+        <v>2.8803563352567197E-3</v>
       </c>
       <c r="I8">
-        <v>4.6543573237819115E-3</v>
+        <v>4.8018935911613957E-3</v>
       </c>
       <c r="J8">
-        <v>2.8708292083006273E-3</v>
+        <v>3.2668873686746633E-3</v>
       </c>
       <c r="K8">
-        <v>-1.3197550686865045E-3</v>
+        <v>-1.0241449978769294E-3</v>
       </c>
       <c r="L8">
-        <v>-3.0611866003390962E-3</v>
+        <v>-2.8255028145366427E-3</v>
       </c>
       <c r="M8">
-        <v>-9.8390091403740155E-4</v>
+        <v>-8.2075763569279016E-4</v>
       </c>
       <c r="N8">
-        <v>3.4060753653730475E-4</v>
+        <v>-5.2878424089305087E-5</v>
       </c>
       <c r="O8">
-        <v>1.6597263275719397E-3</v>
+        <v>1.8669175692528159E-3</v>
       </c>
       <c r="P8">
-        <v>2.0319777516047831E-3</v>
+        <v>2.1572236635521709E-3</v>
       </c>
       <c r="Q8">
-        <v>2.0707738280904843E-3</v>
+        <v>2.1826147894097856E-3</v>
       </c>
       <c r="R8">
-        <v>-8.9162337263054125E-5</v>
+        <v>-2.3697805060827657E-4</v>
       </c>
       <c r="S8">
-        <v>-9.6489945484436483E-4</v>
+        <v>-8.3743306495439316E-4</v>
       </c>
       <c r="T8">
-        <v>-2.3049389309745278E-4</v>
+        <v>3.0494940280204215E-4</v>
       </c>
       <c r="U8">
-        <v>2.143380455193679E-4</v>
+        <v>5.8311910616362119E-4</v>
       </c>
       <c r="V8">
-        <v>6.6965066464156502E-4</v>
+        <v>1.2134627801326369E-3</v>
       </c>
       <c r="W8">
-        <v>8.6990350038146954E-4</v>
+        <v>1.3437930170204777E-3</v>
       </c>
       <c r="X8">
-        <v>-6.3587913207576331E-5</v>
+        <v>-8.4614489405065519E-5</v>
       </c>
       <c r="Y8">
-        <v>-1.0444124759898126E-4</v>
+        <v>-2.4940689753766575E-4</v>
       </c>
       <c r="Z8">
-        <v>-3.0393675770231982E-4</v>
+        <v>-2.7073839807777308E-4</v>
       </c>
       <c r="AA8">
-        <v>7.2792509164598955E-5</v>
+        <v>3.8962761530619676E-5</v>
       </c>
       <c r="AB8">
-        <v>8.6856519617186433E-6</v>
+        <v>1.3622445966830372E-5</v>
       </c>
       <c r="AC8">
-        <v>-1.1467617884913686E-4</v>
+        <v>-2.556794097540371E-4</v>
       </c>
       <c r="AD8">
-        <v>-3.4823113812129419E-4</v>
+        <v>-2.6460693025620108E-4</v>
       </c>
       <c r="AE8">
-        <v>-6.179340414086007E-3</v>
+        <v>-5.9871874847268044E-3</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.45">
@@ -3015,94 +3013,94 @@
         <v>28</v>
       </c>
       <c r="B9" s="70">
-        <v>0.21544489824269475</v>
+        <v>5.7965606543666337E-2</v>
       </c>
       <c r="C9">
-        <v>4.3256276467481939E-4</v>
+        <v>4.2140335723450737E-4</v>
       </c>
       <c r="D9">
-        <v>-6.06157598246557E-6</v>
+        <v>-6.0032823007319817E-6</v>
       </c>
       <c r="E9">
-        <v>-8.6676152015784775E-5</v>
+        <v>-7.6012301952356676E-5</v>
       </c>
       <c r="F9">
-        <v>4.9746512582832334E-5</v>
+        <v>1.9061018913529718E-4</v>
       </c>
       <c r="G9">
-        <v>3.4749460783187224E-4</v>
+        <v>4.8335351706425801E-5</v>
       </c>
       <c r="H9">
-        <v>2.3518615838556529E-3</v>
+        <v>2.3955584535142304E-3</v>
       </c>
       <c r="I9">
-        <v>2.8708292083006273E-3</v>
+        <v>3.2668873686746633E-3</v>
       </c>
       <c r="J9">
-        <v>1.2980661585581057E-2</v>
+        <v>1.3671655783052225E-2</v>
       </c>
       <c r="K9">
-        <v>-5.8734258849976653E-4</v>
+        <v>-2.3465973104016191E-4</v>
       </c>
       <c r="L9">
-        <v>-1.0965751948667306E-3</v>
+        <v>-8.4160484953764913E-4</v>
       </c>
       <c r="M9">
-        <v>-4.9578496076685659E-3</v>
+        <v>-4.696686060878444E-3</v>
       </c>
       <c r="N9">
-        <v>6.5116458677334636E-4</v>
+        <v>4.5147465552864763E-4</v>
       </c>
       <c r="O9">
-        <v>2.1438953554902222E-3</v>
+        <v>2.3466169479442241E-3</v>
       </c>
       <c r="P9">
-        <v>2.2148187470900985E-3</v>
+        <v>2.1874180483801436E-3</v>
       </c>
       <c r="Q9">
-        <v>2.5504007800698798E-3</v>
+        <v>2.6776047199999291E-3</v>
       </c>
       <c r="R9">
-        <v>-2.3017783712359985E-4</v>
+        <v>-3.4159674270658417E-4</v>
       </c>
       <c r="S9">
-        <v>-4.6624847104833407E-4</v>
+        <v>-5.6216480258486248E-4</v>
       </c>
       <c r="T9">
-        <v>-2.8776248234566987E-3</v>
+        <v>-4.322095137619472E-3</v>
       </c>
       <c r="U9">
-        <v>-1.1681568877383935E-3</v>
+        <v>-1.547969791328126E-3</v>
       </c>
       <c r="V9">
-        <v>-3.7795519971539366E-4</v>
+        <v>-6.4037605316030538E-4</v>
       </c>
       <c r="W9">
-        <v>-1.8412266360009989E-4</v>
+        <v>-5.6343542040125552E-4</v>
       </c>
       <c r="X9">
-        <v>5.9397655906602998E-5</v>
+        <v>2.5794252002578062E-4</v>
       </c>
       <c r="Y9">
-        <v>-1.449997091053075E-4</v>
+        <v>-5.9613109091512313E-5</v>
       </c>
       <c r="Z9">
-        <v>-2.1591567995535776E-4</v>
+        <v>2.533575738898489E-5</v>
       </c>
       <c r="AA9">
-        <v>7.0783743740643985E-6</v>
+        <v>2.0696000510883117E-4</v>
       </c>
       <c r="AB9">
-        <v>2.5353604218917561E-5</v>
+        <v>2.1291888060549343E-5</v>
       </c>
       <c r="AC9">
-        <v>9.6980910745114333E-4</v>
+        <v>6.7068445643848201E-5</v>
       </c>
       <c r="AD9">
-        <v>-2.0424846646525984E-4</v>
+        <v>-1.7891363207410719E-4</v>
       </c>
       <c r="AE9">
-        <v>-9.6747170541437565E-3</v>
+        <v>-9.009798561328922E-3</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.45">
@@ -3110,94 +3108,94 @@
         <v>29</v>
       </c>
       <c r="B10" s="70">
-        <v>4.6925308348733904E-3</v>
+        <v>7.9907213123977371E-3</v>
       </c>
       <c r="C10">
-        <v>6.748156570240266E-5</v>
+        <v>5.643316338652777E-5</v>
       </c>
       <c r="D10">
-        <v>-9.6774210604593219E-7</v>
+        <v>-8.4287677749168817E-7</v>
       </c>
       <c r="E10">
-        <v>1.2100394583547597E-4</v>
+        <v>8.2818269787850824E-5</v>
       </c>
       <c r="F10">
-        <v>-9.0964379973285494E-5</v>
+        <v>4.4073656363514046E-5</v>
       </c>
       <c r="G10">
-        <v>-1.9378291790180262E-3</v>
+        <v>-1.6626671593374695E-3</v>
       </c>
       <c r="H10">
-        <v>-9.5857643045450681E-3</v>
+        <v>-9.3336866046788494E-3</v>
       </c>
       <c r="I10">
-        <v>-1.3197550686865045E-3</v>
+        <v>-1.0241449978769294E-3</v>
       </c>
       <c r="J10">
-        <v>-5.8734258849976653E-4</v>
+        <v>-2.3465973104016191E-4</v>
       </c>
       <c r="K10">
-        <v>2.720316007466976E-2</v>
+        <v>2.6737908598075594E-2</v>
       </c>
       <c r="L10">
-        <v>1.7169752331388578E-3</v>
+        <v>1.4433891846065674E-3</v>
       </c>
       <c r="M10">
-        <v>2.0221853325797065E-3</v>
+        <v>1.7132467039000776E-3</v>
       </c>
       <c r="N10">
-        <v>-5.8922444205206114E-4</v>
+        <v>-2.5908624373053066E-4</v>
       </c>
       <c r="O10">
-        <v>-9.9103218165573666E-4</v>
+        <v>-5.632226795438982E-4</v>
       </c>
       <c r="P10">
-        <v>-9.2349186769166496E-4</v>
+        <v>-5.6185780177359329E-4</v>
       </c>
       <c r="Q10">
-        <v>-1.2118971704665339E-3</v>
+        <v>-6.6560624754358969E-4</v>
       </c>
       <c r="R10">
-        <v>-4.5530616799204101E-4</v>
+        <v>-5.5628274150237899E-4</v>
       </c>
       <c r="S10">
-        <v>5.3237411611823499E-4</v>
+        <v>6.5666428009863824E-4</v>
       </c>
       <c r="T10">
-        <v>-2.8859661776621211E-4</v>
+        <v>-4.6647944704696586E-4</v>
       </c>
       <c r="U10">
-        <v>4.6318136976393416E-5</v>
+        <v>-5.1089456177164265E-5</v>
       </c>
       <c r="V10">
-        <v>-1.3146967941487798E-4</v>
+        <v>-7.5074674388222058E-5</v>
       </c>
       <c r="W10">
-        <v>2.8373144593575047E-4</v>
+        <v>2.1335604262238177E-4</v>
       </c>
       <c r="X10">
-        <v>-2.2317981037924022E-4</v>
+        <v>-1.7205883009026364E-4</v>
       </c>
       <c r="Y10">
-        <v>1.2246417859603975E-3</v>
+        <v>8.5808413926625343E-4</v>
       </c>
       <c r="Z10">
-        <v>9.3186102994004727E-4</v>
+        <v>7.8143699444727143E-4</v>
       </c>
       <c r="AA10">
-        <v>1.7354951651818331E-4</v>
+        <v>1.2424615294693781E-4</v>
       </c>
       <c r="AB10">
-        <v>1.9718532389217736E-5</v>
+        <v>1.2609111010243784E-5</v>
       </c>
       <c r="AC10">
-        <v>-3.3996009002964714E-4</v>
+        <v>-4.5175663922071931E-4</v>
       </c>
       <c r="AD10">
-        <v>-5.6191074825124617E-5</v>
+        <v>-4.8055755105148724E-5</v>
       </c>
       <c r="AE10">
-        <v>2.7756850120282312E-4</v>
+        <v>1.4590666717497261E-4</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.45">
@@ -3205,94 +3203,94 @@
         <v>30</v>
       </c>
       <c r="B11" s="70">
-        <v>-0.4285939870817278</v>
+        <v>-0.40938374126110993</v>
       </c>
       <c r="C11">
-        <v>-8.719326056609724E-5</v>
+        <v>-8.0308210371900582E-5</v>
       </c>
       <c r="D11">
-        <v>9.4066374698049711E-7</v>
+        <v>8.5671178593740169E-7</v>
       </c>
       <c r="E11">
-        <v>-7.560176949390952E-5</v>
+        <v>-1.5199379253321831E-4</v>
       </c>
       <c r="F11">
-        <v>-1.6385535397785969E-4</v>
+        <v>-7.9471818031278036E-5</v>
       </c>
       <c r="G11">
-        <v>-1.7099393743240758E-3</v>
+        <v>-1.4160176163550186E-3</v>
       </c>
       <c r="H11">
-        <v>-1.0953308341816932E-3</v>
+        <v>-8.9095864906005642E-4</v>
       </c>
       <c r="I11">
-        <v>-3.0611866003390962E-3</v>
+        <v>-2.8255028145366427E-3</v>
       </c>
       <c r="J11">
-        <v>-1.0965751948667306E-3</v>
+        <v>-8.4160484953764913E-4</v>
       </c>
       <c r="K11">
-        <v>1.7169752331388578E-3</v>
+        <v>1.4433891846065674E-3</v>
       </c>
       <c r="L11">
-        <v>7.5290789648564237E-3</v>
+        <v>7.1736248431194761E-3</v>
       </c>
       <c r="M11">
-        <v>1.6788481683263905E-3</v>
+        <v>1.4012666724121025E-3</v>
       </c>
       <c r="N11">
-        <v>-2.2274403909637502E-4</v>
+        <v>6.7885724339494355E-5</v>
       </c>
       <c r="O11">
-        <v>1.3026469531475531E-4</v>
+        <v>3.3836877522633259E-4</v>
       </c>
       <c r="P11">
-        <v>2.7155384542065135E-4</v>
+        <v>3.8455031954843014E-4</v>
       </c>
       <c r="Q11">
-        <v>4.7577809054753187E-5</v>
+        <v>3.1412576784805153E-4</v>
       </c>
       <c r="R11">
-        <v>2.6209157706512365E-5</v>
+        <v>-3.5245734982468E-5</v>
       </c>
       <c r="S11">
-        <v>8.8660994394466062E-4</v>
+        <v>8.4661151293493372E-4</v>
       </c>
       <c r="T11">
-        <v>7.4408330063756192E-4</v>
+        <v>3.5895063271696641E-4</v>
       </c>
       <c r="U11">
-        <v>2.4305320319819624E-5</v>
+        <v>4.7094646282536703E-5</v>
       </c>
       <c r="V11">
-        <v>-3.0257917340324123E-4</v>
+        <v>-2.5812248235384318E-4</v>
       </c>
       <c r="W11">
-        <v>-3.3328165597325092E-4</v>
+        <v>-2.9105762934421829E-4</v>
       </c>
       <c r="X11">
-        <v>1.2938306503905347E-4</v>
+        <v>1.0045510586670933E-4</v>
       </c>
       <c r="Y11">
-        <v>2.8416440204009615E-4</v>
+        <v>1.7922543415713462E-4</v>
       </c>
       <c r="Z11">
-        <v>3.6876604036555196E-4</v>
+        <v>2.6960226890516455E-4</v>
       </c>
       <c r="AA11">
-        <v>-2.155626278988696E-5</v>
+        <v>-2.3496370840306278E-5</v>
       </c>
       <c r="AB11">
-        <v>-9.36162029990799E-6</v>
+        <v>-1.1742654029036938E-5</v>
       </c>
       <c r="AC11">
-        <v>-1.0252249681102685E-4</v>
+        <v>-2.4747743974217731E-4</v>
       </c>
       <c r="AD11">
-        <v>2.9434026200846698E-4</v>
+        <v>2.5372495345407832E-4</v>
       </c>
       <c r="AE11">
-        <v>2.8843215347491768E-3</v>
+        <v>2.5278003506000713E-3</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.45">
@@ -3300,94 +3298,94 @@
         <v>31</v>
       </c>
       <c r="B12" s="70">
-        <v>0.58699359898446313</v>
+        <v>0.58862574962685787</v>
       </c>
       <c r="C12">
-        <v>9.533002979043612E-6</v>
+        <v>1.4277196144474996E-5</v>
       </c>
       <c r="D12">
-        <v>-4.8592381264578179E-7</v>
+        <v>-5.0126390604237887E-7</v>
       </c>
       <c r="E12">
-        <v>3.0486862430280804E-4</v>
+        <v>2.5519247577849571E-4</v>
       </c>
       <c r="F12">
-        <v>9.2771217488160358E-4</v>
+        <v>9.0275755249058661E-4</v>
       </c>
       <c r="G12">
-        <v>-2.077095855286299E-3</v>
+        <v>-1.7631395831637386E-3</v>
       </c>
       <c r="H12">
-        <v>-1.4262877089126322E-3</v>
+        <v>-1.2453607670329077E-3</v>
       </c>
       <c r="I12">
-        <v>-9.8390091403740155E-4</v>
+        <v>-8.2075763569279016E-4</v>
       </c>
       <c r="J12">
-        <v>-4.9578496076685659E-3</v>
+        <v>-4.696686060878444E-3</v>
       </c>
       <c r="K12">
-        <v>2.0221853325797065E-3</v>
+        <v>1.7132467039000776E-3</v>
       </c>
       <c r="L12">
-        <v>1.6788481683263905E-3</v>
+        <v>1.4012666724121025E-3</v>
       </c>
       <c r="M12">
-        <v>1.1736504933703928E-2</v>
+        <v>1.1308798758714121E-2</v>
       </c>
       <c r="N12">
-        <v>-3.4782084488592916E-4</v>
+        <v>-2.2419099068314466E-4</v>
       </c>
       <c r="O12">
-        <v>-1.2479102929058674E-4</v>
+        <v>-7.5866844981455325E-5</v>
       </c>
       <c r="P12">
-        <v>1.0517076949751171E-4</v>
+        <v>1.1674145796637376E-5</v>
       </c>
       <c r="Q12">
-        <v>-1.352426005427E-4</v>
+        <v>-4.7151954418631275E-5</v>
       </c>
       <c r="R12">
-        <v>-5.0786346228117493E-4</v>
+        <v>-5.3592304702341641E-4</v>
       </c>
       <c r="S12">
-        <v>1.0271048766482485E-4</v>
+        <v>1.4944457019829376E-4</v>
       </c>
       <c r="T12">
-        <v>1.0761791608877767E-3</v>
+        <v>2.5519217112099919E-3</v>
       </c>
       <c r="U12">
-        <v>1.4226508655794969E-3</v>
+        <v>3.189339299697596E-3</v>
       </c>
       <c r="V12">
-        <v>9.7526063742036989E-4</v>
+        <v>2.7852319174962513E-3</v>
       </c>
       <c r="W12">
-        <v>9.431688088498522E-4</v>
+        <v>2.7668309296270165E-3</v>
       </c>
       <c r="X12">
-        <v>3.0166662197530949E-4</v>
+        <v>2.8700907546543399E-4</v>
       </c>
       <c r="Y12">
-        <v>5.2613833837860313E-4</v>
+        <v>4.0005312750841798E-4</v>
       </c>
       <c r="Z12">
-        <v>4.2949581255454877E-4</v>
+        <v>3.4702532049856209E-4</v>
       </c>
       <c r="AA12">
-        <v>4.8548443496787081E-4</v>
+        <v>4.488299479309877E-4</v>
       </c>
       <c r="AB12">
-        <v>2.3627734506835598E-5</v>
+        <v>1.4492331300419999E-5</v>
       </c>
       <c r="AC12">
-        <v>-7.2901125148496664E-4</v>
+        <v>-7.3020069826377457E-4</v>
       </c>
       <c r="AD12">
-        <v>-9.5109320810778699E-6</v>
+        <v>-3.5757059310064818E-5</v>
       </c>
       <c r="AE12">
-        <v>-4.0118072973027545E-4</v>
+        <v>-2.3054674024303268E-3</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.45">
@@ -3395,94 +3393,94 @@
         <v>18</v>
       </c>
       <c r="B13" s="70">
-        <v>8.9335429567389144E-2</v>
+        <v>-2.3341048649744067E-2</v>
       </c>
       <c r="C13">
-        <v>9.619660523895742E-6</v>
+        <v>6.7849401830401398E-6</v>
       </c>
       <c r="D13">
-        <v>-6.8207994243289491E-8</v>
+        <v>-5.7056950604910654E-8</v>
       </c>
       <c r="E13">
-        <v>1.2304276682376455E-5</v>
+        <v>1.5153669205714092E-4</v>
       </c>
       <c r="F13">
-        <v>1.7895228935637601E-4</v>
+        <v>2.9218749852467506E-4</v>
       </c>
       <c r="G13">
-        <v>-4.5749958760281858E-5</v>
+        <v>-6.3885275753985282E-5</v>
       </c>
       <c r="H13">
-        <v>2.1201676484717711E-4</v>
+        <v>1.3504007589808448E-4</v>
       </c>
       <c r="I13">
-        <v>3.4060753653730475E-4</v>
+        <v>-5.2878424089305087E-5</v>
       </c>
       <c r="J13">
-        <v>6.5116458677334636E-4</v>
+        <v>4.5147465552864763E-4</v>
       </c>
       <c r="K13">
-        <v>-5.8922444205206114E-4</v>
+        <v>-2.5908624373053066E-4</v>
       </c>
       <c r="L13">
-        <v>-2.2274403909637502E-4</v>
+        <v>6.7885724339494355E-5</v>
       </c>
       <c r="M13">
-        <v>-3.4782084488592916E-4</v>
+        <v>-2.2419099068314466E-4</v>
       </c>
       <c r="N13">
-        <v>3.4943121869469066E-3</v>
+        <v>3.1846664528753536E-3</v>
       </c>
       <c r="O13">
-        <v>2.0029369618520237E-3</v>
+        <v>1.579613285294223E-3</v>
       </c>
       <c r="P13">
-        <v>2.0613983391470146E-3</v>
+        <v>1.613779934619591E-3</v>
       </c>
       <c r="Q13">
-        <v>2.0367624600956553E-3</v>
+        <v>1.6233616740560001E-3</v>
       </c>
       <c r="R13">
-        <v>-2.5343922057861261E-4</v>
+        <v>-1.9910821029923672E-5</v>
       </c>
       <c r="S13">
-        <v>8.9266708379493473E-5</v>
+        <v>-6.5636387139485935E-5</v>
       </c>
       <c r="T13">
-        <v>1.9405845288838022E-4</v>
+        <v>-5.1676247839736115E-4</v>
       </c>
       <c r="U13">
-        <v>1.0150397962088205E-4</v>
+        <v>-7.3560457980620495E-4</v>
       </c>
       <c r="V13">
-        <v>2.8606947012035087E-4</v>
+        <v>-5.0645731509031916E-4</v>
       </c>
       <c r="W13">
-        <v>2.8974510721537774E-4</v>
+        <v>-4.8108289651675469E-4</v>
       </c>
       <c r="X13">
-        <v>4.7670026923688738E-5</v>
+        <v>-1.3384859644169345E-4</v>
       </c>
       <c r="Y13">
-        <v>-3.5041957825983615E-4</v>
+        <v>-3.0488130975723685E-4</v>
       </c>
       <c r="Z13">
-        <v>-1.7094418153393363E-5</v>
+        <v>-2.2712416127334016E-5</v>
       </c>
       <c r="AA13">
-        <v>6.261014878364583E-5</v>
+        <v>7.7878625853648314E-5</v>
       </c>
       <c r="AB13">
-        <v>8.456996544321891E-6</v>
+        <v>-3.5539090085854459E-6</v>
       </c>
       <c r="AC13">
-        <v>2.0864807718300475E-4</v>
+        <v>1.0578456306804135E-4</v>
       </c>
       <c r="AD13">
-        <v>-1.755030046893106E-4</v>
+        <v>-1.1269493328718965E-4</v>
       </c>
       <c r="AE13">
-        <v>-2.6881622139382976E-3</v>
+        <v>-1.2296403335267888E-3</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.45">
@@ -3490,94 +3488,94 @@
         <v>19</v>
       </c>
       <c r="B14" s="70">
-        <v>0.14411442107453723</v>
+        <v>-3.9701122032745693E-2</v>
       </c>
       <c r="C14">
-        <v>1.1487888568478962E-5</v>
+        <v>-1.5538223623796102E-5</v>
       </c>
       <c r="D14">
-        <v>-1.8070900633847445E-8</v>
+        <v>2.68149257817461E-7</v>
       </c>
       <c r="E14">
-        <v>1.1114479974078253E-5</v>
+        <v>1.0497371216972083E-4</v>
       </c>
       <c r="F14">
-        <v>1.3930905568918872E-4</v>
+        <v>2.6672934516987039E-4</v>
       </c>
       <c r="G14">
-        <v>1.4875818220155857E-5</v>
+        <v>-5.7462796267477281E-5</v>
       </c>
       <c r="H14">
-        <v>1.8208710430562148E-3</v>
+        <v>2.1105881667758605E-3</v>
       </c>
       <c r="I14">
-        <v>1.6597263275719397E-3</v>
+        <v>1.8669175692528159E-3</v>
       </c>
       <c r="J14">
-        <v>2.1438953554902222E-3</v>
+        <v>2.3466169479442241E-3</v>
       </c>
       <c r="K14">
-        <v>-9.9103218165573666E-4</v>
+        <v>-5.632226795438982E-4</v>
       </c>
       <c r="L14">
-        <v>1.3026469531475531E-4</v>
+        <v>3.3836877522633259E-4</v>
       </c>
       <c r="M14">
-        <v>-1.2479102929058674E-4</v>
+        <v>-7.5866844981455325E-5</v>
       </c>
       <c r="N14">
-        <v>2.0029369618520237E-3</v>
+        <v>1.579613285294223E-3</v>
       </c>
       <c r="O14">
-        <v>4.3195551874844829E-3</v>
+        <v>4.1657668640043936E-3</v>
       </c>
       <c r="P14">
-        <v>3.4103938672664512E-3</v>
+        <v>3.3749205753523595E-3</v>
       </c>
       <c r="Q14">
-        <v>3.3977036865688462E-3</v>
+        <v>3.3978708751068966E-3</v>
       </c>
       <c r="R14">
-        <v>-3.8397281039511473E-4</v>
+        <v>-4.4137049378841419E-4</v>
       </c>
       <c r="S14">
-        <v>1.6372491516363587E-4</v>
+        <v>1.4471617830830158E-4</v>
       </c>
       <c r="T14">
-        <v>-7.435793461495106E-4</v>
+        <v>-5.7127076641168468E-4</v>
       </c>
       <c r="U14">
-        <v>-8.8203764141234046E-4</v>
+        <v>-9.6899207621223456E-4</v>
       </c>
       <c r="V14">
-        <v>-5.8159777092632906E-4</v>
+        <v>-5.6000499272388336E-4</v>
       </c>
       <c r="W14">
-        <v>-4.5518225211126778E-4</v>
+        <v>-4.9025932925933111E-4</v>
       </c>
       <c r="X14">
-        <v>3.0355608358380304E-7</v>
+        <v>-7.4330534505699414E-5</v>
       </c>
       <c r="Y14">
-        <v>-3.2412099818344183E-4</v>
+        <v>-4.8757685391748336E-4</v>
       </c>
       <c r="Z14">
-        <v>-1.331684213533987E-4</v>
+        <v>-1.1446632467079386E-4</v>
       </c>
       <c r="AA14">
-        <v>-1.9727500767265148E-5</v>
+        <v>-4.1878142196002065E-5</v>
       </c>
       <c r="AB14">
-        <v>-6.0413265770024863E-6</v>
+        <v>-1.2221077085256678E-5</v>
       </c>
       <c r="AC14">
-        <v>9.6783293545123564E-5</v>
+        <v>-2.2103989139100693E-4</v>
       </c>
       <c r="AD14">
-        <v>-2.6749012611147576E-4</v>
+        <v>-2.1134768664735526E-4</v>
       </c>
       <c r="AE14">
-        <v>-3.1259249406179589E-3</v>
+        <v>-2.3400602843120168E-3</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.45">
@@ -3585,94 +3583,94 @@
         <v>32</v>
       </c>
       <c r="B15" s="70">
-        <v>0.19679488609663864</v>
+        <v>-1.5945355043269695E-2</v>
       </c>
       <c r="C15">
-        <v>-4.5183775121322912E-5</v>
+        <v>-7.5491978120348902E-5</v>
       </c>
       <c r="D15">
-        <v>5.7755639054759216E-7</v>
+        <v>9.5490991858911791E-7</v>
       </c>
       <c r="E15">
-        <v>1.748738361776977E-4</v>
+        <v>3.0064816743503544E-4</v>
       </c>
       <c r="F15">
-        <v>3.8601508131910984E-4</v>
+        <v>4.4688415701310839E-4</v>
       </c>
       <c r="G15">
-        <v>-1.7099982892453456E-4</v>
+        <v>-1.3319725264933282E-4</v>
       </c>
       <c r="H15">
-        <v>2.1722206425649464E-3</v>
+        <v>2.4209211843589694E-3</v>
       </c>
       <c r="I15">
-        <v>2.0319777516047831E-3</v>
+        <v>2.1572236635521709E-3</v>
       </c>
       <c r="J15">
-        <v>2.2148187470900985E-3</v>
+        <v>2.1874180483801436E-3</v>
       </c>
       <c r="K15">
-        <v>-9.2349186769166496E-4</v>
+        <v>-5.6185780177359329E-4</v>
       </c>
       <c r="L15">
-        <v>2.7155384542065135E-4</v>
+        <v>3.8455031954843014E-4</v>
       </c>
       <c r="M15">
-        <v>1.0517076949751171E-4</v>
+        <v>1.1674145796637376E-5</v>
       </c>
       <c r="N15">
-        <v>2.0613983391470146E-3</v>
+        <v>1.613779934619591E-3</v>
       </c>
       <c r="O15">
-        <v>3.4103938672664512E-3</v>
+        <v>3.3749205753523595E-3</v>
       </c>
       <c r="P15">
-        <v>4.8766983784816944E-3</v>
+        <v>4.6477951066599401E-3</v>
       </c>
       <c r="Q15">
-        <v>4.0359088416032883E-3</v>
+        <v>3.915598681159118E-3</v>
       </c>
       <c r="R15">
-        <v>-1.5120004795033531E-4</v>
+        <v>-1.8952468899173785E-4</v>
       </c>
       <c r="S15">
-        <v>-2.8229699633025779E-5</v>
+        <v>-7.5206110224322424E-5</v>
       </c>
       <c r="T15">
-        <v>-5.627122942313675E-4</v>
+        <v>-3.2055865943600003E-4</v>
       </c>
       <c r="U15">
-        <v>-5.567507303324286E-4</v>
+        <v>-9.3315548980023755E-4</v>
       </c>
       <c r="V15">
-        <v>-6.3136595590039513E-4</v>
+        <v>-7.4825505549010879E-4</v>
       </c>
       <c r="W15">
-        <v>-3.5394293895859566E-4</v>
+        <v>-6.1687972954326301E-4</v>
       </c>
       <c r="X15">
-        <v>-2.6652629697657289E-4</v>
+        <v>-3.1159637166980781E-4</v>
       </c>
       <c r="Y15">
-        <v>-4.2817122579361349E-4</v>
+        <v>-6.4647513925004138E-4</v>
       </c>
       <c r="Z15">
-        <v>-3.0066968668023735E-4</v>
+        <v>-2.9799121879459578E-4</v>
       </c>
       <c r="AA15">
-        <v>-1.5418284837431228E-4</v>
+        <v>-1.9618017303006053E-4</v>
       </c>
       <c r="AB15">
-        <v>1.4240939855473882E-5</v>
+        <v>2.2512291652505095E-6</v>
       </c>
       <c r="AC15">
-        <v>-2.2413752909921714E-4</v>
+        <v>-3.440899717905236E-4</v>
       </c>
       <c r="AD15">
-        <v>-3.6736676659666217E-4</v>
+        <v>-2.3667416270670236E-4</v>
       </c>
       <c r="AE15">
-        <v>-2.7478607052277134E-3</v>
+        <v>-1.6630291097157847E-3</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.45">
@@ -3680,94 +3678,94 @@
         <v>33</v>
       </c>
       <c r="B16" s="70">
-        <v>0.33248405862662073</v>
+        <v>7.4638475842641813E-2</v>
       </c>
       <c r="C16">
-        <v>-7.8689790884780523E-5</v>
+        <v>-9.3398856776783596E-5</v>
       </c>
       <c r="D16">
-        <v>8.0698963395916322E-7</v>
+        <v>9.956717464274546E-7</v>
       </c>
       <c r="E16">
-        <v>6.5151199319962792E-4</v>
+        <v>6.4619176060487732E-4</v>
       </c>
       <c r="F16">
-        <v>7.7739963422010223E-4</v>
+        <v>8.3008174900882749E-4</v>
       </c>
       <c r="G16">
-        <v>1.3001433108149747E-4</v>
+        <v>-1.8100916907953676E-5</v>
       </c>
       <c r="H16">
-        <v>2.038564770519806E-3</v>
+        <v>2.2556852895835667E-3</v>
       </c>
       <c r="I16">
-        <v>2.0707738280904843E-3</v>
+        <v>2.1826147894097856E-3</v>
       </c>
       <c r="J16">
-        <v>2.5504007800698798E-3</v>
+        <v>2.6776047199999291E-3</v>
       </c>
       <c r="K16">
-        <v>-1.2118971704665339E-3</v>
+        <v>-6.6560624754358969E-4</v>
       </c>
       <c r="L16">
-        <v>4.7577809054753187E-5</v>
+        <v>3.1412576784805153E-4</v>
       </c>
       <c r="M16">
-        <v>-1.352426005427E-4</v>
+        <v>-4.7151954418631275E-5</v>
       </c>
       <c r="N16">
-        <v>2.0367624600956553E-3</v>
+        <v>1.6233616740560001E-3</v>
       </c>
       <c r="O16">
-        <v>3.3977036865688462E-3</v>
+        <v>3.3978708751068966E-3</v>
       </c>
       <c r="P16">
-        <v>4.0359088416032883E-3</v>
+        <v>3.915598681159118E-3</v>
       </c>
       <c r="Q16">
-        <v>5.7899424609094271E-3</v>
+        <v>5.4896480868764901E-3</v>
       </c>
       <c r="R16">
-        <v>-4.1203973214784008E-5</v>
+        <v>-8.6060755916016847E-5</v>
       </c>
       <c r="S16">
-        <v>8.3138905041978931E-5</v>
+        <v>-5.0036133496930626E-5</v>
       </c>
       <c r="T16">
-        <v>-3.8322958534796401E-4</v>
+        <v>-5.54717065507767E-4</v>
       </c>
       <c r="U16">
-        <v>-6.10347704409045E-4</v>
+        <v>-9.761068049752771E-4</v>
       </c>
       <c r="V16">
-        <v>-7.5004999485943629E-4</v>
+        <v>-8.3578445507447225E-4</v>
       </c>
       <c r="W16">
-        <v>-6.6711938136218996E-4</v>
+        <v>-8.2651927401060355E-4</v>
       </c>
       <c r="X16">
-        <v>-2.7379633858426184E-4</v>
+        <v>-2.7008828224534421E-4</v>
       </c>
       <c r="Y16">
-        <v>-7.9879601340841148E-4</v>
+        <v>-8.5818335982069819E-4</v>
       </c>
       <c r="Z16">
-        <v>-3.4659785719247979E-4</v>
+        <v>-2.7004559896637645E-4</v>
       </c>
       <c r="AA16">
-        <v>-1.124242247906003E-4</v>
+        <v>-8.1674781469273736E-5</v>
       </c>
       <c r="AB16">
-        <v>4.9479791515986873E-6</v>
+        <v>-4.6672650870832772E-6</v>
       </c>
       <c r="AC16">
-        <v>5.467061582290593E-4</v>
+        <v>-1.0438383726598223E-5</v>
       </c>
       <c r="AD16">
-        <v>-1.9933589759479453E-4</v>
+        <v>-1.2169067489951825E-4</v>
       </c>
       <c r="AE16">
-        <v>-2.1715612964501299E-3</v>
+        <v>-1.351158231334729E-3</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.45">
@@ -3775,94 +3773,94 @@
         <v>20</v>
       </c>
       <c r="B17" s="70">
-        <v>-0.1724303766249311</v>
+        <v>-0.15381507672663872</v>
       </c>
       <c r="C17">
-        <v>-9.201679299940561E-5</v>
+        <v>-8.3565568692161522E-5</v>
       </c>
       <c r="D17">
-        <v>1.1138358991287517E-6</v>
+        <v>9.861235627505435E-7</v>
       </c>
       <c r="E17">
-        <v>-8.1449825813216135E-5</v>
+        <v>1.7022300748544233E-6</v>
       </c>
       <c r="F17">
-        <v>-1.9781221622411967E-4</v>
+        <v>-1.7453975751485665E-4</v>
       </c>
       <c r="G17">
-        <v>4.5247000374847512E-4</v>
+        <v>5.1731775598939001E-4</v>
       </c>
       <c r="H17">
-        <v>2.4556598907025202E-4</v>
+        <v>1.4255623610986436E-4</v>
       </c>
       <c r="I17">
-        <v>-8.9162337263054125E-5</v>
+        <v>-2.3697805060827657E-4</v>
       </c>
       <c r="J17">
-        <v>-2.3017783712359985E-4</v>
+        <v>-3.4159674270658417E-4</v>
       </c>
       <c r="K17">
-        <v>-4.5530616799204101E-4</v>
+        <v>-5.5628274150237899E-4</v>
       </c>
       <c r="L17">
-        <v>2.6209157706512365E-5</v>
+        <v>-3.5245734982468E-5</v>
       </c>
       <c r="M17">
-        <v>-5.0786346228117493E-4</v>
+        <v>-5.3592304702341641E-4</v>
       </c>
       <c r="N17">
-        <v>-2.5343922057861261E-4</v>
+        <v>-1.9910821029923672E-5</v>
       </c>
       <c r="O17">
-        <v>-3.8397281039511473E-4</v>
+        <v>-4.4137049378841419E-4</v>
       </c>
       <c r="P17">
-        <v>-1.5120004795033531E-4</v>
+        <v>-1.8952468899173785E-4</v>
       </c>
       <c r="Q17">
-        <v>-4.1203973214784008E-5</v>
+        <v>-8.6060755916016847E-5</v>
       </c>
       <c r="R17">
-        <v>1.8096665326428195E-3</v>
+        <v>2.1378968706270017E-3</v>
       </c>
       <c r="S17">
-        <v>-1.9962350165965343E-3</v>
+        <v>-2.385348906532594E-3</v>
       </c>
       <c r="T17">
-        <v>8.7214451283233719E-5</v>
+        <v>-1.0691409550988331E-4</v>
       </c>
       <c r="U17">
-        <v>-1.069533135449583E-4</v>
+        <v>-1.3976535944710042E-4</v>
       </c>
       <c r="V17">
-        <v>-2.3934509636602656E-4</v>
+        <v>-4.2369359667654492E-4</v>
       </c>
       <c r="W17">
-        <v>-2.2660718769878065E-4</v>
+        <v>-4.3908902842092472E-4</v>
       </c>
       <c r="X17">
-        <v>-7.6849694313143094E-5</v>
+        <v>-1.0307563689066144E-4</v>
       </c>
       <c r="Y17">
-        <v>-1.7411047914248233E-4</v>
+        <v>6.1897358297390503E-5</v>
       </c>
       <c r="Z17">
-        <v>-6.7837394435278582E-5</v>
+        <v>-5.8885784200499191E-5</v>
       </c>
       <c r="AA17">
-        <v>-7.149828712030881E-5</v>
+        <v>-7.2375958080497584E-5</v>
       </c>
       <c r="AB17">
-        <v>-5.9359458405881226E-6</v>
+        <v>-1.1662190622391843E-5</v>
       </c>
       <c r="AC17">
-        <v>-1.0261309643932656E-4</v>
+        <v>-5.2467041819720048E-5</v>
       </c>
       <c r="AD17">
-        <v>1.1457484225996099E-4</v>
+        <v>1.0336543751874244E-4</v>
       </c>
       <c r="AE17">
-        <v>1.8757447863473533E-3</v>
+        <v>1.9756311782602961E-3</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.45">
@@ -3870,94 +3868,94 @@
         <v>34</v>
       </c>
       <c r="B18" s="70">
-        <v>0.78209280276798565</v>
+        <v>0.81421925536257644</v>
       </c>
       <c r="C18">
-        <v>2.5213325575512897E-5</v>
+        <v>3.0196816795164647E-5</v>
       </c>
       <c r="D18">
-        <v>-2.0693398466288895E-7</v>
+        <v>-1.9536593567929931E-7</v>
       </c>
       <c r="E18">
-        <v>2.2005742281466507E-4</v>
+        <v>8.0450616366571772E-5</v>
       </c>
       <c r="F18">
-        <v>3.7958648895295805E-4</v>
+        <v>2.229355071306316E-4</v>
       </c>
       <c r="G18">
-        <v>-1.0128007040616003E-4</v>
+        <v>-1.8062631154731212E-4</v>
       </c>
       <c r="H18">
-        <v>-5.0958614533132816E-4</v>
+        <v>-4.6056313435402919E-4</v>
       </c>
       <c r="I18">
-        <v>-9.6489945484436483E-4</v>
+        <v>-8.3743306495439316E-4</v>
       </c>
       <c r="J18">
-        <v>-4.6624847104833407E-4</v>
+        <v>-5.6216480258486248E-4</v>
       </c>
       <c r="K18">
-        <v>5.3237411611823499E-4</v>
+        <v>6.5666428009863824E-4</v>
       </c>
       <c r="L18">
-        <v>8.8660994394466062E-4</v>
+        <v>8.4661151293493372E-4</v>
       </c>
       <c r="M18">
-        <v>1.0271048766482485E-4</v>
+        <v>1.4944457019829376E-4</v>
       </c>
       <c r="N18">
-        <v>8.9266708379493473E-5</v>
+        <v>-6.5636387139485935E-5</v>
       </c>
       <c r="O18">
-        <v>1.6372491516363587E-4</v>
+        <v>1.4471617830830158E-4</v>
       </c>
       <c r="P18">
-        <v>-2.8229699633025779E-5</v>
+        <v>-7.5206110224322424E-5</v>
       </c>
       <c r="Q18">
-        <v>8.3138905041978931E-5</v>
+        <v>-5.0036133496930626E-5</v>
       </c>
       <c r="R18">
-        <v>-1.9962350165965343E-3</v>
+        <v>-2.385348906532594E-3</v>
       </c>
       <c r="S18">
-        <v>1.0046700220403887E-2</v>
+        <v>9.8371096595459805E-3</v>
       </c>
       <c r="T18">
-        <v>9.8128025435780875E-5</v>
+        <v>2.6558827497156091E-4</v>
       </c>
       <c r="U18">
-        <v>-2.6309193523258042E-4</v>
+        <v>-2.8812929658472974E-4</v>
       </c>
       <c r="V18">
-        <v>-2.519926284733139E-4</v>
+        <v>-1.1468396043558778E-4</v>
       </c>
       <c r="W18">
-        <v>-3.236838259790251E-4</v>
+        <v>-1.6260934526171012E-4</v>
       </c>
       <c r="X18">
-        <v>-2.8919304934288279E-4</v>
+        <v>-2.6167083255278841E-4</v>
       </c>
       <c r="Y18">
-        <v>-2.3415805951699004E-4</v>
+        <v>-4.5285739148628185E-4</v>
       </c>
       <c r="Z18">
-        <v>-3.7216558549272905E-5</v>
+        <v>-9.4030810982682531E-5</v>
       </c>
       <c r="AA18">
-        <v>-4.5249937867830449E-5</v>
+        <v>-1.1885155720307485E-4</v>
       </c>
       <c r="AB18">
-        <v>8.360202914668288E-6</v>
+        <v>8.8511891285099592E-6</v>
       </c>
       <c r="AC18">
-        <v>2.6848817574952382E-4</v>
+        <v>2.8045968277500108E-4</v>
       </c>
       <c r="AD18">
-        <v>1.3765269741701654E-4</v>
+        <v>6.2944124846998326E-5</v>
       </c>
       <c r="AE18">
-        <v>-4.5892945381995488E-4</v>
+        <v>-5.3898375904030623E-4</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.45">
@@ -3965,94 +3963,94 @@
         <v>35</v>
       </c>
       <c r="B19" s="70">
-        <v>0.19726326032739616</v>
+        <v>9.3540899133412042E-2</v>
       </c>
       <c r="C19">
-        <v>-6.8386257461722222E-5</v>
+        <v>-3.9656715489193718E-6</v>
       </c>
       <c r="D19">
-        <v>1.039881005130557E-6</v>
+        <v>3.9556843236800354E-7</v>
       </c>
       <c r="E19">
-        <v>-1.8505793038030196E-4</v>
+        <v>-3.9680785529168567E-6</v>
       </c>
       <c r="F19">
-        <v>2.570869884915743E-4</v>
+        <v>-8.3376882436049927E-4</v>
       </c>
       <c r="G19">
-        <v>2.9993457681896604E-4</v>
+        <v>4.8988873526745278E-4</v>
       </c>
       <c r="H19">
-        <v>-2.0010060834564159E-4</v>
+        <v>4.9260944173518399E-4</v>
       </c>
       <c r="I19">
-        <v>-2.3049389309745278E-4</v>
+        <v>3.0494940280204215E-4</v>
       </c>
       <c r="J19">
-        <v>-2.8776248234566987E-3</v>
+        <v>-4.322095137619472E-3</v>
       </c>
       <c r="K19">
-        <v>-2.8859661776621211E-4</v>
+        <v>-4.6647944704696586E-4</v>
       </c>
       <c r="L19">
-        <v>7.4408330063756192E-4</v>
+        <v>3.5895063271696641E-4</v>
       </c>
       <c r="M19">
-        <v>1.0761791608877767E-3</v>
+        <v>2.5519217112099919E-3</v>
       </c>
       <c r="N19">
-        <v>1.9405845288838022E-4</v>
+        <v>-5.1676247839736115E-4</v>
       </c>
       <c r="O19">
-        <v>-7.435793461495106E-4</v>
+        <v>-5.7127076641168468E-4</v>
       </c>
       <c r="P19">
-        <v>-5.627122942313675E-4</v>
+        <v>-3.2055865943600003E-4</v>
       </c>
       <c r="Q19">
-        <v>-3.8322958534796401E-4</v>
+        <v>-5.54717065507767E-4</v>
       </c>
       <c r="R19">
-        <v>8.7214451283233719E-5</v>
+        <v>-1.0691409550988331E-4</v>
       </c>
       <c r="S19">
-        <v>9.8128025435780875E-5</v>
+        <v>2.6558827497156091E-4</v>
       </c>
       <c r="T19">
-        <v>3.6223830761593023E-2</v>
+        <v>3.6207686588681447E-2</v>
       </c>
       <c r="U19">
-        <v>3.010939724387629E-2</v>
+        <v>2.9533295779200233E-2</v>
       </c>
       <c r="V19">
-        <v>3.0048586160139192E-2</v>
+        <v>2.9240410100132053E-2</v>
       </c>
       <c r="W19">
-        <v>2.9999895307929205E-2</v>
+        <v>2.9243807550296409E-2</v>
       </c>
       <c r="X19">
-        <v>9.5322895506550973E-5</v>
+        <v>-4.6599516085810838E-5</v>
       </c>
       <c r="Y19">
-        <v>-1.448953775834996E-4</v>
+        <v>-4.9947469546542328E-4</v>
       </c>
       <c r="Z19">
-        <v>-2.8494450310378831E-4</v>
+        <v>-4.0241655053758867E-4</v>
       </c>
       <c r="AA19">
-        <v>-1.6224728118367261E-5</v>
+        <v>-5.5402731581768744E-4</v>
       </c>
       <c r="AB19">
-        <v>-3.0307138255330828E-6</v>
+        <v>3.3164759653267776E-5</v>
       </c>
       <c r="AC19">
-        <v>-2.9556070785214522E-5</v>
+        <v>5.3195448233953405E-4</v>
       </c>
       <c r="AD19">
-        <v>-6.188118397002472E-5</v>
+        <v>-1.5097171212098345E-4</v>
       </c>
       <c r="AE19">
-        <v>-2.8502645117447264E-2</v>
+        <v>-2.9589059742854511E-2</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.45">
@@ -4060,94 +4058,94 @@
         <v>36</v>
       </c>
       <c r="B20" s="70">
-        <v>0.31104496224504691</v>
+        <v>0.16400995725767425</v>
       </c>
       <c r="C20">
-        <v>4.4090953941282296E-5</v>
+        <v>1.32617929515277E-4</v>
       </c>
       <c r="D20">
-        <v>-5.7614982207139638E-7</v>
+        <v>-1.66524824924241E-6</v>
       </c>
       <c r="E20">
-        <v>1.1495824205067634E-4</v>
+        <v>7.9941167128580207E-5</v>
       </c>
       <c r="F20">
-        <v>9.8862279289500419E-4</v>
+        <v>-3.1621892258884142E-5</v>
       </c>
       <c r="G20">
-        <v>-1.3194018350394467E-4</v>
+        <v>-5.6887167668416626E-5</v>
       </c>
       <c r="H20">
-        <v>-3.6031025688310493E-4</v>
+        <v>3.5988970313015003E-5</v>
       </c>
       <c r="I20">
-        <v>2.143380455193679E-4</v>
+        <v>5.8311910616362119E-4</v>
       </c>
       <c r="J20">
-        <v>-1.1681568877383935E-3</v>
+        <v>-1.547969791328126E-3</v>
       </c>
       <c r="K20">
-        <v>4.6318136976393416E-5</v>
+        <v>-5.1089456177164265E-5</v>
       </c>
       <c r="L20">
-        <v>2.4305320319819624E-5</v>
+        <v>4.7094646282536703E-5</v>
       </c>
       <c r="M20">
-        <v>1.4226508655794969E-3</v>
+        <v>3.189339299697596E-3</v>
       </c>
       <c r="N20">
-        <v>1.0150397962088205E-4</v>
+        <v>-7.3560457980620495E-4</v>
       </c>
       <c r="O20">
-        <v>-8.8203764141234046E-4</v>
+        <v>-9.6899207621223456E-4</v>
       </c>
       <c r="P20">
-        <v>-5.567507303324286E-4</v>
+        <v>-9.3315548980023755E-4</v>
       </c>
       <c r="Q20">
-        <v>-6.10347704409045E-4</v>
+        <v>-9.761068049752771E-4</v>
       </c>
       <c r="R20">
-        <v>-1.069533135449583E-4</v>
+        <v>-1.3976535944710042E-4</v>
       </c>
       <c r="S20">
-        <v>-2.6309193523258042E-4</v>
+        <v>-2.8812929658472974E-4</v>
       </c>
       <c r="T20">
-        <v>3.010939724387629E-2</v>
+        <v>2.9533295779200233E-2</v>
       </c>
       <c r="U20">
-        <v>3.1607130079155429E-2</v>
+        <v>3.0974729032160645E-2</v>
       </c>
       <c r="V20">
-        <v>3.0174921158305591E-2</v>
+        <v>2.9454787429301483E-2</v>
       </c>
       <c r="W20">
-        <v>3.0157512854715809E-2</v>
+        <v>2.948171485359391E-2</v>
       </c>
       <c r="X20">
-        <v>2.4268458086538353E-4</v>
+        <v>1.7417228231208191E-4</v>
       </c>
       <c r="Y20">
-        <v>1.4142467092443601E-4</v>
+        <v>1.9048073338563895E-4</v>
       </c>
       <c r="Z20">
-        <v>-3.3887724123793199E-4</v>
+        <v>-1.5450339290092041E-4</v>
       </c>
       <c r="AA20">
-        <v>1.5668786474522418E-4</v>
+        <v>-1.0994897957046935E-4</v>
       </c>
       <c r="AB20">
-        <v>1.8558231474586034E-5</v>
+        <v>3.8753306839991498E-5</v>
       </c>
       <c r="AC20">
-        <v>-1.5023613170539116E-4</v>
+        <v>-8.0702697045756389E-5</v>
       </c>
       <c r="AD20">
-        <v>-7.2545110292688425E-5</v>
+        <v>-1.5509405276767363E-4</v>
       </c>
       <c r="AE20">
-        <v>-3.085805100728585E-2</v>
+        <v>-3.1717585756376877E-2</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.45">
@@ -4155,94 +4153,94 @@
         <v>37</v>
       </c>
       <c r="B21" s="70">
-        <v>0.41786703637477501</v>
+        <v>0.27300308543103963</v>
       </c>
       <c r="C21">
-        <v>9.6994741113949493E-5</v>
+        <v>1.8015364686532092E-4</v>
       </c>
       <c r="D21">
-        <v>-8.8887503585663517E-7</v>
+        <v>-1.9773036509107688E-6</v>
       </c>
       <c r="E21">
-        <v>6.4915910027004732E-5</v>
+        <v>1.4183215002400176E-4</v>
       </c>
       <c r="F21">
-        <v>8.2497033611852468E-4</v>
+        <v>4.7782562763825243E-5</v>
       </c>
       <c r="G21">
-        <v>4.9515310603739427E-5</v>
+        <v>-1.3607352442479119E-5</v>
       </c>
       <c r="H21">
-        <v>-6.598712444736473E-6</v>
+        <v>4.0985999258065362E-4</v>
       </c>
       <c r="I21">
-        <v>6.6965066464156502E-4</v>
+        <v>1.2134627801326369E-3</v>
       </c>
       <c r="J21">
-        <v>-3.7795519971539366E-4</v>
+        <v>-6.4037605316030538E-4</v>
       </c>
       <c r="K21">
-        <v>-1.3146967941487798E-4</v>
+        <v>-7.5074674388222058E-5</v>
       </c>
       <c r="L21">
-        <v>-3.0257917340324123E-4</v>
+        <v>-2.5812248235384318E-4</v>
       </c>
       <c r="M21">
-        <v>9.7526063742036989E-4</v>
+        <v>2.7852319174962513E-3</v>
       </c>
       <c r="N21">
-        <v>2.8606947012035087E-4</v>
+        <v>-5.0645731509031916E-4</v>
       </c>
       <c r="O21">
-        <v>-5.8159777092632906E-4</v>
+        <v>-5.6000499272388336E-4</v>
       </c>
       <c r="P21">
-        <v>-6.3136595590039513E-4</v>
+        <v>-7.4825505549010879E-4</v>
       </c>
       <c r="Q21">
-        <v>-7.5004999485943629E-4</v>
+        <v>-8.3578445507447225E-4</v>
       </c>
       <c r="R21">
-        <v>-2.3934509636602656E-4</v>
+        <v>-4.2369359667654492E-4</v>
       </c>
       <c r="S21">
-        <v>-2.519926284733139E-4</v>
+        <v>-1.1468396043558778E-4</v>
       </c>
       <c r="T21">
-        <v>3.0048586160139192E-2</v>
+        <v>2.9240410100132053E-2</v>
       </c>
       <c r="U21">
-        <v>3.0174921158305591E-2</v>
+        <v>2.9454787429301483E-2</v>
       </c>
       <c r="V21">
-        <v>3.1255724936779972E-2</v>
+        <v>3.0278865666322818E-2</v>
       </c>
       <c r="W21">
-        <v>3.0964426297283642E-2</v>
+        <v>3.0037704364202507E-2</v>
       </c>
       <c r="X21">
-        <v>7.0678364079137732E-5</v>
+        <v>7.0027653773242424E-5</v>
       </c>
       <c r="Y21">
-        <v>5.5373659080058216E-5</v>
+        <v>-9.5232470718456386E-5</v>
       </c>
       <c r="Z21">
-        <v>-5.0083768268283958E-4</v>
+        <v>-3.0094761401977706E-4</v>
       </c>
       <c r="AA21">
-        <v>1.2759909202649054E-4</v>
+        <v>-1.0042925209911586E-4</v>
       </c>
       <c r="AB21">
-        <v>1.8095118697346313E-5</v>
+        <v>4.2601605489886658E-5</v>
       </c>
       <c r="AC21">
-        <v>2.3007614125802531E-4</v>
+        <v>2.937584632811685E-5</v>
       </c>
       <c r="AD21">
-        <v>-2.1054887189160196E-4</v>
+        <v>-2.2263458208469228E-4</v>
       </c>
       <c r="AE21">
-        <v>-3.2989412762780543E-2</v>
+        <v>-3.3713979984286921E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.45">
@@ -4250,94 +4248,94 @@
         <v>38</v>
       </c>
       <c r="B22" s="70">
-        <v>0.40032240920554812</v>
+        <v>0.28163666090253603</v>
       </c>
       <c r="C22">
-        <v>1.7255399192346273E-4</v>
+        <v>2.4254065810355136E-4</v>
       </c>
       <c r="D22">
-        <v>-1.520242546508785E-6</v>
+        <v>-2.4925549744495805E-6</v>
       </c>
       <c r="E22">
-        <v>1.9862947502182827E-4</v>
+        <v>2.4197836470508767E-4</v>
       </c>
       <c r="F22">
-        <v>9.8269587834158524E-4</v>
+        <v>1.5111137928562282E-4</v>
       </c>
       <c r="G22">
-        <v>-6.7475785211822727E-5</v>
+        <v>-9.6883309772528755E-5</v>
       </c>
       <c r="H22">
-        <v>1.0525406689265281E-4</v>
+        <v>4.5054727012012346E-4</v>
       </c>
       <c r="I22">
-        <v>8.6990350038146954E-4</v>
+        <v>1.3437930170204777E-3</v>
       </c>
       <c r="J22">
-        <v>-1.8412266360009989E-4</v>
+        <v>-5.6343542040125552E-4</v>
       </c>
       <c r="K22">
-        <v>2.8373144593575047E-4</v>
+        <v>2.1335604262238177E-4</v>
       </c>
       <c r="L22">
-        <v>-3.3328165597325092E-4</v>
+        <v>-2.9105762934421829E-4</v>
       </c>
       <c r="M22">
-        <v>9.431688088498522E-4</v>
+        <v>2.7668309296270165E-3</v>
       </c>
       <c r="N22">
-        <v>2.8974510721537774E-4</v>
+        <v>-4.8108289651675469E-4</v>
       </c>
       <c r="O22">
-        <v>-4.5518225211126778E-4</v>
+        <v>-4.9025932925933111E-4</v>
       </c>
       <c r="P22">
-        <v>-3.5394293895859566E-4</v>
+        <v>-6.1687972954326301E-4</v>
       </c>
       <c r="Q22">
-        <v>-6.6711938136218996E-4</v>
+        <v>-8.2651927401060355E-4</v>
       </c>
       <c r="R22">
-        <v>-2.2660718769878065E-4</v>
+        <v>-4.3908902842092472E-4</v>
       </c>
       <c r="S22">
-        <v>-3.236838259790251E-4</v>
+        <v>-1.6260934526171012E-4</v>
       </c>
       <c r="T22">
-        <v>2.9999895307929205E-2</v>
+        <v>2.9243807550296409E-2</v>
       </c>
       <c r="U22">
-        <v>3.0157512854715809E-2</v>
+        <v>2.948171485359391E-2</v>
       </c>
       <c r="V22">
-        <v>3.0964426297283642E-2</v>
+        <v>3.0037704364202507E-2</v>
       </c>
       <c r="W22">
-        <v>3.2535865077836915E-2</v>
+        <v>3.1365429410668007E-2</v>
       </c>
       <c r="X22">
-        <v>2.9263823927427879E-6</v>
+        <v>-3.0238766358698863E-5</v>
       </c>
       <c r="Y22">
-        <v>1.5319455233410288E-6</v>
+        <v>-1.6147485515555343E-4</v>
       </c>
       <c r="Z22">
-        <v>-5.4150630734170653E-4</v>
+        <v>-3.3068265230759217E-4</v>
       </c>
       <c r="AA22">
-        <v>9.7192683455290911E-5</v>
+        <v>-1.1554663182277488E-4</v>
       </c>
       <c r="AB22">
-        <v>3.2357783266077434E-5</v>
+        <v>5.3131199096329582E-5</v>
       </c>
       <c r="AC22">
-        <v>-1.3536868709832992E-4</v>
+        <v>-1.9548502739848497E-4</v>
       </c>
       <c r="AD22">
-        <v>-1.6378656190189911E-4</v>
+        <v>-1.2803792653306827E-4</v>
       </c>
       <c r="AE22">
-        <v>-3.5473192357461325E-2</v>
+        <v>-3.5717065276445414E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.45">
@@ -4345,94 +4343,94 @@
         <v>61</v>
       </c>
       <c r="B23" s="70">
-        <v>-0.17181680463142515</v>
+        <v>-0.1692754662823083</v>
       </c>
       <c r="C23">
-        <v>7.4220175053111496E-6</v>
+        <v>1.8387927746663156E-5</v>
       </c>
       <c r="D23">
-        <v>-1.7586186930598551E-7</v>
+        <v>-3.4291597099273727E-7</v>
       </c>
       <c r="E23">
-        <v>-3.5689567895862265E-4</v>
+        <v>-2.282214050729168E-4</v>
       </c>
       <c r="F23">
-        <v>-4.2354281046463502E-4</v>
+        <v>-2.441049749357828E-4</v>
       </c>
       <c r="G23">
-        <v>-1.0438006303423937E-4</v>
+        <v>-1.1542044297003154E-4</v>
       </c>
       <c r="H23">
-        <v>5.429175139843403E-4</v>
+        <v>3.4847479606210001E-4</v>
       </c>
       <c r="I23">
-        <v>-6.3587913207576331E-5</v>
+        <v>-8.4614489405065519E-5</v>
       </c>
       <c r="J23">
-        <v>5.9397655906602998E-5</v>
+        <v>2.5794252002578062E-4</v>
       </c>
       <c r="K23">
-        <v>-2.2317981037924022E-4</v>
+        <v>-1.7205883009026364E-4</v>
       </c>
       <c r="L23">
-        <v>1.2938306503905347E-4</v>
+        <v>1.0045510586670933E-4</v>
       </c>
       <c r="M23">
-        <v>3.0166662197530949E-4</v>
+        <v>2.8700907546543399E-4</v>
       </c>
       <c r="N23">
-        <v>4.7670026923688738E-5</v>
+        <v>-1.3384859644169345E-4</v>
       </c>
       <c r="O23">
-        <v>3.0355608358380304E-7</v>
+        <v>-7.4330534505699414E-5</v>
       </c>
       <c r="P23">
-        <v>-2.6652629697657289E-4</v>
+        <v>-3.1159637166980781E-4</v>
       </c>
       <c r="Q23">
-        <v>-2.7379633858426184E-4</v>
+        <v>-2.7008828224534421E-4</v>
       </c>
       <c r="R23">
-        <v>-7.6849694313143094E-5</v>
+        <v>-1.0307563689066144E-4</v>
       </c>
       <c r="S23">
-        <v>-2.8919304934288279E-4</v>
+        <v>-2.6167083255278841E-4</v>
       </c>
       <c r="T23">
-        <v>9.5322895506550973E-5</v>
+        <v>-4.6599516085810838E-5</v>
       </c>
       <c r="U23">
-        <v>2.4268458086538353E-4</v>
+        <v>1.7417228231208191E-4</v>
       </c>
       <c r="V23">
-        <v>7.0678364079137732E-5</v>
+        <v>7.0027653773242424E-5</v>
       </c>
       <c r="W23">
-        <v>2.9263823927427879E-6</v>
+        <v>-3.0238766358698863E-5</v>
       </c>
       <c r="X23">
-        <v>3.7050163745663573E-3</v>
+        <v>3.0795579630792636E-3</v>
       </c>
       <c r="Y23">
-        <v>1.6902065503729405E-3</v>
+        <v>1.3137753239480846E-3</v>
       </c>
       <c r="Z23">
-        <v>1.6440374390348821E-3</v>
+        <v>1.2834689032816991E-3</v>
       </c>
       <c r="AA23">
-        <v>1.6633356310068108E-3</v>
+        <v>1.3062972616811554E-3</v>
       </c>
       <c r="AB23">
-        <v>-3.2807727775877207E-5</v>
+        <v>-2.7422431284739194E-5</v>
       </c>
       <c r="AC23">
-        <v>-2.560000344227499E-4</v>
+        <v>-2.4895334963544912E-4</v>
       </c>
       <c r="AD23">
-        <v>3.9982367466582592E-4</v>
+        <v>2.8532740341167357E-4</v>
       </c>
       <c r="AE23">
-        <v>-7.8528347804103797E-4</v>
+        <v>-6.4234850863807756E-4</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.45">
@@ -4440,94 +4438,94 @@
         <v>62</v>
       </c>
       <c r="B24" s="70">
-        <v>9.0989897030449171E-2</v>
+        <v>7.8851818493308232E-2</v>
       </c>
       <c r="C24">
-        <v>4.1931158545479746E-5</v>
+        <v>4.5995766670492461E-5</v>
       </c>
       <c r="D24">
-        <v>-5.7009917614614604E-7</v>
+        <v>-6.8028425729610942E-7</v>
       </c>
       <c r="E24">
-        <v>-5.4351367295687309E-4</v>
+        <v>-5.1163244937448428E-4</v>
       </c>
       <c r="F24">
-        <v>-5.612963945566665E-4</v>
+        <v>-5.1493189060318576E-4</v>
       </c>
       <c r="G24">
-        <v>-1.9389266546909393E-4</v>
+        <v>-6.7738933906894236E-5</v>
       </c>
       <c r="H24">
-        <v>-1.8931182102379556E-4</v>
+        <v>-3.3964818053829521E-4</v>
       </c>
       <c r="I24">
-        <v>-1.0444124759898126E-4</v>
+        <v>-2.4940689753766575E-4</v>
       </c>
       <c r="J24">
-        <v>-1.449997091053075E-4</v>
+        <v>-5.9613109091512313E-5</v>
       </c>
       <c r="K24">
-        <v>1.2246417859603975E-3</v>
+        <v>8.5808413926625343E-4</v>
       </c>
       <c r="L24">
-        <v>2.8416440204009615E-4</v>
+        <v>1.7922543415713462E-4</v>
       </c>
       <c r="M24">
-        <v>5.2613833837860313E-4</v>
+        <v>4.0005312750841798E-4</v>
       </c>
       <c r="N24">
-        <v>-3.5041957825983615E-4</v>
+        <v>-3.0488130975723685E-4</v>
       </c>
       <c r="O24">
-        <v>-3.2412099818344183E-4</v>
+        <v>-4.8757685391748336E-4</v>
       </c>
       <c r="P24">
-        <v>-4.2817122579361349E-4</v>
+        <v>-6.4647513925004138E-4</v>
       </c>
       <c r="Q24">
-        <v>-7.9879601340841148E-4</v>
+        <v>-8.5818335982069819E-4</v>
       </c>
       <c r="R24">
-        <v>-1.7411047914248233E-4</v>
+        <v>6.1897358297390503E-5</v>
       </c>
       <c r="S24">
-        <v>-2.3415805951699004E-4</v>
+        <v>-4.5285739148628185E-4</v>
       </c>
       <c r="T24">
-        <v>-1.448953775834996E-4</v>
+        <v>-4.9947469546542328E-4</v>
       </c>
       <c r="U24">
-        <v>1.4142467092443601E-4</v>
+        <v>1.9048073338563895E-4</v>
       </c>
       <c r="V24">
-        <v>5.5373659080058216E-5</v>
+        <v>-9.5232470718456386E-5</v>
       </c>
       <c r="W24">
-        <v>1.5319455233410288E-6</v>
+        <v>-1.6147485515555343E-4</v>
       </c>
       <c r="X24">
-        <v>1.6902065503729405E-3</v>
+        <v>1.3137753239480846E-3</v>
       </c>
       <c r="Y24">
-        <v>4.2594281870373353E-3</v>
+        <v>3.7141937386854116E-3</v>
       </c>
       <c r="Z24">
-        <v>1.6372869216819384E-3</v>
+        <v>1.286376568742214E-3</v>
       </c>
       <c r="AA24">
-        <v>1.6645520057323819E-3</v>
+        <v>1.2970340573537171E-3</v>
       </c>
       <c r="AB24">
-        <v>-1.0404583115068761E-6</v>
+        <v>-7.5669870108418523E-6</v>
       </c>
       <c r="AC24">
-        <v>-5.5356848370930064E-4</v>
+        <v>-3.4669304124416761E-4</v>
       </c>
       <c r="AD24">
-        <v>8.0587133489675171E-5</v>
+        <v>4.8654592992112444E-5</v>
       </c>
       <c r="AE24">
-        <v>-1.4071915012719796E-3</v>
+        <v>-7.4805919462713909E-4</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.45">
@@ -4535,94 +4533,94 @@
         <v>63</v>
       </c>
       <c r="B25" s="70">
-        <v>4.6438827886683534E-2</v>
+        <v>3.283420978489475E-2</v>
       </c>
       <c r="C25">
-        <v>1.5603224264260042E-7</v>
+        <v>3.8430837645562826E-6</v>
       </c>
       <c r="D25">
-        <v>-1.0786328073395495E-7</v>
+        <v>-1.8865216586857173E-7</v>
       </c>
       <c r="E25">
-        <v>-2.4558129289422518E-4</v>
+        <v>-1.7311880688208165E-4</v>
       </c>
       <c r="F25">
-        <v>-3.7570271204842782E-4</v>
+        <v>-2.9755648421184871E-4</v>
       </c>
       <c r="G25">
-        <v>-2.1731852279904056E-4</v>
+        <v>-1.5894779036708316E-4</v>
       </c>
       <c r="H25">
-        <v>-3.7314029750573998E-4</v>
+        <v>-4.0262429333195061E-4</v>
       </c>
       <c r="I25">
-        <v>-3.0393675770231982E-4</v>
+        <v>-2.7073839807777308E-4</v>
       </c>
       <c r="J25">
-        <v>-2.1591567995535776E-4</v>
+        <v>2.533575738898489E-5</v>
       </c>
       <c r="K25">
-        <v>9.3186102994004727E-4</v>
+        <v>7.8143699444727143E-4</v>
       </c>
       <c r="L25">
-        <v>3.6876604036555196E-4</v>
+        <v>2.6960226890516455E-4</v>
       </c>
       <c r="M25">
-        <v>4.2949581255454877E-4</v>
+        <v>3.4702532049856209E-4</v>
       </c>
       <c r="N25">
-        <v>-1.7094418153393363E-5</v>
+        <v>-2.2712416127334016E-5</v>
       </c>
       <c r="O25">
-        <v>-1.331684213533987E-4</v>
+        <v>-1.1446632467079386E-4</v>
       </c>
       <c r="P25">
-        <v>-3.0066968668023735E-4</v>
+        <v>-2.9799121879459578E-4</v>
       </c>
       <c r="Q25">
-        <v>-3.4659785719247979E-4</v>
+        <v>-2.7004559896637645E-4</v>
       </c>
       <c r="R25">
-        <v>-6.7837394435278582E-5</v>
+        <v>-5.8885784200499191E-5</v>
       </c>
       <c r="S25">
-        <v>-3.7216558549272905E-5</v>
+        <v>-9.4030810982682531E-5</v>
       </c>
       <c r="T25">
-        <v>-2.8494450310378831E-4</v>
+        <v>-4.0241655053758867E-4</v>
       </c>
       <c r="U25">
-        <v>-3.3887724123793199E-4</v>
+        <v>-1.5450339290092041E-4</v>
       </c>
       <c r="V25">
-        <v>-5.0083768268283958E-4</v>
+        <v>-3.0094761401977706E-4</v>
       </c>
       <c r="W25">
-        <v>-5.4150630734170653E-4</v>
+        <v>-3.3068265230759217E-4</v>
       </c>
       <c r="X25">
-        <v>1.6440374390348821E-3</v>
+        <v>1.2834689032816991E-3</v>
       </c>
       <c r="Y25">
-        <v>1.6372869216819384E-3</v>
+        <v>1.286376568742214E-3</v>
       </c>
       <c r="Z25">
-        <v>3.0910403774476289E-3</v>
+        <v>2.5992352812477578E-3</v>
       </c>
       <c r="AA25">
-        <v>1.6425650918599315E-3</v>
+        <v>1.2890660048599299E-3</v>
       </c>
       <c r="AB25">
-        <v>-1.6080805491736843E-5</v>
+        <v>-1.588375012137095E-5</v>
       </c>
       <c r="AC25">
-        <v>-3.485905844031368E-4</v>
+        <v>-3.309539063933209E-4</v>
       </c>
       <c r="AD25">
-        <v>1.3507373975455773E-4</v>
+        <v>6.7808184358669375E-5</v>
       </c>
       <c r="AE25">
-        <v>-1.7540467494741555E-4</v>
+        <v>-1.2845721024688913E-4</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.45">
@@ -4630,94 +4628,94 @@
         <v>65</v>
       </c>
       <c r="B26" s="70">
-        <v>3.3798995278138823E-2</v>
+        <v>1.6394607810911042E-2</v>
       </c>
       <c r="C26">
-        <v>-1.846901113348304E-5</v>
+        <v>-4.4870886545533026E-6</v>
       </c>
       <c r="D26">
-        <v>8.5838364662171951E-8</v>
+        <v>-1.0249877965557024E-7</v>
       </c>
       <c r="E26">
-        <v>-2.4686082921920296E-4</v>
+        <v>-1.4255905722650593E-4</v>
       </c>
       <c r="F26">
-        <v>-2.5027024251213995E-4</v>
+        <v>-1.5303273510930686E-4</v>
       </c>
       <c r="G26">
-        <v>-1.1748677665657803E-4</v>
+        <v>-1.1674516304773292E-4</v>
       </c>
       <c r="H26">
-        <v>-2.4996897181250638E-4</v>
+        <v>-3.1184113926673398E-4</v>
       </c>
       <c r="I26">
-        <v>7.2792509164598955E-5</v>
+        <v>3.8962761530619676E-5</v>
       </c>
       <c r="J26">
-        <v>7.0783743740643985E-6</v>
+        <v>2.0696000510883117E-4</v>
       </c>
       <c r="K26">
-        <v>1.7354951651818331E-4</v>
+        <v>1.2424615294693781E-4</v>
       </c>
       <c r="L26">
-        <v>-2.155626278988696E-5</v>
+        <v>-2.3496370840306278E-5</v>
       </c>
       <c r="M26">
-        <v>4.8548443496787081E-4</v>
+        <v>4.488299479309877E-4</v>
       </c>
       <c r="N26">
-        <v>6.261014878364583E-5</v>
+        <v>7.7878625853648314E-5</v>
       </c>
       <c r="O26">
-        <v>-1.9727500767265148E-5</v>
+        <v>-4.1878142196002065E-5</v>
       </c>
       <c r="P26">
-        <v>-1.5418284837431228E-4</v>
+        <v>-1.9618017303006053E-4</v>
       </c>
       <c r="Q26">
-        <v>-1.124242247906003E-4</v>
+        <v>-8.1674781469273736E-5</v>
       </c>
       <c r="R26">
-        <v>-7.149828712030881E-5</v>
+        <v>-7.2375958080497584E-5</v>
       </c>
       <c r="S26">
-        <v>-4.5249937867830449E-5</v>
+        <v>-1.1885155720307485E-4</v>
       </c>
       <c r="T26">
-        <v>-1.6224728118367261E-5</v>
+        <v>-5.5402731581768744E-4</v>
       </c>
       <c r="U26">
-        <v>1.5668786474522418E-4</v>
+        <v>-1.0994897957046935E-4</v>
       </c>
       <c r="V26">
-        <v>1.2759909202649054E-4</v>
+        <v>-1.0042925209911586E-4</v>
       </c>
       <c r="W26">
-        <v>9.7192683455290911E-5</v>
+        <v>-1.1554663182277488E-4</v>
       </c>
       <c r="X26">
-        <v>1.6633356310068108E-3</v>
+        <v>1.3062972616811554E-3</v>
       </c>
       <c r="Y26">
-        <v>1.6645520057323819E-3</v>
+        <v>1.2970340573537171E-3</v>
       </c>
       <c r="Z26">
-        <v>1.6425650918599315E-3</v>
+        <v>1.2890660048599299E-3</v>
       </c>
       <c r="AA26">
-        <v>2.3619352579605773E-3</v>
+        <v>1.9379116459206282E-3</v>
       </c>
       <c r="AB26">
-        <v>-9.1754818628852063E-6</v>
+        <v>-9.1141325849859008E-6</v>
       </c>
       <c r="AC26">
-        <v>-2.4080513047539939E-4</v>
+        <v>-2.5196779361440425E-4</v>
       </c>
       <c r="AD26">
-        <v>1.4442389544380225E-4</v>
+        <v>8.1196754586168249E-5</v>
       </c>
       <c r="AE26">
-        <v>-7.9291159018831162E-4</v>
+        <v>-4.6803922026760381E-4</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.45">
@@ -4725,94 +4723,94 @@
         <v>22</v>
       </c>
       <c r="B27" s="70">
-        <v>-1.9501998114833489E-2</v>
+        <v>-2.105917216788053E-2</v>
       </c>
       <c r="C27">
-        <v>1.9282451197653556E-6</v>
+        <v>1.6984471431330563E-6</v>
       </c>
       <c r="D27">
-        <v>-2.793222404243551E-8</v>
+        <v>-2.1864546023270786E-8</v>
       </c>
       <c r="E27">
-        <v>1.2280259966551457E-5</v>
+        <v>1.2956439446087838E-6</v>
       </c>
       <c r="F27">
-        <v>1.3125984943323957E-5</v>
+        <v>3.8760836679013237E-6</v>
       </c>
       <c r="G27">
-        <v>-2.2324755899991856E-5</v>
+        <v>-1.5247948466656791E-5</v>
       </c>
       <c r="H27">
-        <v>-5.4055666537304222E-5</v>
+        <v>-3.3413664765257896E-5</v>
       </c>
       <c r="I27">
-        <v>8.6856519617186433E-6</v>
+        <v>1.3622445966830372E-5</v>
       </c>
       <c r="J27">
-        <v>2.5353604218917561E-5</v>
+        <v>2.1291888060549343E-5</v>
       </c>
       <c r="K27">
-        <v>1.9718532389217736E-5</v>
+        <v>1.2609111010243784E-5</v>
       </c>
       <c r="L27">
-        <v>-9.36162029990799E-6</v>
+        <v>-1.1742654029036938E-5</v>
       </c>
       <c r="M27">
-        <v>2.3627734506835598E-5</v>
+        <v>1.4492331300419999E-5</v>
       </c>
       <c r="N27">
-        <v>8.456996544321891E-6</v>
+        <v>-3.5539090085854459E-6</v>
       </c>
       <c r="O27">
-        <v>-6.0413265770024863E-6</v>
+        <v>-1.2221077085256678E-5</v>
       </c>
       <c r="P27">
-        <v>1.4240939855473882E-5</v>
+        <v>2.2512291652505095E-6</v>
       </c>
       <c r="Q27">
-        <v>4.9479791515986873E-6</v>
+        <v>-4.6672650870832772E-6</v>
       </c>
       <c r="R27">
-        <v>-5.9359458405881226E-6</v>
+        <v>-1.1662190622391843E-5</v>
       </c>
       <c r="S27">
-        <v>8.360202914668288E-6</v>
+        <v>8.8511891285099592E-6</v>
       </c>
       <c r="T27">
-        <v>-3.0307138255330828E-6</v>
+        <v>3.3164759653267776E-5</v>
       </c>
       <c r="U27">
-        <v>1.8558231474586034E-5</v>
+        <v>3.8753306839991498E-5</v>
       </c>
       <c r="V27">
-        <v>1.8095118697346313E-5</v>
+        <v>4.2601605489886658E-5</v>
       </c>
       <c r="W27">
-        <v>3.2357783266077434E-5</v>
+        <v>5.3131199096329582E-5</v>
       </c>
       <c r="X27">
-        <v>-3.2807727775877207E-5</v>
+        <v>-2.7422431284739194E-5</v>
       </c>
       <c r="Y27">
-        <v>-1.0404583115068761E-6</v>
+        <v>-7.5669870108418523E-6</v>
       </c>
       <c r="Z27">
-        <v>-1.6080805491736843E-5</v>
+        <v>-1.588375012137095E-5</v>
       </c>
       <c r="AA27">
-        <v>-9.1754818628852063E-6</v>
+        <v>-9.1141325849859008E-6</v>
       </c>
       <c r="AB27">
-        <v>2.3020139585274789E-5</v>
+        <v>1.9274109420245504E-5</v>
       </c>
       <c r="AC27">
-        <v>-1.0319972714758021E-4</v>
+        <v>-8.5518276403428293E-5</v>
       </c>
       <c r="AD27">
-        <v>-1.2016120523811873E-4</v>
+        <v>-9.9857371761146637E-5</v>
       </c>
       <c r="AE27">
-        <v>-4.048363131697216E-4</v>
+        <v>-3.6066839097062444E-4</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.45">
@@ -4820,94 +4818,94 @@
         <v>39</v>
       </c>
       <c r="B28" s="70">
-        <v>0.11206740941373786</v>
+        <v>0.14481976128936636</v>
       </c>
       <c r="C28">
-        <v>5.6323514074109937E-5</v>
+        <v>3.4412207624619044E-5</v>
       </c>
       <c r="D28">
-        <v>-7.3224353665023491E-7</v>
+        <v>-3.516924212189723E-7</v>
       </c>
       <c r="E28">
-        <v>8.6114081667749368E-5</v>
+        <v>-2.5141083886842143E-6</v>
       </c>
       <c r="F28">
-        <v>3.5199319659241432E-6</v>
+        <v>-1.8952652462377365E-4</v>
       </c>
       <c r="G28">
-        <v>6.0338072335450296E-5</v>
+        <v>2.1887415031267705E-4</v>
       </c>
       <c r="H28">
-        <v>1.7853592122416603E-4</v>
+        <v>5.3511117477262303E-5</v>
       </c>
       <c r="I28">
-        <v>-1.1467617884913686E-4</v>
+        <v>-2.556794097540371E-4</v>
       </c>
       <c r="J28">
-        <v>9.6980910745114333E-4</v>
+        <v>6.7068445643848201E-5</v>
       </c>
       <c r="K28">
-        <v>-3.3996009002964714E-4</v>
+        <v>-4.5175663922071931E-4</v>
       </c>
       <c r="L28">
-        <v>-1.0252249681102685E-4</v>
+        <v>-2.4747743974217731E-4</v>
       </c>
       <c r="M28">
-        <v>-7.2901125148496664E-4</v>
+        <v>-7.3020069826377457E-4</v>
       </c>
       <c r="N28">
-        <v>2.0864807718300475E-4</v>
+        <v>1.0578456306804135E-4</v>
       </c>
       <c r="O28">
-        <v>9.6783293545123564E-5</v>
+        <v>-2.2103989139100693E-4</v>
       </c>
       <c r="P28">
-        <v>-2.2413752909921714E-4</v>
+        <v>-3.440899717905236E-4</v>
       </c>
       <c r="Q28">
-        <v>5.467061582290593E-4</v>
+        <v>-1.0438383726598223E-5</v>
       </c>
       <c r="R28">
-        <v>-1.0261309643932656E-4</v>
+        <v>-5.2467041819720048E-5</v>
       </c>
       <c r="S28">
-        <v>2.6848817574952382E-4</v>
+        <v>2.8045968277500108E-4</v>
       </c>
       <c r="T28">
-        <v>-2.9556070785214522E-5</v>
+        <v>5.3195448233953405E-4</v>
       </c>
       <c r="U28">
-        <v>-1.5023613170539116E-4</v>
+        <v>-8.0702697045756389E-5</v>
       </c>
       <c r="V28">
-        <v>2.3007614125802531E-4</v>
+        <v>2.937584632811685E-5</v>
       </c>
       <c r="W28">
-        <v>-1.3536868709832992E-4</v>
+        <v>-1.9548502739848497E-4</v>
       </c>
       <c r="X28">
-        <v>-2.560000344227499E-4</v>
+        <v>-2.4895334963544912E-4</v>
       </c>
       <c r="Y28">
-        <v>-5.5356848370930064E-4</v>
+        <v>-3.4669304124416761E-4</v>
       </c>
       <c r="Z28">
-        <v>-3.485905844031368E-4</v>
+        <v>-3.309539063933209E-4</v>
       </c>
       <c r="AA28">
-        <v>-2.4080513047539939E-4</v>
+        <v>-2.5196779361440425E-4</v>
       </c>
       <c r="AB28">
-        <v>-1.0319972714758021E-4</v>
+        <v>-8.5518276403428293E-5</v>
       </c>
       <c r="AC28">
-        <v>5.0021486716827577E-3</v>
+        <v>4.2956327083744474E-3</v>
       </c>
       <c r="AD28">
-        <v>8.1835760603145833E-4</v>
+        <v>6.9740600378602187E-4</v>
       </c>
       <c r="AE28">
-        <v>3.4320019442406343E-4</v>
+        <v>7.3419466474651768E-4</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.45">
@@ -4915,94 +4913,94 @@
         <v>40</v>
       </c>
       <c r="B29" s="70">
-        <v>8.4339167481546781E-2</v>
+        <v>6.9559325155209406E-2</v>
       </c>
       <c r="C29">
-        <v>-7.6860250666310292E-6</v>
+        <v>-5.1178191590117391E-6</v>
       </c>
       <c r="D29">
-        <v>8.0943572046759206E-9</v>
+        <v>1.5505449316306951E-8</v>
       </c>
       <c r="E29">
-        <v>6.7095298591383044E-5</v>
+        <v>1.1893983810891184E-4</v>
       </c>
       <c r="F29">
-        <v>4.5510265005672262E-5</v>
+        <v>5.3157637737241562E-5</v>
       </c>
       <c r="G29">
-        <v>-2.1487452743673138E-5</v>
+        <v>-8.2360628163838563E-6</v>
       </c>
       <c r="H29">
-        <v>-1.4717216641880896E-4</v>
+        <v>-1.2437131091591483E-4</v>
       </c>
       <c r="I29">
-        <v>-3.4823113812129419E-4</v>
+        <v>-2.6460693025620108E-4</v>
       </c>
       <c r="J29">
-        <v>-2.0424846646525984E-4</v>
+        <v>-1.7891363207410719E-4</v>
       </c>
       <c r="K29">
-        <v>-5.6191074825124617E-5</v>
+        <v>-4.8055755105148724E-5</v>
       </c>
       <c r="L29">
-        <v>2.9434026200846698E-4</v>
+        <v>2.5372495345407832E-4</v>
       </c>
       <c r="M29">
-        <v>-9.5109320810778699E-6</v>
+        <v>-3.5757059310064818E-5</v>
       </c>
       <c r="N29">
-        <v>-1.755030046893106E-4</v>
+        <v>-1.1269493328718965E-4</v>
       </c>
       <c r="O29">
-        <v>-2.6749012611147576E-4</v>
+        <v>-2.1134768664735526E-4</v>
       </c>
       <c r="P29">
-        <v>-3.6736676659666217E-4</v>
+        <v>-2.3667416270670236E-4</v>
       </c>
       <c r="Q29">
-        <v>-1.9933589759479453E-4</v>
+        <v>-1.2169067489951825E-4</v>
       </c>
       <c r="R29">
-        <v>1.1457484225996099E-4</v>
+        <v>1.0336543751874244E-4</v>
       </c>
       <c r="S29">
-        <v>1.3765269741701654E-4</v>
+        <v>6.2944124846998326E-5</v>
       </c>
       <c r="T29">
-        <v>-6.188118397002472E-5</v>
+        <v>-1.5097171212098345E-4</v>
       </c>
       <c r="U29">
-        <v>-7.2545110292688425E-5</v>
+        <v>-1.5509405276767363E-4</v>
       </c>
       <c r="V29">
-        <v>-2.1054887189160196E-4</v>
+        <v>-2.2263458208469228E-4</v>
       </c>
       <c r="W29">
-        <v>-1.6378656190189911E-4</v>
+        <v>-1.2803792653306827E-4</v>
       </c>
       <c r="X29">
-        <v>3.9982367466582592E-4</v>
+        <v>2.8532740341167357E-4</v>
       </c>
       <c r="Y29">
-        <v>8.0587133489675171E-5</v>
+        <v>4.8654592992112444E-5</v>
       </c>
       <c r="Z29">
-        <v>1.3507373975455773E-4</v>
+        <v>6.7808184358669375E-5</v>
       </c>
       <c r="AA29">
-        <v>1.4442389544380225E-4</v>
+        <v>8.1196754586168249E-5</v>
       </c>
       <c r="AB29">
-        <v>-1.2016120523811873E-4</v>
+        <v>-9.9857371761146637E-5</v>
       </c>
       <c r="AC29">
-        <v>8.1835760603145833E-4</v>
+        <v>6.9740600378602187E-4</v>
       </c>
       <c r="AD29">
-        <v>4.3482372735599156E-3</v>
+        <v>3.8871562177818946E-3</v>
       </c>
       <c r="AE29">
-        <v>2.1287803686554719E-3</v>
+        <v>1.6858799406244771E-3</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.45">
@@ -5010,94 +5008,94 @@
         <v>23</v>
       </c>
       <c r="B30" s="70">
-        <v>-2.7217665896185905</v>
+        <v>-2.388208000814446</v>
       </c>
       <c r="C30">
-        <v>-1.5304638832862041E-3</v>
+        <v>-1.4482559087916696E-3</v>
       </c>
       <c r="D30">
-        <v>1.7177622539846921E-5</v>
+        <v>1.646784657681203E-5</v>
       </c>
       <c r="E30">
-        <v>-1.462030072462006E-3</v>
+        <v>-1.531148193364047E-3</v>
       </c>
       <c r="F30">
-        <v>-3.0912567301996045E-3</v>
+        <v>-2.2567148848509021E-3</v>
       </c>
       <c r="G30">
-        <v>-7.5411191790240265E-4</v>
+        <v>-4.7319821372894121E-4</v>
       </c>
       <c r="H30">
-        <v>-5.7202152925189282E-3</v>
+        <v>-5.325657881742718E-3</v>
       </c>
       <c r="I30">
-        <v>-6.179340414086007E-3</v>
+        <v>-5.9871874847268044E-3</v>
       </c>
       <c r="J30">
-        <v>-9.6747170541437565E-3</v>
+        <v>-9.009798561328922E-3</v>
       </c>
       <c r="K30">
-        <v>2.7756850120282312E-4</v>
+        <v>1.4590666717497261E-4</v>
       </c>
       <c r="L30">
-        <v>2.8843215347491768E-3</v>
+        <v>2.5278003506000713E-3</v>
       </c>
       <c r="M30">
-        <v>-4.0118072973027545E-4</v>
+        <v>-2.3054674024303268E-3</v>
       </c>
       <c r="N30">
-        <v>-2.6881622139382976E-3</v>
+        <v>-1.2296403335267888E-3</v>
       </c>
       <c r="O30">
-        <v>-3.1259249406179589E-3</v>
+        <v>-2.3400602843120168E-3</v>
       </c>
       <c r="P30">
-        <v>-2.7478607052277134E-3</v>
+        <v>-1.6630291097157847E-3</v>
       </c>
       <c r="Q30">
-        <v>-2.1715612964501299E-3</v>
+        <v>-1.351158231334729E-3</v>
       </c>
       <c r="R30">
-        <v>1.8757447863473533E-3</v>
+        <v>1.9756311782602961E-3</v>
       </c>
       <c r="S30">
-        <v>-4.5892945381995488E-4</v>
+        <v>-5.3898375904030623E-4</v>
       </c>
       <c r="T30">
-        <v>-2.8502645117447264E-2</v>
+        <v>-2.9589059742854511E-2</v>
       </c>
       <c r="U30">
-        <v>-3.085805100728585E-2</v>
+        <v>-3.1717585756376877E-2</v>
       </c>
       <c r="V30">
-        <v>-3.2989412762780543E-2</v>
+        <v>-3.3713979984286921E-2</v>
       </c>
       <c r="W30">
-        <v>-3.5473192357461325E-2</v>
+        <v>-3.5717065276445414E-2</v>
       </c>
       <c r="X30">
-        <v>-7.8528347804103797E-4</v>
+        <v>-6.4234850863807756E-4</v>
       </c>
       <c r="Y30">
-        <v>-1.4071915012719796E-3</v>
+        <v>-7.4805919462713909E-4</v>
       </c>
       <c r="Z30">
-        <v>-1.7540467494741555E-4</v>
+        <v>-1.2845721024688913E-4</v>
       </c>
       <c r="AA30">
-        <v>-7.9291159018831162E-4</v>
+        <v>-4.6803922026760381E-4</v>
       </c>
       <c r="AB30">
-        <v>-4.048363131697216E-4</v>
+        <v>-3.6066839097062444E-4</v>
       </c>
       <c r="AC30">
-        <v>3.4320019442406343E-4</v>
+        <v>7.3419466474651768E-4</v>
       </c>
       <c r="AD30">
-        <v>2.1287803686554719E-3</v>
+        <v>1.6858799406244771E-3</v>
       </c>
       <c r="AE30">
-        <v>7.5452770696974564E-2</v>
+        <v>7.2114003872499416E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5225,103 +5223,103 @@
         <v>16</v>
       </c>
       <c r="B2" s="70">
-        <v>-4.5035464497215724E-2</v>
+        <v>-4.6691799310200323E-2</v>
       </c>
       <c r="C2">
-        <v>8.7442647345548918E-5</v>
+        <v>7.292515641570226E-5</v>
       </c>
       <c r="D2">
-        <v>-7.5126802540255427E-7</v>
+        <v>-6.3911727386576045E-7</v>
       </c>
       <c r="E2">
-        <v>-1.7697161719562821E-7</v>
+        <v>4.8320079415649917E-6</v>
       </c>
       <c r="F2">
-        <v>4.2520866055143554E-5</v>
+        <v>4.1364032981790509E-5</v>
       </c>
       <c r="G2">
-        <v>-4.9821433834285617E-5</v>
+        <v>-6.0687625345542449E-5</v>
       </c>
       <c r="H2">
-        <v>-2.2096657369840115E-5</v>
+        <v>-4.2835265944846947E-5</v>
       </c>
       <c r="I2">
-        <v>-3.6466812523948161E-5</v>
+        <v>-4.0513696602968068E-5</v>
       </c>
       <c r="J2">
-        <v>-6.0826357469674863E-5</v>
+        <v>-6.6041847066915227E-5</v>
       </c>
       <c r="K2">
-        <v>-8.1067818576360112E-5</v>
+        <v>-7.2562108276968745E-5</v>
       </c>
       <c r="L2">
-        <v>5.9074847788951967E-5</v>
+        <v>-2.2135046763795612E-5</v>
       </c>
       <c r="M2">
-        <v>-9.7683151117326653E-6</v>
+        <v>-2.7235443009208981E-6</v>
       </c>
       <c r="N2">
-        <v>-8.4215857604105738E-6</v>
+        <v>3.9697457372015799E-6</v>
       </c>
       <c r="O2">
-        <v>2.8296045713617382E-5</v>
+        <v>3.2671600412229496E-5</v>
       </c>
       <c r="P2">
-        <v>5.9136901423500945E-5</v>
+        <v>2.2512034353597797E-5</v>
       </c>
       <c r="Q2">
-        <v>-3.3841978754364614E-6</v>
+        <v>-3.2130934805727678E-6</v>
       </c>
       <c r="R2">
-        <v>2.9419296485550916E-4</v>
+        <v>2.5817745953717568E-4</v>
       </c>
       <c r="S2">
-        <v>2.5633928566876055E-6</v>
+        <v>2.3751036770809637E-6</v>
       </c>
       <c r="T2">
-        <v>7.3165802890925519E-5</v>
+        <v>5.7401615206956858E-5</v>
       </c>
       <c r="U2">
-        <v>2.5842844814040716E-4</v>
+        <v>2.0160750188423675E-4</v>
       </c>
       <c r="V2">
-        <v>-1.019910618028241E-4</v>
+        <v>-8.0301543213293861E-5</v>
       </c>
       <c r="W2">
-        <v>-6.9967476581933127E-5</v>
+        <v>-3.3237686588919528E-5</v>
       </c>
       <c r="X2">
-        <v>-5.0026104955194924E-5</v>
+        <v>-3.3240630011531686E-5</v>
       </c>
       <c r="Y2">
-        <v>-8.3829536879142732E-6</v>
+        <v>-1.2251409094043744E-5</v>
       </c>
       <c r="Z2">
-        <v>3.6139074672553596E-6</v>
+        <v>5.8910565372704047E-6</v>
       </c>
       <c r="AA2">
-        <v>-3.524000945359651E-6</v>
+        <v>-1.1140137744877548E-5</v>
       </c>
       <c r="AB2">
-        <v>7.9980500314309842E-6</v>
+        <v>4.8373847198328627E-6</v>
       </c>
       <c r="AC2">
-        <v>-3.4045878657405423E-5</v>
+        <v>-3.4822229877893305E-5</v>
       </c>
       <c r="AD2">
-        <v>-1.6386122485671632E-5</v>
+        <v>-3.5044089676677785E-5</v>
       </c>
       <c r="AE2">
-        <v>4.6969100784759557E-6</v>
+        <v>-1.7124173794073622E-7</v>
       </c>
       <c r="AF2">
-        <v>-5.3684611292019956E-6</v>
+        <v>2.1259225772894206E-5</v>
       </c>
       <c r="AG2">
-        <v>-3.6683628138603876E-5</v>
+        <v>-1.3747743967566306E-5</v>
       </c>
       <c r="AH2">
-        <v>-2.3177011674301697E-3</v>
+        <v>-1.7783090093793953E-3</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.45">
@@ -5329,103 +5327,103 @@
         <v>17</v>
       </c>
       <c r="B3" s="70">
-        <v>5.0985246633854751E-4</v>
+        <v>5.0942005358229215E-4</v>
       </c>
       <c r="C3">
-        <v>-7.5126802540255427E-7</v>
+        <v>-6.3911727386576045E-7</v>
       </c>
       <c r="D3">
-        <v>6.8186444896773266E-9</v>
+        <v>5.9278870081464698E-9</v>
       </c>
       <c r="E3">
-        <v>2.9741995232944739E-8</v>
+        <v>1.6352234795362999E-8</v>
       </c>
       <c r="F3">
-        <v>-4.6548528931801379E-7</v>
+        <v>-4.2709326345377601E-7</v>
       </c>
       <c r="G3">
-        <v>7.0153467460176976E-7</v>
+        <v>6.7056948320527762E-7</v>
       </c>
       <c r="H3">
-        <v>3.9494878879167132E-7</v>
+        <v>4.5787949431980125E-7</v>
       </c>
       <c r="I3">
-        <v>3.4336580715834743E-7</v>
+        <v>4.0087403400169564E-7</v>
       </c>
       <c r="J3">
-        <v>6.3793369827844929E-7</v>
+        <v>6.9463745421376127E-7</v>
       </c>
       <c r="K3">
-        <v>8.7296813028604573E-7</v>
+        <v>8.1362608470130717E-7</v>
       </c>
       <c r="L3">
-        <v>-3.6336861088137573E-7</v>
+        <v>3.0934235630691292E-7</v>
       </c>
       <c r="M3">
-        <v>9.0599712594248079E-8</v>
+        <v>2.8613749073360925E-8</v>
       </c>
       <c r="N3">
-        <v>7.8936820212382443E-8</v>
+        <v>-3.3027335558010581E-8</v>
       </c>
       <c r="O3">
-        <v>-1.5908093973122267E-7</v>
+        <v>-1.9399385032352942E-7</v>
       </c>
       <c r="P3">
-        <v>-2.964305804195242E-7</v>
+        <v>-4.7037346261148183E-8</v>
       </c>
       <c r="Q3">
-        <v>3.1045526160915481E-9</v>
+        <v>-1.974089090185365E-10</v>
       </c>
       <c r="R3">
-        <v>-2.3046222096160881E-6</v>
+        <v>-2.0255374812530539E-6</v>
       </c>
       <c r="S3">
-        <v>-4.7094208002241499E-8</v>
+        <v>-4.2608927641006445E-8</v>
       </c>
       <c r="T3">
-        <v>-4.1277191745275518E-7</v>
+        <v>-3.0772779988045218E-7</v>
       </c>
       <c r="U3">
-        <v>-2.0204332204282353E-6</v>
+        <v>-1.5813415809519152E-6</v>
       </c>
       <c r="V3">
-        <v>9.360004001487557E-7</v>
+        <v>7.6260806998332103E-7</v>
       </c>
       <c r="W3">
-        <v>4.7625244445155492E-7</v>
+        <v>2.0735588201544661E-7</v>
       </c>
       <c r="X3">
-        <v>8.6483732848455753E-8</v>
+        <v>-5.5469449500260378E-8</v>
       </c>
       <c r="Y3">
-        <v>1.319171438326068E-7</v>
+        <v>1.5156777573398513E-7</v>
       </c>
       <c r="Z3">
-        <v>-6.3005054347181637E-8</v>
+        <v>-7.540478761750486E-8</v>
       </c>
       <c r="AA3">
-        <v>8.4997844054788044E-8</v>
+        <v>1.4514709808537336E-7</v>
       </c>
       <c r="AB3">
-        <v>-4.9807738557689716E-8</v>
+        <v>-3.4324282955958447E-8</v>
       </c>
       <c r="AC3">
-        <v>3.8877526432968941E-7</v>
+        <v>3.859670653835226E-7</v>
       </c>
       <c r="AD3">
-        <v>2.226815795570637E-7</v>
+        <v>3.5322944952830573E-7</v>
       </c>
       <c r="AE3">
-        <v>-5.306651751269544E-8</v>
+        <v>-1.5494793648283718E-8</v>
       </c>
       <c r="AF3">
-        <v>-5.2848655520025017E-8</v>
+        <v>-2.434148545432601E-7</v>
       </c>
       <c r="AG3">
-        <v>3.0239448051055689E-7</v>
+        <v>1.4458351085410225E-7</v>
       </c>
       <c r="AH3">
-        <v>1.8279140317102818E-5</v>
+        <v>1.4336139869019076E-5</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.45">
@@ -5433,103 +5431,103 @@
         <v>41</v>
       </c>
       <c r="B4" s="70">
-        <v>8.3735897615402517E-3</v>
+        <v>1.0716326872553779E-2</v>
       </c>
       <c r="C4">
-        <v>-1.7697161719562821E-7</v>
+        <v>4.8320079415649917E-6</v>
       </c>
       <c r="D4">
-        <v>2.9741995232944739E-8</v>
+        <v>1.6352234795362999E-8</v>
       </c>
       <c r="E4">
-        <v>2.598463718291727E-3</v>
+        <v>2.2491283574371402E-3</v>
       </c>
       <c r="F4">
-        <v>2.3394166501956139E-3</v>
+        <v>1.9858147609560423E-3</v>
       </c>
       <c r="G4">
-        <v>-1.1159811880151024E-3</v>
+        <v>-1.0515990950660421E-3</v>
       </c>
       <c r="H4">
-        <v>-1.0497380949220727E-3</v>
+        <v>-9.7240937796731872E-4</v>
       </c>
       <c r="I4">
-        <v>-1.0347076820865019E-5</v>
+        <v>-1.4274322399663897E-5</v>
       </c>
       <c r="J4">
-        <v>-1.0022874131080598E-4</v>
+        <v>-4.7042310611393907E-5</v>
       </c>
       <c r="K4">
-        <v>8.2279197990430897E-5</v>
+        <v>1.386823250096835E-4</v>
       </c>
       <c r="L4">
-        <v>6.312509388288265E-4</v>
+        <v>1.3759310102971794E-4</v>
       </c>
       <c r="M4">
-        <v>3.4691515222590784E-5</v>
+        <v>-2.0599852204446541E-5</v>
       </c>
       <c r="N4">
-        <v>1.2705248759826103E-4</v>
+        <v>4.3672074308845262E-5</v>
       </c>
       <c r="O4">
-        <v>-3.7830487723618418E-6</v>
+        <v>-2.85680805724212E-5</v>
       </c>
       <c r="P4">
-        <v>-2.8067006957173987E-4</v>
+        <v>-1.4100266349111176E-4</v>
       </c>
       <c r="Q4">
-        <v>8.7500310999923526E-5</v>
+        <v>4.3682010052064859E-5</v>
       </c>
       <c r="R4">
-        <v>5.7018530680583493E-4</v>
+        <v>4.7858758292140878E-4</v>
       </c>
       <c r="S4">
-        <v>4.6760075308740885E-5</v>
+        <v>2.3577887617712947E-5</v>
       </c>
       <c r="T4">
-        <v>1.4444498153663569E-4</v>
+        <v>1.6218335483003416E-4</v>
       </c>
       <c r="U4">
-        <v>5.108015977019916E-4</v>
+        <v>4.1621732133478618E-4</v>
       </c>
       <c r="V4">
-        <v>-7.0396947513200463E-4</v>
+        <v>-4.2905062022221657E-4</v>
       </c>
       <c r="W4">
-        <v>-1.0263865793513488E-3</v>
+        <v>-7.2067777670717999E-4</v>
       </c>
       <c r="X4">
-        <v>-1.4202124782104503E-3</v>
+        <v>-9.5758375514419839E-4</v>
       </c>
       <c r="Y4">
-        <v>-1.2078801774345587E-4</v>
+        <v>-6.1470130723912143E-5</v>
       </c>
       <c r="Z4">
-        <v>6.6281016307092528E-5</v>
+        <v>3.506367697943599E-5</v>
       </c>
       <c r="AA4">
-        <v>3.0224247379015824E-4</v>
+        <v>2.1366900124756086E-4</v>
       </c>
       <c r="AB4">
-        <v>2.7579879513013361E-4</v>
+        <v>1.7837490788022954E-4</v>
       </c>
       <c r="AC4">
-        <v>2.3209800453284374E-4</v>
+        <v>1.6339985237467586E-4</v>
       </c>
       <c r="AD4">
-        <v>3.9371058437999104E-4</v>
+        <v>2.4008640753897206E-4</v>
       </c>
       <c r="AE4">
-        <v>6.5806797417319784E-6</v>
+        <v>2.6468373123847931E-7</v>
       </c>
       <c r="AF4">
-        <v>2.3153874923141822E-4</v>
+        <v>1.8296050968189947E-4</v>
       </c>
       <c r="AG4">
-        <v>4.4534098756123034E-5</v>
+        <v>9.1858635457887699E-5</v>
       </c>
       <c r="AH4">
-        <v>-5.4390659643359471E-4</v>
+        <v>-7.778003334258885E-4</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.45">
@@ -5537,103 +5535,103 @@
         <v>42</v>
       </c>
       <c r="B5" s="70">
-        <v>0.12894043474939082</v>
+        <v>0.13874132758568195</v>
       </c>
       <c r="C5">
-        <v>4.2520866055143554E-5</v>
+        <v>4.1364032981790509E-5</v>
       </c>
       <c r="D5">
-        <v>-4.6548528931801379E-7</v>
+        <v>-4.2709326345377601E-7</v>
       </c>
       <c r="E5">
-        <v>2.3394166501956139E-3</v>
+        <v>1.9858147609560423E-3</v>
       </c>
       <c r="F5">
-        <v>4.1787999194463155E-3</v>
+        <v>3.6039911502027096E-3</v>
       </c>
       <c r="G5">
-        <v>-1.2880062147542649E-3</v>
+        <v>-1.1182263273173735E-3</v>
       </c>
       <c r="H5">
-        <v>-2.1663137605710688E-3</v>
+        <v>-1.7916611168401261E-3</v>
       </c>
       <c r="I5">
-        <v>-3.7693575416827135E-4</v>
+        <v>-4.2598230543492528E-4</v>
       </c>
       <c r="J5">
-        <v>-4.901641538326341E-4</v>
+        <v>-4.4264254164649337E-4</v>
       </c>
       <c r="K5">
-        <v>-5.9955791246434683E-5</v>
+        <v>-5.6264806616730754E-5</v>
       </c>
       <c r="L5">
-        <v>4.2239805790034E-4</v>
+        <v>-5.1544756369407881E-5</v>
       </c>
       <c r="M5">
-        <v>1.1139433409607799E-4</v>
+        <v>5.9804242187755255E-6</v>
       </c>
       <c r="N5">
-        <v>2.398119696087839E-4</v>
+        <v>1.8947826022181732E-4</v>
       </c>
       <c r="O5">
-        <v>1.4199973799395487E-4</v>
+        <v>-4.1758877894871953E-6</v>
       </c>
       <c r="P5">
-        <v>-1.3617514280062684E-4</v>
+        <v>-8.6385957998649939E-5</v>
       </c>
       <c r="Q5">
-        <v>1.4583407741048204E-4</v>
+        <v>1.0244378153696719E-4</v>
       </c>
       <c r="R5">
-        <v>6.889330977031048E-4</v>
+        <v>5.0098775646748093E-4</v>
       </c>
       <c r="S5">
-        <v>3.4620119291215609E-5</v>
+        <v>1.5266993825239503E-5</v>
       </c>
       <c r="T5">
-        <v>-1.6782328010741198E-5</v>
+        <v>3.0988392052633409E-5</v>
       </c>
       <c r="U5">
-        <v>6.4577430983481156E-4</v>
+        <v>5.086723192775812E-4</v>
       </c>
       <c r="V5">
-        <v>-9.0669195419038463E-4</v>
+        <v>-6.5843084379327049E-4</v>
       </c>
       <c r="W5">
-        <v>-8.8339806734055173E-4</v>
+        <v>-6.6739867523443882E-4</v>
       </c>
       <c r="X5">
-        <v>-1.4456451495670655E-3</v>
+        <v>-9.9627315929907805E-4</v>
       </c>
       <c r="Y5">
-        <v>-1.496177434298762E-4</v>
+        <v>-7.8759877183033752E-5</v>
       </c>
       <c r="Z5">
-        <v>9.5936418989351512E-5</v>
+        <v>5.6232362050062076E-5</v>
       </c>
       <c r="AA5">
-        <v>-1.6774759903172699E-4</v>
+        <v>-1.5950974376013785E-4</v>
       </c>
       <c r="AB5">
-        <v>1.0758247358818148E-4</v>
+        <v>3.5689019499657304E-5</v>
       </c>
       <c r="AC5">
-        <v>-2.2661089049854808E-4</v>
+        <v>-2.1305765785051246E-4</v>
       </c>
       <c r="AD5">
-        <v>-3.7528320126746723E-5</v>
+        <v>-1.1710699334090916E-4</v>
       </c>
       <c r="AE5">
-        <v>1.3099079534449438E-5</v>
+        <v>9.2602457383230173E-6</v>
       </c>
       <c r="AF5">
-        <v>7.1829765546291388E-4</v>
+        <v>5.3131433928185203E-4</v>
       </c>
       <c r="AG5">
-        <v>7.9372879431120779E-5</v>
+        <v>8.8658980245121866E-5</v>
       </c>
       <c r="AH5">
-        <v>-8.0335339080521526E-4</v>
+        <v>-9.756723868810822E-4</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.45">
@@ -5641,103 +5639,103 @@
         <v>43</v>
       </c>
       <c r="B6" s="70">
-        <v>0.1319899203696801</v>
+        <v>0.12973360940827572</v>
       </c>
       <c r="C6">
-        <v>-4.9821433834285617E-5</v>
+        <v>-6.0687625345542449E-5</v>
       </c>
       <c r="D6">
-        <v>7.0153467460176976E-7</v>
+        <v>6.7056948320527762E-7</v>
       </c>
       <c r="E6">
-        <v>-1.1159811880151024E-3</v>
+        <v>-1.0515990950660421E-3</v>
       </c>
       <c r="F6">
-        <v>-1.2880062147542649E-3</v>
+        <v>-1.1182263273173735E-3</v>
       </c>
       <c r="G6">
-        <v>3.1028037216830743E-3</v>
+        <v>2.6901551543764422E-3</v>
       </c>
       <c r="H6">
-        <v>2.767452507101946E-3</v>
+        <v>2.399344023571687E-3</v>
       </c>
       <c r="I6">
-        <v>9.1709175488451772E-5</v>
+        <v>9.8183490381671554E-5</v>
       </c>
       <c r="J6">
-        <v>2.1874100153760462E-4</v>
+        <v>1.5785435366023139E-4</v>
       </c>
       <c r="K6">
-        <v>8.9870900682063198E-5</v>
+        <v>3.0010781740703765E-5</v>
       </c>
       <c r="L6">
-        <v>-1.0080945816355617E-3</v>
+        <v>-2.0196331728781152E-4</v>
       </c>
       <c r="M6">
-        <v>-6.3522649705490165E-5</v>
+        <v>-4.2874642342145277E-5</v>
       </c>
       <c r="N6">
-        <v>-5.3054931055901265E-5</v>
+        <v>-5.643997139620602E-6</v>
       </c>
       <c r="O6">
-        <v>2.5396651728570635E-4</v>
+        <v>6.501387031046223E-5</v>
       </c>
       <c r="P6">
-        <v>7.2312276450992724E-4</v>
+        <v>2.976202361941381E-4</v>
       </c>
       <c r="Q6">
-        <v>-7.9567505475591565E-5</v>
+        <v>-5.9969979071889813E-5</v>
       </c>
       <c r="R6">
-        <v>-4.6379300408968724E-4</v>
+        <v>-4.6556647540855198E-4</v>
       </c>
       <c r="S6">
-        <v>-5.8615786363474588E-5</v>
+        <v>-2.112790700704576E-5</v>
       </c>
       <c r="T6">
-        <v>2.1545861169520119E-4</v>
+        <v>3.1056415965956946E-5</v>
       </c>
       <c r="U6">
-        <v>1.079811979597118E-4</v>
+        <v>2.856319318202084E-5</v>
       </c>
       <c r="V6">
-        <v>1.0380942255241003E-3</v>
+        <v>6.9908739526200058E-4</v>
       </c>
       <c r="W6">
-        <v>9.4249604615810048E-4</v>
+        <v>6.4794466962815665E-4</v>
       </c>
       <c r="X6">
-        <v>1.726045388539638E-3</v>
+        <v>1.2935488076916417E-3</v>
       </c>
       <c r="Y6">
-        <v>2.8805882396136371E-4</v>
+        <v>2.2984521842928524E-4</v>
       </c>
       <c r="Z6">
-        <v>-1.3313796317861035E-4</v>
+        <v>-1.1404828278571537E-4</v>
       </c>
       <c r="AA6">
-        <v>-7.4227361517208699E-5</v>
+        <v>-9.9598573771554253E-5</v>
       </c>
       <c r="AB6">
-        <v>-2.6291178791981756E-4</v>
+        <v>-2.2232744134344711E-4</v>
       </c>
       <c r="AC6">
-        <v>-1.1017247577642625E-4</v>
+        <v>-1.4618516658667085E-4</v>
       </c>
       <c r="AD6">
-        <v>-1.8178175982056091E-4</v>
+        <v>-1.7995844462926383E-4</v>
       </c>
       <c r="AE6">
-        <v>3.0054066418303936E-5</v>
+        <v>4.2176744307403773E-5</v>
       </c>
       <c r="AF6">
-        <v>-5.395465657720462E-4</v>
+        <v>-4.7134757553512574E-4</v>
       </c>
       <c r="AG6">
-        <v>-3.1321825850824604E-4</v>
+        <v>-3.4694679842011149E-4</v>
       </c>
       <c r="AH6">
-        <v>-3.8015901288227815E-3</v>
+        <v>-2.3153696567982671E-3</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.45">
@@ -5745,103 +5743,103 @@
         <v>44</v>
       </c>
       <c r="B7" s="70">
-        <v>0.23451465892392781</v>
+        <v>0.22346961887180897</v>
       </c>
       <c r="C7">
-        <v>-2.2096657369840115E-5</v>
+        <v>-4.2835265944846947E-5</v>
       </c>
       <c r="D7">
-        <v>3.9494878879167132E-7</v>
+        <v>4.5787949431980125E-7</v>
       </c>
       <c r="E7">
-        <v>-1.0497380949220727E-3</v>
+        <v>-9.7240937796731872E-4</v>
       </c>
       <c r="F7">
-        <v>-2.1663137605710688E-3</v>
+        <v>-1.7916611168401261E-3</v>
       </c>
       <c r="G7">
-        <v>2.767452507101946E-3</v>
+        <v>2.399344023571687E-3</v>
       </c>
       <c r="H7">
-        <v>4.4995750199205231E-3</v>
+        <v>3.9376108422975523E-3</v>
       </c>
       <c r="I7">
-        <v>3.1597041891292236E-4</v>
+        <v>3.5266771658232904E-4</v>
       </c>
       <c r="J7">
-        <v>6.3122367565317662E-4</v>
+        <v>5.8436473368266386E-4</v>
       </c>
       <c r="K7">
-        <v>2.2761134498635953E-4</v>
+        <v>2.8365001091802688E-4</v>
       </c>
       <c r="L7">
-        <v>-7.4258378689158748E-4</v>
+        <v>7.2883836569620069E-5</v>
       </c>
       <c r="M7">
-        <v>-1.0722415211006513E-4</v>
+        <v>-2.9430682074928812E-5</v>
       </c>
       <c r="N7">
-        <v>-4.2887486620447928E-5</v>
+        <v>2.4829981527879836E-5</v>
       </c>
       <c r="O7">
-        <v>3.6613400484894032E-4</v>
+        <v>2.0581989357294111E-4</v>
       </c>
       <c r="P7">
-        <v>7.6561550506334117E-4</v>
+        <v>3.8097332562213153E-4</v>
       </c>
       <c r="Q7">
-        <v>-5.6826981619013099E-5</v>
+        <v>-4.2258175668401037E-5</v>
       </c>
       <c r="R7">
-        <v>-2.5859846870432602E-4</v>
+        <v>-2.9660793296972605E-4</v>
       </c>
       <c r="S7">
-        <v>-3.0172358374069571E-5</v>
+        <v>-1.1966479145182466E-6</v>
       </c>
       <c r="T7">
-        <v>3.6326413501252804E-4</v>
+        <v>1.2198617316137106E-4</v>
       </c>
       <c r="U7">
-        <v>-8.2222032369255564E-5</v>
+        <v>-1.3437619026084209E-4</v>
       </c>
       <c r="V7">
-        <v>1.0359243020726682E-3</v>
+        <v>7.4653402797510084E-4</v>
       </c>
       <c r="W7">
-        <v>7.3576268697854495E-4</v>
+        <v>4.847160538450629E-4</v>
       </c>
       <c r="X7">
-        <v>1.6364574423033858E-3</v>
+        <v>1.2667973619605044E-3</v>
       </c>
       <c r="Y7">
-        <v>2.833500081692162E-4</v>
+        <v>2.2934587085191233E-4</v>
       </c>
       <c r="Z7">
-        <v>-1.355448590404723E-4</v>
+        <v>-1.1925119720454241E-4</v>
       </c>
       <c r="AA7">
-        <v>-3.5966263156068565E-5</v>
+        <v>-4.585312367051187E-5</v>
       </c>
       <c r="AB7">
-        <v>-2.7352152880314633E-4</v>
+        <v>-2.403810099546188E-4</v>
       </c>
       <c r="AC7">
-        <v>-1.7290934849355493E-4</v>
+        <v>-1.9440958574212797E-4</v>
       </c>
       <c r="AD7">
-        <v>-2.4723102294345041E-4</v>
+        <v>-2.1705690611973879E-4</v>
       </c>
       <c r="AE7">
-        <v>4.6315083678628188E-5</v>
+        <v>5.5625020171766476E-5</v>
       </c>
       <c r="AF7">
-        <v>-7.1565113979791444E-4</v>
+        <v>-5.8133836410261973E-4</v>
       </c>
       <c r="AG7">
-        <v>-3.7831091517296386E-4</v>
+        <v>-3.9814919855902598E-4</v>
       </c>
       <c r="AH7">
-        <v>-4.7544620897012006E-3</v>
+        <v>-3.190339167151154E-3</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.45">
@@ -5849,103 +5847,103 @@
         <v>45</v>
       </c>
       <c r="B8" s="70">
-        <v>1.2584946392569392E-2</v>
+        <v>6.4530490962631512E-2</v>
       </c>
       <c r="C8">
-        <v>-3.6466812523948161E-5</v>
+        <v>-4.0513696602968068E-5</v>
       </c>
       <c r="D8">
-        <v>3.4336580715834743E-7</v>
+        <v>4.0087403400169564E-7</v>
       </c>
       <c r="E8">
-        <v>-1.0347076820865019E-5</v>
+        <v>-1.4274322399663897E-5</v>
       </c>
       <c r="F8">
-        <v>-3.7693575416827135E-4</v>
+        <v>-4.2598230543492528E-4</v>
       </c>
       <c r="G8">
-        <v>9.1709175488451772E-5</v>
+        <v>9.8183490381671554E-5</v>
       </c>
       <c r="H8">
-        <v>3.1597041891292236E-4</v>
+        <v>3.5266771658232904E-4</v>
       </c>
       <c r="I8">
-        <v>1.0241433367954959E-2</v>
+        <v>1.0513168598016596E-2</v>
       </c>
       <c r="J8">
-        <v>9.0391816077773548E-3</v>
+        <v>9.3142763089534841E-3</v>
       </c>
       <c r="K8">
-        <v>9.1454396041505872E-3</v>
+        <v>9.4149799543156235E-3</v>
       </c>
       <c r="L8">
-        <v>9.136422501126203E-3</v>
+        <v>9.3985925187891287E-3</v>
       </c>
       <c r="M8">
-        <v>-7.8894441377763984E-4</v>
+        <v>-7.7712402706417449E-4</v>
       </c>
       <c r="N8">
-        <v>-1.2271807913957094E-3</v>
+        <v>-1.1822229891837379E-3</v>
       </c>
       <c r="O8">
-        <v>-9.9842247890702526E-4</v>
+        <v>-1.0010538475288802E-3</v>
       </c>
       <c r="P8">
-        <v>-9.225606149436624E-4</v>
+        <v>-9.3998516872271284E-4</v>
       </c>
       <c r="Q8">
-        <v>-5.0757506588386707E-5</v>
+        <v>-2.3098760115171368E-5</v>
       </c>
       <c r="R8">
-        <v>-7.5542227168274591E-6</v>
+        <v>1.8747937606525147E-4</v>
       </c>
       <c r="S8">
-        <v>-1.8259573896848283E-5</v>
+        <v>-1.5445915320199442E-5</v>
       </c>
       <c r="T8">
-        <v>8.6510357517853142E-5</v>
+        <v>7.7629619200562201E-5</v>
       </c>
       <c r="U8">
-        <v>2.9141184851479932E-5</v>
+        <v>3.021791978141241E-6</v>
       </c>
       <c r="V8">
-        <v>5.3318286867863347E-5</v>
+        <v>1.3131558112083452E-5</v>
       </c>
       <c r="W8">
-        <v>-6.6023900353242779E-4</v>
+        <v>-4.817125354114795E-4</v>
       </c>
       <c r="X8">
-        <v>1.3188249615194185E-4</v>
+        <v>2.5261462699567409E-5</v>
       </c>
       <c r="Y8">
-        <v>-1.4417266699757027E-5</v>
+        <v>-1.7648585330074385E-5</v>
       </c>
       <c r="Z8">
-        <v>-5.7720722002652146E-6</v>
+        <v>-2.9265044842706478E-6</v>
       </c>
       <c r="AA8">
-        <v>5.4004727333365268E-5</v>
+        <v>-4.475556181929817E-5</v>
       </c>
       <c r="AB8">
-        <v>-7.003057503420099E-4</v>
+        <v>-6.9532986509027281E-4</v>
       </c>
       <c r="AC8">
-        <v>-1.9792047663944826E-4</v>
+        <v>-2.4619913063507037E-4</v>
       </c>
       <c r="AD8">
-        <v>-1.4949351454913388E-4</v>
+        <v>-2.3296030387573831E-4</v>
       </c>
       <c r="AE8">
-        <v>2.2836740197475642E-5</v>
+        <v>1.7765658610318562E-5</v>
       </c>
       <c r="AF8">
-        <v>-1.169110632960131E-4</v>
+        <v>-2.5926608284038938E-5</v>
       </c>
       <c r="AG8">
-        <v>-1.0191069935649739E-4</v>
+        <v>-4.138196837290796E-5</v>
       </c>
       <c r="AH8">
-        <v>-7.4132519428141107E-3</v>
+        <v>-7.5518116317570445E-3</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.45">
@@ -5953,103 +5951,103 @@
         <v>46</v>
       </c>
       <c r="B9" s="70">
-        <v>0.10456352263806194</v>
+        <v>0.11846132100304489</v>
       </c>
       <c r="C9">
-        <v>-6.0826357469674863E-5</v>
+        <v>-6.6041847066915227E-5</v>
       </c>
       <c r="D9">
-        <v>6.3793369827844929E-7</v>
+        <v>6.9463745421376127E-7</v>
       </c>
       <c r="E9">
-        <v>-1.0022874131080598E-4</v>
+        <v>-4.7042310611393907E-5</v>
       </c>
       <c r="F9">
-        <v>-4.901641538326341E-4</v>
+        <v>-4.4264254164649337E-4</v>
       </c>
       <c r="G9">
-        <v>2.1874100153760462E-4</v>
+        <v>1.5785435366023139E-4</v>
       </c>
       <c r="H9">
-        <v>6.3122367565317662E-4</v>
+        <v>5.8436473368266386E-4</v>
       </c>
       <c r="I9">
-        <v>9.0391816077773548E-3</v>
+        <v>9.3142763089534841E-3</v>
       </c>
       <c r="J9">
-        <v>1.0025337299023227E-2</v>
+        <v>1.0226077280712259E-2</v>
       </c>
       <c r="K9">
-        <v>9.5178170911432124E-3</v>
+        <v>9.7739128754322294E-3</v>
       </c>
       <c r="L9">
-        <v>9.5258000305272449E-3</v>
+        <v>9.7852738757523219E-3</v>
       </c>
       <c r="M9">
-        <v>-1.0030493660922915E-3</v>
+        <v>-9.8281582613821334E-4</v>
       </c>
       <c r="N9">
-        <v>-1.7416985691379818E-3</v>
+        <v>-1.6329652739147517E-3</v>
       </c>
       <c r="O9">
-        <v>-1.2432795337040295E-3</v>
+        <v>-1.2392598961549588E-3</v>
       </c>
       <c r="P9">
-        <v>-1.2467720053085506E-3</v>
+        <v>-1.2532281809948143E-3</v>
       </c>
       <c r="Q9">
-        <v>-1.9600794816590841E-5</v>
+        <v>-3.6930536173639464E-8</v>
       </c>
       <c r="R9">
-        <v>-9.7385842390909974E-5</v>
+        <v>1.0778077517635564E-4</v>
       </c>
       <c r="S9">
-        <v>-1.1675343693499854E-5</v>
+        <v>-1.0651740204142683E-5</v>
       </c>
       <c r="T9">
-        <v>1.106411056956524E-4</v>
+        <v>1.039374008810339E-4</v>
       </c>
       <c r="U9">
-        <v>-1.7839299450770891E-5</v>
+        <v>-1.1470995514266044E-5</v>
       </c>
       <c r="V9">
-        <v>2.3883781165199951E-5</v>
+        <v>1.025313310076887E-4</v>
       </c>
       <c r="W9">
-        <v>-5.6389533861264283E-4</v>
+        <v>-4.7958057456351483E-4</v>
       </c>
       <c r="X9">
-        <v>2.631292020529169E-4</v>
+        <v>3.0920888123562792E-4</v>
       </c>
       <c r="Y9">
-        <v>2.8057980118393407E-5</v>
+        <v>3.6772744930903115E-5</v>
       </c>
       <c r="Z9">
-        <v>-3.251663263839638E-5</v>
+        <v>-3.8603895839080336E-5</v>
       </c>
       <c r="AA9">
-        <v>-5.1172596402682818E-5</v>
+        <v>-3.9656065016181134E-5</v>
       </c>
       <c r="AB9">
-        <v>-6.4527425681749364E-4</v>
+        <v>-6.5226836452044888E-4</v>
       </c>
       <c r="AC9">
-        <v>-1.8766455476575995E-4</v>
+        <v>-1.7280026316008647E-4</v>
       </c>
       <c r="AD9">
-        <v>-1.0310090765774374E-4</v>
+        <v>-1.3817122597918163E-4</v>
       </c>
       <c r="AE9">
-        <v>2.0733093074448369E-5</v>
+        <v>1.4727479325777552E-5</v>
       </c>
       <c r="AF9">
-        <v>-1.0209827624395903E-4</v>
+        <v>-1.4746069866406698E-5</v>
       </c>
       <c r="AG9">
-        <v>-8.4381578360878846E-5</v>
+        <v>1.6530703553409819E-5</v>
       </c>
       <c r="AH9">
-        <v>-7.4190183162775583E-3</v>
+        <v>-7.619683208598212E-3</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.45">
@@ -6057,103 +6055,103 @@
         <v>47</v>
       </c>
       <c r="B10" s="70">
-        <v>6.7422200548786046E-2</v>
+        <v>0.10001428080557635</v>
       </c>
       <c r="C10">
-        <v>-8.1067818576360112E-5</v>
+        <v>-7.2562108276968745E-5</v>
       </c>
       <c r="D10">
-        <v>8.7296813028604573E-7</v>
+        <v>8.1362608470130717E-7</v>
       </c>
       <c r="E10">
-        <v>8.2279197990430897E-5</v>
+        <v>1.386823250096835E-4</v>
       </c>
       <c r="F10">
-        <v>-5.9955791246434683E-5</v>
+        <v>-5.6264806616730754E-5</v>
       </c>
       <c r="G10">
-        <v>8.9870900682063198E-5</v>
+        <v>3.0010781740703765E-5</v>
       </c>
       <c r="H10">
-        <v>2.2761134498635953E-4</v>
+        <v>2.8365001091802688E-4</v>
       </c>
       <c r="I10">
-        <v>9.1454396041505872E-3</v>
+        <v>9.4149799543156235E-3</v>
       </c>
       <c r="J10">
-        <v>9.5178170911432124E-3</v>
+        <v>9.7739128754322294E-3</v>
       </c>
       <c r="K10">
-        <v>1.077967156674055E-2</v>
+        <v>1.0969176649982143E-2</v>
       </c>
       <c r="L10">
-        <v>1.0371718231394282E-2</v>
+        <v>1.0502237147365073E-2</v>
       </c>
       <c r="M10">
-        <v>-1.0111761280480454E-3</v>
+        <v>-1.0098035094408813E-3</v>
       </c>
       <c r="N10">
-        <v>-1.6675775553323456E-3</v>
+        <v>-1.5111016547693929E-3</v>
       </c>
       <c r="O10">
-        <v>-1.7701213466742652E-3</v>
+        <v>-1.8502707910762644E-3</v>
       </c>
       <c r="P10">
-        <v>-1.4587736212795495E-3</v>
+        <v>-1.4920371306559341E-3</v>
       </c>
       <c r="Q10">
-        <v>3.3461307427470779E-5</v>
+        <v>6.5872774844207048E-5</v>
       </c>
       <c r="R10">
-        <v>2.4313608866212476E-4</v>
+        <v>4.6319853260861916E-4</v>
       </c>
       <c r="S10">
-        <v>-1.0798931019500779E-5</v>
+        <v>-9.7625443386761498E-6</v>
       </c>
       <c r="T10">
-        <v>-4.5384765312049937E-5</v>
+        <v>3.9267089378509316E-5</v>
       </c>
       <c r="U10">
-        <v>8.6193939349713282E-5</v>
+        <v>6.5962516654398222E-5</v>
       </c>
       <c r="V10">
-        <v>-2.351927279367603E-4</v>
+        <v>-2.2303042085283786E-4</v>
       </c>
       <c r="W10">
-        <v>-7.867910338259156E-4</v>
+        <v>-7.3286644225640726E-4</v>
       </c>
       <c r="X10">
-        <v>-1.8681004764557882E-4</v>
+        <v>-1.3690761186020911E-4</v>
       </c>
       <c r="Y10">
-        <v>-6.7982775360260711E-5</v>
+        <v>-4.1001680116000284E-5</v>
       </c>
       <c r="Z10">
-        <v>2.4161435005324488E-5</v>
+        <v>8.8604117683435636E-6</v>
       </c>
       <c r="AA10">
-        <v>1.3978328911809241E-5</v>
+        <v>-6.3150755855945206E-5</v>
       </c>
       <c r="AB10">
-        <v>-6.0291543013126924E-4</v>
+        <v>-7.0010718366429335E-4</v>
       </c>
       <c r="AC10">
-        <v>-6.8412689980658879E-5</v>
+        <v>-1.6673060377957183E-4</v>
       </c>
       <c r="AD10">
-        <v>-2.046235910389653E-5</v>
+        <v>-1.4454005554316238E-4</v>
       </c>
       <c r="AE10">
-        <v>-1.9139331432654346E-5</v>
+        <v>-5.0429640093759844E-6</v>
       </c>
       <c r="AF10">
-        <v>3.2876524274645007E-5</v>
+        <v>1.0693163025841819E-4</v>
       </c>
       <c r="AG10">
-        <v>9.8039395808773196E-5</v>
+        <v>2.930688700025167E-5</v>
       </c>
       <c r="AH10">
-        <v>-6.2716472006394079E-3</v>
+        <v>-7.1711411685051341E-3</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.45">
@@ -6161,103 +6159,103 @@
         <v>48</v>
       </c>
       <c r="B11" s="70">
-        <v>0.13749712139673978</v>
+        <v>0.12933737210330007</v>
       </c>
       <c r="C11">
-        <v>5.9074847788951967E-5</v>
+        <v>-2.2135046763795612E-5</v>
       </c>
       <c r="D11">
-        <v>-3.6336861088137573E-7</v>
+        <v>3.0934235630691292E-7</v>
       </c>
       <c r="E11">
-        <v>6.312509388288265E-4</v>
+        <v>1.3759310102971794E-4</v>
       </c>
       <c r="F11">
-        <v>4.2239805790034E-4</v>
+        <v>-5.1544756369407881E-5</v>
       </c>
       <c r="G11">
-        <v>-1.0080945816355617E-3</v>
+        <v>-2.0196331728781152E-4</v>
       </c>
       <c r="H11">
-        <v>-7.4258378689158748E-4</v>
+        <v>7.2883836569620069E-5</v>
       </c>
       <c r="I11">
-        <v>9.136422501126203E-3</v>
+        <v>9.3985925187891287E-3</v>
       </c>
       <c r="J11">
-        <v>9.5258000305272449E-3</v>
+        <v>9.7852738757523219E-3</v>
       </c>
       <c r="K11">
-        <v>1.0371718231394282E-2</v>
+        <v>1.0502237147365073E-2</v>
       </c>
       <c r="L11">
-        <v>1.5964960943215319E-2</v>
+        <v>1.4863172241016036E-2</v>
       </c>
       <c r="M11">
-        <v>-1.0481810559090166E-3</v>
+        <v>-1.0230015914405623E-3</v>
       </c>
       <c r="N11">
-        <v>-1.6870219587186109E-3</v>
+        <v>-1.5542461342603292E-3</v>
       </c>
       <c r="O11">
-        <v>-1.6490796475965019E-3</v>
+        <v>-1.6345025111063494E-3</v>
       </c>
       <c r="P11">
-        <v>-3.3724600583513713E-3</v>
+        <v>-2.8974741189362854E-3</v>
       </c>
       <c r="Q11">
-        <v>1.647486436587675E-4</v>
+        <v>1.5047607637167968E-4</v>
       </c>
       <c r="R11">
-        <v>1.121106671134346E-4</v>
+        <v>-5.0286351119522622E-4</v>
       </c>
       <c r="S11">
-        <v>2.2576597043778554E-5</v>
+        <v>3.3569348950445894E-5</v>
       </c>
       <c r="T11">
-        <v>-3.3938172670081295E-4</v>
+        <v>-2.5552679426246901E-4</v>
       </c>
       <c r="U11">
-        <v>-1.5259993312065844E-4</v>
+        <v>-3.3609451502693852E-4</v>
       </c>
       <c r="V11">
-        <v>-5.3284161107704751E-4</v>
+        <v>-2.2204024396257883E-4</v>
       </c>
       <c r="W11">
-        <v>-1.3678459231161188E-3</v>
+        <v>-1.0143009496531143E-3</v>
       </c>
       <c r="X11">
-        <v>-1.0811003116257358E-3</v>
+        <v>-5.2847350649478904E-4</v>
       </c>
       <c r="Y11">
-        <v>-2.2719831484950277E-4</v>
+        <v>-1.4355567821228594E-4</v>
       </c>
       <c r="Z11">
-        <v>1.9607407569884787E-5</v>
+        <v>2.5879003309921809E-6</v>
       </c>
       <c r="AA11">
-        <v>3.065308740866652E-5</v>
+        <v>5.8024073059764238E-5</v>
       </c>
       <c r="AB11">
-        <v>-6.513115522114323E-4</v>
+        <v>-5.9933273295621238E-4</v>
       </c>
       <c r="AC11">
-        <v>2.1676851625643256E-5</v>
+        <v>-4.0052864117734455E-5</v>
       </c>
       <c r="AD11">
-        <v>2.0467460852525423E-4</v>
+        <v>1.2366264352095232E-4</v>
       </c>
       <c r="AE11">
-        <v>-2.1254512816734942E-5</v>
+        <v>-3.2668623234956826E-6</v>
       </c>
       <c r="AF11">
-        <v>5.6641074948035413E-4</v>
+        <v>4.8723106803700374E-4</v>
       </c>
       <c r="AG11">
-        <v>-3.6916270965800697E-5</v>
+        <v>6.9971647561910613E-5</v>
       </c>
       <c r="AH11">
-        <v>-8.762362293492679E-3</v>
+        <v>-7.8059958810408735E-3</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.45">
@@ -6265,103 +6263,103 @@
         <v>49</v>
       </c>
       <c r="B12" s="70">
-        <v>-0.45158956726463645</v>
+        <v>-0.42564076412755641</v>
       </c>
       <c r="C12">
-        <v>-9.7683151117326653E-6</v>
+        <v>-2.7235443009208981E-6</v>
       </c>
       <c r="D12">
-        <v>9.0599712594248079E-8</v>
+        <v>2.8613749073360925E-8</v>
       </c>
       <c r="E12">
-        <v>3.4691515222590784E-5</v>
+        <v>-2.0599852204446541E-5</v>
       </c>
       <c r="F12">
-        <v>1.1139433409607799E-4</v>
+        <v>5.9804242187755255E-6</v>
       </c>
       <c r="G12">
-        <v>-6.3522649705490165E-5</v>
+        <v>-4.2874642342145277E-5</v>
       </c>
       <c r="H12">
-        <v>-1.0722415211006513E-4</v>
+        <v>-2.9430682074928812E-5</v>
       </c>
       <c r="I12">
-        <v>-7.8894441377763984E-4</v>
+        <v>-7.7712402706417449E-4</v>
       </c>
       <c r="J12">
-        <v>-1.0030493660922915E-3</v>
+        <v>-9.8281582613821334E-4</v>
       </c>
       <c r="K12">
-        <v>-1.0111761280480454E-3</v>
+        <v>-1.0098035094408813E-3</v>
       </c>
       <c r="L12">
-        <v>-1.0481810559090166E-3</v>
+        <v>-1.0230015914405623E-3</v>
       </c>
       <c r="M12">
-        <v>3.4359454965236899E-3</v>
+        <v>3.3202545724554441E-3</v>
       </c>
       <c r="N12">
-        <v>2.5396803098310253E-3</v>
+        <v>2.4516188269803649E-3</v>
       </c>
       <c r="O12">
-        <v>2.580269252685655E-3</v>
+        <v>2.5016255493899935E-3</v>
       </c>
       <c r="P12">
-        <v>2.6130016936119944E-3</v>
+        <v>2.5287766348755175E-3</v>
       </c>
       <c r="Q12">
-        <v>6.330472468298997E-6</v>
+        <v>-1.2978368691337087E-6</v>
       </c>
       <c r="R12">
-        <v>-6.0338898583817846E-5</v>
+        <v>-8.0981664222993979E-5</v>
       </c>
       <c r="S12">
-        <v>-1.3818917150069853E-5</v>
+        <v>-1.3970641263414887E-5</v>
       </c>
       <c r="T12">
-        <v>8.1753688312686905E-6</v>
+        <v>6.9801968735693312E-6</v>
       </c>
       <c r="U12">
-        <v>-9.242367634917589E-6</v>
+        <v>-7.6746281046703203E-6</v>
       </c>
       <c r="V12">
-        <v>-3.3432832530227524E-4</v>
+        <v>-3.1149609337646159E-4</v>
       </c>
       <c r="W12">
-        <v>-7.546949672663837E-5</v>
+        <v>-4.2706872057890608E-6</v>
       </c>
       <c r="X12">
-        <v>-1.1112922332562163E-4</v>
+        <v>-8.0656514025231689E-5</v>
       </c>
       <c r="Y12">
-        <v>-2.8083417839475187E-5</v>
+        <v>-2.7800393313237134E-5</v>
       </c>
       <c r="Z12">
-        <v>1.0696697418870112E-5</v>
+        <v>1.2821117983558854E-5</v>
       </c>
       <c r="AA12">
-        <v>-1.6190078418270909E-4</v>
+        <v>-1.2782646667973071E-4</v>
       </c>
       <c r="AB12">
-        <v>-9.5107067035933102E-5</v>
+        <v>-3.3165369354122955E-5</v>
       </c>
       <c r="AC12">
-        <v>-6.1650294638597707E-6</v>
+        <v>-1.2528466280805782E-5</v>
       </c>
       <c r="AD12">
-        <v>-1.2795692404729737E-4</v>
+        <v>-1.4201030477189178E-4</v>
       </c>
       <c r="AE12">
-        <v>1.3654502829658934E-5</v>
+        <v>1.1006112887670927E-5</v>
       </c>
       <c r="AF12">
-        <v>-1.1593796321971811E-4</v>
+        <v>-1.2413628066848054E-4</v>
       </c>
       <c r="AG12">
-        <v>2.4661664432381984E-5</v>
+        <v>2.976218869775644E-5</v>
       </c>
       <c r="AH12">
-        <v>-1.3174617703123068E-3</v>
+        <v>-1.3724320617802717E-3</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.45">
@@ -6369,103 +6367,103 @@
         <v>50</v>
       </c>
       <c r="B13" s="70">
-        <v>-0.78064018367481447</v>
+        <v>-0.75722477011450451</v>
       </c>
       <c r="C13">
-        <v>-8.4215857604105738E-6</v>
+        <v>3.9697457372015799E-6</v>
       </c>
       <c r="D13">
-        <v>7.8936820212382443E-8</v>
+        <v>-3.3027335558010581E-8</v>
       </c>
       <c r="E13">
-        <v>1.2705248759826103E-4</v>
+        <v>4.3672074308845262E-5</v>
       </c>
       <c r="F13">
-        <v>2.398119696087839E-4</v>
+        <v>1.8947826022181732E-4</v>
       </c>
       <c r="G13">
-        <v>-5.3054931055901265E-5</v>
+        <v>-5.643997139620602E-6</v>
       </c>
       <c r="H13">
-        <v>-4.2887486620447928E-5</v>
+        <v>2.4829981527879836E-5</v>
       </c>
       <c r="I13">
-        <v>-1.2271807913957094E-3</v>
+        <v>-1.1822229891837379E-3</v>
       </c>
       <c r="J13">
-        <v>-1.7416985691379818E-3</v>
+        <v>-1.6329652739147517E-3</v>
       </c>
       <c r="K13">
-        <v>-1.6675775553323456E-3</v>
+        <v>-1.5111016547693929E-3</v>
       </c>
       <c r="L13">
-        <v>-1.6870219587186109E-3</v>
+        <v>-1.5542461342603292E-3</v>
       </c>
       <c r="M13">
-        <v>2.5396803098310253E-3</v>
+        <v>2.4516188269803649E-3</v>
       </c>
       <c r="N13">
-        <v>3.4457439246238482E-3</v>
+        <v>3.3070381568084889E-3</v>
       </c>
       <c r="O13">
-        <v>2.8252744673325954E-3</v>
+        <v>2.6860672255666889E-3</v>
       </c>
       <c r="P13">
-        <v>2.9578319721118187E-3</v>
+        <v>2.7797780614785342E-3</v>
       </c>
       <c r="Q13">
-        <v>1.3190335539426052E-5</v>
+        <v>2.89962792681649E-5</v>
       </c>
       <c r="R13">
-        <v>-1.604833077283363E-4</v>
+        <v>-1.6161209834992342E-4</v>
       </c>
       <c r="S13">
-        <v>-1.8439227617822134E-5</v>
+        <v>-2.0564527384844192E-5</v>
       </c>
       <c r="T13">
-        <v>6.787928145872619E-6</v>
+        <v>9.8427234588177874E-6</v>
       </c>
       <c r="U13">
-        <v>3.4498398359062717E-5</v>
+        <v>3.1597300181914498E-5</v>
       </c>
       <c r="V13">
-        <v>2.0554145713218687E-4</v>
+        <v>1.091991635180095E-4</v>
       </c>
       <c r="W13">
-        <v>-1.138676432776193E-4</v>
+        <v>-8.8056535820185488E-5</v>
       </c>
       <c r="X13">
-        <v>6.4772220540824043E-5</v>
+        <v>4.8178073067467724E-5</v>
       </c>
       <c r="Y13">
-        <v>-2.2991222181661629E-5</v>
+        <v>-2.1859496404863621E-5</v>
       </c>
       <c r="Z13">
-        <v>-3.75711253710794E-6</v>
+        <v>1.5285665407818472E-6</v>
       </c>
       <c r="AA13">
-        <v>-1.4908204037283586E-4</v>
+        <v>-2.7995890706523604E-4</v>
       </c>
       <c r="AB13">
-        <v>-1.6157283575488567E-4</v>
+        <v>-2.6536812509652974E-4</v>
       </c>
       <c r="AC13">
-        <v>-5.5179043577708101E-5</v>
+        <v>-1.6758743717495495E-4</v>
       </c>
       <c r="AD13">
-        <v>-6.5385598261938631E-5</v>
+        <v>-2.0903981867523541E-4</v>
       </c>
       <c r="AE13">
-        <v>-3.9747989372203085E-6</v>
+        <v>-2.9116528500905972E-6</v>
       </c>
       <c r="AF13">
-        <v>-4.0155022366110101E-5</v>
+        <v>2.2803992437284654E-5</v>
       </c>
       <c r="AG13">
-        <v>-2.2162139681539388E-6</v>
+        <v>-1.2387882069759453E-5</v>
       </c>
       <c r="AH13">
-        <v>-9.1822288698628369E-4</v>
+        <v>-1.141858544532243E-3</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.45">
@@ -6473,103 +6471,103 @@
         <v>51</v>
       </c>
       <c r="B14" s="70">
-        <v>-0.82211479928007358</v>
+        <v>-0.83096464031523865</v>
       </c>
       <c r="C14">
-        <v>2.8296045713617382E-5</v>
+        <v>3.2671600412229496E-5</v>
       </c>
       <c r="D14">
-        <v>-1.5908093973122267E-7</v>
+        <v>-1.9399385032352942E-7</v>
       </c>
       <c r="E14">
-        <v>-3.7830487723618418E-6</v>
+        <v>-2.85680805724212E-5</v>
       </c>
       <c r="F14">
-        <v>1.4199973799395487E-4</v>
+        <v>-4.1758877894871953E-6</v>
       </c>
       <c r="G14">
-        <v>2.5396651728570635E-4</v>
+        <v>6.501387031046223E-5</v>
       </c>
       <c r="H14">
-        <v>3.6613400484894032E-4</v>
+        <v>2.0581989357294111E-4</v>
       </c>
       <c r="I14">
-        <v>-9.9842247890702526E-4</v>
+        <v>-1.0010538475288802E-3</v>
       </c>
       <c r="J14">
-        <v>-1.2432795337040295E-3</v>
+        <v>-1.2392598961549588E-3</v>
       </c>
       <c r="K14">
-        <v>-1.7701213466742652E-3</v>
+        <v>-1.8502707910762644E-3</v>
       </c>
       <c r="L14">
-        <v>-1.6490796475965019E-3</v>
+        <v>-1.6345025111063494E-3</v>
       </c>
       <c r="M14">
-        <v>2.580269252685655E-3</v>
+        <v>2.5016255493899935E-3</v>
       </c>
       <c r="N14">
-        <v>2.8252744673325954E-3</v>
+        <v>2.6860672255666889E-3</v>
       </c>
       <c r="O14">
-        <v>4.3378705104575709E-3</v>
+        <v>4.0505168009682168E-3</v>
       </c>
       <c r="P14">
-        <v>3.7143359822651885E-3</v>
+        <v>3.4196706382895285E-3</v>
       </c>
       <c r="Q14">
-        <v>-2.6656589795932156E-5</v>
+        <v>-7.71630277111353E-5</v>
       </c>
       <c r="R14">
-        <v>-2.3117426065655261E-4</v>
+        <v>-1.2674233613711413E-4</v>
       </c>
       <c r="S14">
-        <v>-3.441750476346191E-5</v>
+        <v>-3.2565576581214655E-5</v>
       </c>
       <c r="T14">
-        <v>2.9607718109094991E-5</v>
+        <v>2.6493065321645437E-5</v>
       </c>
       <c r="U14">
-        <v>1.4490255192124867E-4</v>
+        <v>1.8122380310145057E-4</v>
       </c>
       <c r="V14">
-        <v>4.1103157321447346E-4</v>
+        <v>3.946409795289988E-4</v>
       </c>
       <c r="W14">
-        <v>1.3245962183027049E-4</v>
+        <v>2.410780826163233E-4</v>
       </c>
       <c r="X14">
-        <v>6.6293018325124463E-4</v>
+        <v>5.2663053796632019E-4</v>
       </c>
       <c r="Y14">
-        <v>3.1521643648491749E-5</v>
+        <v>1.7509702035011448E-5</v>
       </c>
       <c r="Z14">
-        <v>-8.9732678647264769E-6</v>
+        <v>4.2559355300941944E-6</v>
       </c>
       <c r="AA14">
-        <v>-2.045750722288746E-4</v>
+        <v>1.4939421622887483E-5</v>
       </c>
       <c r="AB14">
-        <v>-1.2869603438934703E-4</v>
+        <v>3.2126765055617975E-5</v>
       </c>
       <c r="AC14">
-        <v>-1.6822340470483725E-4</v>
+        <v>4.2899997419893095E-5</v>
       </c>
       <c r="AD14">
-        <v>-1.2461070445251307E-4</v>
+        <v>1.5843869722385667E-5</v>
       </c>
       <c r="AE14">
-        <v>2.47164115540121E-5</v>
+        <v>7.1012706173904201E-6</v>
       </c>
       <c r="AF14">
-        <v>2.4132284635216498E-5</v>
+        <v>-1.0896007453635186E-4</v>
       </c>
       <c r="AG14">
-        <v>-2.8217193882374195E-4</v>
+        <v>-8.520051276428341E-5</v>
       </c>
       <c r="AH14">
-        <v>-3.749332041597617E-3</v>
+        <v>-3.1151133080578796E-3</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.45">
@@ -6577,103 +6575,103 @@
         <v>52</v>
       </c>
       <c r="B15" s="70">
-        <v>-0.87185626692877627</v>
+        <v>-0.82492089068206631</v>
       </c>
       <c r="C15">
-        <v>5.9136901423500945E-5</v>
+        <v>2.2512034353597797E-5</v>
       </c>
       <c r="D15">
-        <v>-2.964305804195242E-7</v>
+        <v>-4.7037346261148183E-8</v>
       </c>
       <c r="E15">
-        <v>-2.8067006957173987E-4</v>
+        <v>-1.4100266349111176E-4</v>
       </c>
       <c r="F15">
-        <v>-1.3617514280062684E-4</v>
+        <v>-8.6385957998649939E-5</v>
       </c>
       <c r="G15">
-        <v>7.2312276450992724E-4</v>
+        <v>2.976202361941381E-4</v>
       </c>
       <c r="H15">
-        <v>7.6561550506334117E-4</v>
+        <v>3.8097332562213153E-4</v>
       </c>
       <c r="I15">
-        <v>-9.225606149436624E-4</v>
+        <v>-9.3998516872271284E-4</v>
       </c>
       <c r="J15">
-        <v>-1.2467720053085506E-3</v>
+        <v>-1.2532281809948143E-3</v>
       </c>
       <c r="K15">
-        <v>-1.4587736212795495E-3</v>
+        <v>-1.4920371306559341E-3</v>
       </c>
       <c r="L15">
-        <v>-3.3724600583513713E-3</v>
+        <v>-2.8974741189362854E-3</v>
       </c>
       <c r="M15">
-        <v>2.6130016936119944E-3</v>
+        <v>2.5287766348755175E-3</v>
       </c>
       <c r="N15">
-        <v>2.9578319721118187E-3</v>
+        <v>2.7797780614785342E-3</v>
       </c>
       <c r="O15">
-        <v>3.7143359822651885E-3</v>
+        <v>3.4196706382895285E-3</v>
       </c>
       <c r="P15">
-        <v>8.9530374031869392E-3</v>
+        <v>7.5849047859585586E-3</v>
       </c>
       <c r="Q15">
-        <v>-9.1619113425373509E-5</v>
+        <v>-1.2629275553158713E-4</v>
       </c>
       <c r="R15">
-        <v>-6.2797390926814991E-4</v>
+        <v>-5.5689862965677692E-4</v>
       </c>
       <c r="S15">
-        <v>-3.8442521716761192E-5</v>
+        <v>-5.1223428051970951E-5</v>
       </c>
       <c r="T15">
-        <v>1.434756027572354E-4</v>
+        <v>-3.6441624051094016E-5</v>
       </c>
       <c r="U15">
-        <v>3.2924699047449859E-4</v>
+        <v>-1.4822743701839751E-5</v>
       </c>
       <c r="V15">
-        <v>1.2420066178323612E-3</v>
+        <v>8.0017760115612955E-4</v>
       </c>
       <c r="W15">
-        <v>4.1818508674163466E-4</v>
+        <v>2.4493959033998659E-4</v>
       </c>
       <c r="X15">
-        <v>1.0465566075211902E-3</v>
+        <v>8.2596276492063006E-4</v>
       </c>
       <c r="Y15">
-        <v>4.9041037904818167E-5</v>
+        <v>6.1832571033003272E-5</v>
       </c>
       <c r="Z15">
-        <v>8.4085532305841785E-7</v>
+        <v>-1.5028083034650328E-5</v>
       </c>
       <c r="AA15">
-        <v>-2.0623760974220959E-4</v>
+        <v>-1.0801727758468589E-4</v>
       </c>
       <c r="AB15">
-        <v>-2.2541125764109619E-4</v>
+        <v>-1.5496297960862189E-4</v>
       </c>
       <c r="AC15">
-        <v>-1.4326830704728798E-5</v>
+        <v>7.8471729095292049E-5</v>
       </c>
       <c r="AD15">
-        <v>-4.7187903728321094E-5</v>
+        <v>1.9307120090013459E-4</v>
       </c>
       <c r="AE15">
-        <v>-1.6614594938539894E-5</v>
+        <v>7.7914062958155074E-6</v>
       </c>
       <c r="AF15">
-        <v>-2.0680481290873283E-4</v>
+        <v>-3.3920400936961377E-4</v>
       </c>
       <c r="AG15">
-        <v>1.863637445891856E-5</v>
+        <v>-1.7442716534945852E-4</v>
       </c>
       <c r="AH15">
-        <v>-5.0638665291732011E-3</v>
+        <v>-3.5675029329963644E-3</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.45">
@@ -6681,103 +6679,103 @@
         <v>53</v>
       </c>
       <c r="B16" s="70">
-        <v>-5.8222739073173135E-3</v>
+        <v>-4.0188493324954961E-3</v>
       </c>
       <c r="C16">
-        <v>-3.3841978754364614E-6</v>
+        <v>-3.2130934805727678E-6</v>
       </c>
       <c r="D16">
-        <v>3.1045526160915481E-9</v>
+        <v>-1.974089090185365E-10</v>
       </c>
       <c r="E16">
-        <v>8.7500310999923526E-5</v>
+        <v>4.3682010052064859E-5</v>
       </c>
       <c r="F16">
-        <v>1.4583407741048204E-4</v>
+        <v>1.0244378153696719E-4</v>
       </c>
       <c r="G16">
-        <v>-7.9567505475591565E-5</v>
+        <v>-5.9969979071889813E-5</v>
       </c>
       <c r="H16">
-        <v>-5.6826981619013099E-5</v>
+        <v>-4.2258175668401037E-5</v>
       </c>
       <c r="I16">
-        <v>-5.0757506588386707E-5</v>
+        <v>-2.3098760115171368E-5</v>
       </c>
       <c r="J16">
-        <v>-1.9600794816590841E-5</v>
+        <v>-3.6930536173639464E-8</v>
       </c>
       <c r="K16">
-        <v>3.3461307427470779E-5</v>
+        <v>6.5872774844207048E-5</v>
       </c>
       <c r="L16">
-        <v>1.647486436587675E-4</v>
+        <v>1.5047607637167968E-4</v>
       </c>
       <c r="M16">
-        <v>6.330472468298997E-6</v>
+        <v>-1.2978368691337087E-6</v>
       </c>
       <c r="N16">
-        <v>1.3190335539426052E-5</v>
+        <v>2.89962792681649E-5</v>
       </c>
       <c r="O16">
-        <v>-2.6656589795932156E-5</v>
+        <v>-7.71630277111353E-5</v>
       </c>
       <c r="P16">
-        <v>-9.1619113425373509E-5</v>
+        <v>-1.2629275553158713E-4</v>
       </c>
       <c r="Q16">
-        <v>2.4875148774494493E-4</v>
+        <v>2.1819198972539521E-4</v>
       </c>
       <c r="R16">
-        <v>2.6191451057836531E-4</v>
+        <v>2.1632417598709929E-4</v>
       </c>
       <c r="S16">
-        <v>5.5996045766677154E-6</v>
+        <v>4.7518929029463502E-6</v>
       </c>
       <c r="T16">
-        <v>-3.0566813614631808E-5</v>
+        <v>-2.0790039805434196E-5</v>
       </c>
       <c r="U16">
-        <v>-5.1251344156893957E-5</v>
+        <v>-6.5121489740937584E-5</v>
       </c>
       <c r="V16">
-        <v>-3.8967900326035846E-6</v>
+        <v>-3.5922290652456333E-5</v>
       </c>
       <c r="W16">
-        <v>-9.0484443139840533E-5</v>
+        <v>-9.8755130161622297E-5</v>
       </c>
       <c r="X16">
-        <v>-4.886512047495228E-5</v>
+        <v>-6.3086287262443811E-5</v>
       </c>
       <c r="Y16">
-        <v>-1.5447695594184943E-5</v>
+        <v>-1.2585700865156471E-5</v>
       </c>
       <c r="Z16">
-        <v>2.0691335960087487E-6</v>
+        <v>1.9652648046822938E-6</v>
       </c>
       <c r="AA16">
-        <v>-8.1730801896684585E-5</v>
+        <v>-7.2827378468144397E-5</v>
       </c>
       <c r="AB16">
-        <v>-1.0409675418636333E-4</v>
+        <v>-9.023953440526299E-5</v>
       </c>
       <c r="AC16">
-        <v>-5.0335168300436479E-5</v>
+        <v>-5.148370937645773E-5</v>
       </c>
       <c r="AD16">
-        <v>-1.8941718426902909E-5</v>
+        <v>-1.3836442704146109E-5</v>
       </c>
       <c r="AE16">
-        <v>-1.2510496424523879E-5</v>
+        <v>-7.5466032673838067E-6</v>
       </c>
       <c r="AF16">
-        <v>3.7119725541969449E-5</v>
+        <v>1.5019664275524796E-5</v>
       </c>
       <c r="AG16">
-        <v>-1.3112245798571712E-4</v>
+        <v>-1.3792080379415822E-4</v>
       </c>
       <c r="AH16">
-        <v>4.4863334362120897E-6</v>
+        <v>1.8270359765945821E-6</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.45">
@@ -6785,103 +6783,103 @@
         <v>54</v>
       </c>
       <c r="B17" s="70">
-        <v>0.56471823707389446</v>
+        <v>0.48229709402694276</v>
       </c>
       <c r="C17">
-        <v>2.9419296485550916E-4</v>
+        <v>2.5817745953717568E-4</v>
       </c>
       <c r="D17">
-        <v>-2.3046222096160881E-6</v>
+        <v>-2.0255374812530539E-6</v>
       </c>
       <c r="E17">
-        <v>5.7018530680583493E-4</v>
+        <v>4.7858758292140878E-4</v>
       </c>
       <c r="F17">
-        <v>6.889330977031048E-4</v>
+        <v>5.0098775646748093E-4</v>
       </c>
       <c r="G17">
-        <v>-4.6379300408968724E-4</v>
+        <v>-4.6556647540855198E-4</v>
       </c>
       <c r="H17">
-        <v>-2.5859846870432602E-4</v>
+        <v>-2.9660793296972605E-4</v>
       </c>
       <c r="I17">
-        <v>-7.5542227168274591E-6</v>
+        <v>1.8747937606525147E-4</v>
       </c>
       <c r="J17">
-        <v>-9.7385842390909974E-5</v>
+        <v>1.0778077517635564E-4</v>
       </c>
       <c r="K17">
-        <v>2.4313608866212476E-4</v>
+        <v>4.6319853260861916E-4</v>
       </c>
       <c r="L17">
-        <v>1.121106671134346E-4</v>
+        <v>-5.0286351119522622E-4</v>
       </c>
       <c r="M17">
-        <v>-6.0338898583817846E-5</v>
+        <v>-8.0981664222993979E-5</v>
       </c>
       <c r="N17">
-        <v>-1.604833077283363E-4</v>
+        <v>-1.6161209834992342E-4</v>
       </c>
       <c r="O17">
-        <v>-2.3117426065655261E-4</v>
+        <v>-1.2674233613711413E-4</v>
       </c>
       <c r="P17">
-        <v>-6.2797390926814991E-4</v>
+        <v>-5.5689862965677692E-4</v>
       </c>
       <c r="Q17">
-        <v>2.6191451057836531E-4</v>
+        <v>2.1632417598709929E-4</v>
       </c>
       <c r="R17">
-        <v>2.6757907120115519E-2</v>
+        <v>2.046653607697712E-2</v>
       </c>
       <c r="S17">
-        <v>3.876726906112294E-5</v>
+        <v>2.3985608082085734E-5</v>
       </c>
       <c r="T17">
-        <v>5.6279855048996892E-4</v>
+        <v>5.98859088180598E-4</v>
       </c>
       <c r="U17">
-        <v>3.134455289346511E-4</v>
+        <v>3.4022897407430866E-4</v>
       </c>
       <c r="V17">
-        <v>1.3636567733391384E-4</v>
+        <v>2.479898379141776E-4</v>
       </c>
       <c r="W17">
-        <v>5.1756911830142948E-4</v>
+        <v>4.126891225907682E-4</v>
       </c>
       <c r="X17">
-        <v>-1.3891121681499459E-4</v>
+        <v>-9.2948401108058475E-5</v>
       </c>
       <c r="Y17">
-        <v>-3.4690519106975702E-5</v>
+        <v>-4.6587143415280417E-5</v>
       </c>
       <c r="Z17">
-        <v>-1.008649840051381E-5</v>
+        <v>-1.6928704992886698E-6</v>
       </c>
       <c r="AA17">
-        <v>4.4338354354679817E-5</v>
+        <v>1.8623031669881725E-5</v>
       </c>
       <c r="AB17">
-        <v>-1.5129768630272201E-4</v>
+        <v>-1.3419758582241376E-4</v>
       </c>
       <c r="AC17">
-        <v>-1.3075376309173645E-4</v>
+        <v>-1.3681765188567566E-4</v>
       </c>
       <c r="AD17">
-        <v>1.4015818675995541E-4</v>
+        <v>7.613306478666728E-7</v>
       </c>
       <c r="AE17">
-        <v>4.3066934023536978E-5</v>
+        <v>1.5097331941554506E-5</v>
       </c>
       <c r="AF17">
-        <v>-6.0905904574368706E-4</v>
+        <v>-3.1582469742710405E-4</v>
       </c>
       <c r="AG17">
-        <v>-6.8144503084715353E-4</v>
+        <v>-4.9257555521116598E-4</v>
       </c>
       <c r="AH17">
-        <v>-1.0321466084707387E-2</v>
+        <v>-8.6937978559884378E-3</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.45">
@@ -6889,103 +6887,103 @@
         <v>55</v>
       </c>
       <c r="B18" s="70">
-        <v>-3.2327177842983029E-3</v>
+        <v>1.1796957229839003E-3</v>
       </c>
       <c r="C18">
-        <v>2.5633928566876055E-6</v>
+        <v>2.3751036770809637E-6</v>
       </c>
       <c r="D18">
-        <v>-4.7094208002241499E-8</v>
+        <v>-4.2608927641006445E-8</v>
       </c>
       <c r="E18">
-        <v>4.6760075308740885E-5</v>
+        <v>2.3577887617712947E-5</v>
       </c>
       <c r="F18">
-        <v>3.4620119291215609E-5</v>
+        <v>1.5266993825239503E-5</v>
       </c>
       <c r="G18">
-        <v>-5.8615786363474588E-5</v>
+        <v>-2.112790700704576E-5</v>
       </c>
       <c r="H18">
-        <v>-3.0172358374069571E-5</v>
+        <v>-1.1966479145182466E-6</v>
       </c>
       <c r="I18">
-        <v>-1.8259573896848283E-5</v>
+        <v>-1.5445915320199442E-5</v>
       </c>
       <c r="J18">
-        <v>-1.1675343693499854E-5</v>
+        <v>-1.0651740204142683E-5</v>
       </c>
       <c r="K18">
-        <v>-1.0798931019500779E-5</v>
+        <v>-9.7625443386761498E-6</v>
       </c>
       <c r="L18">
-        <v>2.2576597043778554E-5</v>
+        <v>3.3569348950445894E-5</v>
       </c>
       <c r="M18">
-        <v>-1.3818917150069853E-5</v>
+        <v>-1.3970641263414887E-5</v>
       </c>
       <c r="N18">
-        <v>-1.8439227617822134E-5</v>
+        <v>-2.0564527384844192E-5</v>
       </c>
       <c r="O18">
-        <v>-3.441750476346191E-5</v>
+        <v>-3.2565576581214655E-5</v>
       </c>
       <c r="P18">
-        <v>-3.8442521716761192E-5</v>
+        <v>-5.1223428051970951E-5</v>
       </c>
       <c r="Q18">
-        <v>5.5996045766677154E-6</v>
+        <v>4.7518929029463502E-6</v>
       </c>
       <c r="R18">
-        <v>3.876726906112294E-5</v>
+        <v>2.3985608082085734E-5</v>
       </c>
       <c r="S18">
-        <v>2.1687536416917345E-5</v>
+        <v>2.0399488903526241E-5</v>
       </c>
       <c r="T18">
-        <v>4.2396857447352129E-7</v>
+        <v>-3.8592608845059451E-6</v>
       </c>
       <c r="U18">
-        <v>5.1350815797617219E-6</v>
+        <v>5.0180655081795033E-7</v>
       </c>
       <c r="V18">
-        <v>-2.1382541413972065E-5</v>
+        <v>-1.3566630065054812E-5</v>
       </c>
       <c r="W18">
-        <v>-3.7708728192999707E-5</v>
+        <v>-3.3525836897163978E-5</v>
       </c>
       <c r="X18">
-        <v>-4.6628877575454812E-5</v>
+        <v>-3.4586193474027527E-5</v>
       </c>
       <c r="Y18">
-        <v>-1.1952513030773598E-5</v>
+        <v>-9.3486774926414412E-6</v>
       </c>
       <c r="Z18">
-        <v>5.8040031785201444E-6</v>
+        <v>3.7991675654772518E-6</v>
       </c>
       <c r="AA18">
-        <v>3.2604523619233518E-5</v>
+        <v>2.1270526788667343E-5</v>
       </c>
       <c r="AB18">
-        <v>3.5671066860840958E-5</v>
+        <v>2.3417722813167612E-5</v>
       </c>
       <c r="AC18">
-        <v>2.7135692641097201E-5</v>
+        <v>1.5272075163704239E-5</v>
       </c>
       <c r="AD18">
-        <v>3.1007109102615312E-5</v>
+        <v>1.8024040442837168E-5</v>
       </c>
       <c r="AE18">
-        <v>-2.0078598903981074E-6</v>
+        <v>-9.4316531934100256E-7</v>
       </c>
       <c r="AF18">
-        <v>8.2128411874288714E-6</v>
+        <v>5.8184941599807235E-6</v>
       </c>
       <c r="AG18">
-        <v>5.8032973684906292E-6</v>
+        <v>-1.2821482748228319E-6</v>
       </c>
       <c r="AH18">
-        <v>1.7630603821852434E-4</v>
+        <v>1.3180973169653736E-4</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.45">
@@ -6993,103 +6991,103 @@
         <v>20</v>
       </c>
       <c r="B19" s="70">
-        <v>3.5676353225227206E-2</v>
+        <v>3.8799807496662522E-2</v>
       </c>
       <c r="C19">
-        <v>7.3165802890925519E-5</v>
+        <v>5.7401615206956858E-5</v>
       </c>
       <c r="D19">
-        <v>-4.1277191745275518E-7</v>
+        <v>-3.0772779988045218E-7</v>
       </c>
       <c r="E19">
-        <v>1.4444498153663569E-4</v>
+        <v>1.6218335483003416E-4</v>
       </c>
       <c r="F19">
-        <v>-1.6782328010741198E-5</v>
+        <v>3.0988392052633409E-5</v>
       </c>
       <c r="G19">
-        <v>2.1545861169520119E-4</v>
+        <v>3.1056415965956946E-5</v>
       </c>
       <c r="H19">
-        <v>3.6326413501252804E-4</v>
+        <v>1.2198617316137106E-4</v>
       </c>
       <c r="I19">
-        <v>8.6510357517853142E-5</v>
+        <v>7.7629619200562201E-5</v>
       </c>
       <c r="J19">
-        <v>1.106411056956524E-4</v>
+        <v>1.039374008810339E-4</v>
       </c>
       <c r="K19">
-        <v>-4.5384765312049937E-5</v>
+        <v>3.9267089378509316E-5</v>
       </c>
       <c r="L19">
-        <v>-3.3938172670081295E-4</v>
+        <v>-2.5552679426246901E-4</v>
       </c>
       <c r="M19">
-        <v>8.1753688312686905E-6</v>
+        <v>6.9801968735693312E-6</v>
       </c>
       <c r="N19">
-        <v>6.787928145872619E-6</v>
+        <v>9.8427234588177874E-6</v>
       </c>
       <c r="O19">
-        <v>2.9607718109094991E-5</v>
+        <v>2.6493065321645437E-5</v>
       </c>
       <c r="P19">
-        <v>1.434756027572354E-4</v>
+        <v>-3.6441624051094016E-5</v>
       </c>
       <c r="Q19">
-        <v>-3.0566813614631808E-5</v>
+        <v>-2.0790039805434196E-5</v>
       </c>
       <c r="R19">
-        <v>5.6279855048996892E-4</v>
+        <v>5.98859088180598E-4</v>
       </c>
       <c r="S19">
-        <v>4.2396857447352129E-7</v>
+        <v>-3.8592608845059451E-6</v>
       </c>
       <c r="T19">
-        <v>9.0175154787297779E-4</v>
+        <v>7.1779302141448422E-4</v>
       </c>
       <c r="U19">
-        <v>-1.3385558302256517E-4</v>
+        <v>-1.027827461017303E-4</v>
       </c>
       <c r="V19">
-        <v>-3.2058109437211528E-5</v>
+        <v>-2.8648534535752102E-5</v>
       </c>
       <c r="W19">
-        <v>-2.3576539066741457E-4</v>
+        <v>-1.2939896172501513E-4</v>
       </c>
       <c r="X19">
-        <v>6.5692168291344951E-5</v>
+        <v>1.9496021394593756E-5</v>
       </c>
       <c r="Y19">
-        <v>4.4025672389670634E-5</v>
+        <v>2.522813839255082E-5</v>
       </c>
       <c r="Z19">
-        <v>5.1940387761415907E-6</v>
+        <v>1.1604270832717418E-5</v>
       </c>
       <c r="AA19">
-        <v>5.5670702948816303E-5</v>
+        <v>5.0493887201412792E-6</v>
       </c>
       <c r="AB19">
-        <v>6.1433580110712024E-5</v>
+        <v>-5.8221526910926793E-6</v>
       </c>
       <c r="AC19">
-        <v>1.0455894206985099E-4</v>
+        <v>4.0665460221011532E-5</v>
       </c>
       <c r="AD19">
-        <v>3.6102671589986627E-5</v>
+        <v>-4.2263331776033525E-5</v>
       </c>
       <c r="AE19">
-        <v>1.1372831309129376E-5</v>
+        <v>-4.6642829834525021E-6</v>
       </c>
       <c r="AF19">
-        <v>-2.4070003922243042E-4</v>
+        <v>-1.0834211489452471E-4</v>
       </c>
       <c r="AG19">
-        <v>-1.2169663663915038E-4</v>
+        <v>-2.1186082700366165E-5</v>
       </c>
       <c r="AH19">
-        <v>-3.7046668356851549E-3</v>
+        <v>-2.6342556162728507E-3</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.45">
@@ -7097,103 +7095,103 @@
         <v>34</v>
       </c>
       <c r="B20" s="70">
-        <v>-7.1172276868445308E-2</v>
+        <v>-0.13301360320441377</v>
       </c>
       <c r="C20">
-        <v>2.5842844814040716E-4</v>
+        <v>2.0160750188423675E-4</v>
       </c>
       <c r="D20">
-        <v>-2.0204332204282353E-6</v>
+        <v>-1.5813415809519152E-6</v>
       </c>
       <c r="E20">
-        <v>5.108015977019916E-4</v>
+        <v>4.1621732133478618E-4</v>
       </c>
       <c r="F20">
-        <v>6.4577430983481156E-4</v>
+        <v>5.086723192775812E-4</v>
       </c>
       <c r="G20">
-        <v>1.079811979597118E-4</v>
+        <v>2.856319318202084E-5</v>
       </c>
       <c r="H20">
-        <v>-8.2222032369255564E-5</v>
+        <v>-1.3437619026084209E-4</v>
       </c>
       <c r="I20">
-        <v>2.9141184851479932E-5</v>
+        <v>3.021791978141241E-6</v>
       </c>
       <c r="J20">
-        <v>-1.7839299450770891E-5</v>
+        <v>-1.1470995514266044E-5</v>
       </c>
       <c r="K20">
-        <v>8.6193939349713282E-5</v>
+        <v>6.5962516654398222E-5</v>
       </c>
       <c r="L20">
-        <v>-1.5259993312065844E-4</v>
+        <v>-3.3609451502693852E-4</v>
       </c>
       <c r="M20">
-        <v>-9.242367634917589E-6</v>
+        <v>-7.6746281046703203E-6</v>
       </c>
       <c r="N20">
-        <v>3.4498398359062717E-5</v>
+        <v>3.1597300181914498E-5</v>
       </c>
       <c r="O20">
-        <v>1.4490255192124867E-4</v>
+        <v>1.8122380310145057E-4</v>
       </c>
       <c r="P20">
-        <v>3.2924699047449859E-4</v>
+        <v>-1.4822743701839751E-5</v>
       </c>
       <c r="Q20">
-        <v>-5.1251344156893957E-5</v>
+        <v>-6.5121489740937584E-5</v>
       </c>
       <c r="R20">
-        <v>3.134455289346511E-4</v>
+        <v>3.4022897407430866E-4</v>
       </c>
       <c r="S20">
-        <v>5.1350815797617219E-6</v>
+        <v>5.0180655081795033E-7</v>
       </c>
       <c r="T20">
-        <v>-1.3385558302256517E-4</v>
+        <v>-1.027827461017303E-4</v>
       </c>
       <c r="U20">
-        <v>6.2623187822241876E-3</v>
+        <v>5.3131667867576211E-3</v>
       </c>
       <c r="V20">
-        <v>-2.4091819155335555E-4</v>
+        <v>-9.9009534499861038E-5</v>
       </c>
       <c r="W20">
-        <v>-6.4729492356548806E-4</v>
+        <v>-4.8713810560364835E-4</v>
       </c>
       <c r="X20">
-        <v>-5.2633882661253005E-4</v>
+        <v>-4.4309574003856332E-4</v>
       </c>
       <c r="Y20">
-        <v>-5.0787351305825061E-5</v>
+        <v>-5.6360767100958881E-5</v>
       </c>
       <c r="Z20">
-        <v>3.6566719097777338E-5</v>
+        <v>2.7258474336605966E-5</v>
       </c>
       <c r="AA20">
-        <v>1.4533854267007604E-4</v>
+        <v>1.1713627276073923E-4</v>
       </c>
       <c r="AB20">
-        <v>-9.8977506102957812E-5</v>
+        <v>-4.2524495911597108E-6</v>
       </c>
       <c r="AC20">
-        <v>1.5752823296774415E-4</v>
+        <v>3.2516228266427777E-4</v>
       </c>
       <c r="AD20">
-        <v>2.0170640622974804E-4</v>
+        <v>9.9755815308595467E-5</v>
       </c>
       <c r="AE20">
-        <v>-5.5975157163402455E-6</v>
+        <v>-2.0559400597197901E-5</v>
       </c>
       <c r="AF20">
-        <v>1.140321608239243E-4</v>
+        <v>1.8228789421250368E-4</v>
       </c>
       <c r="AG20">
-        <v>7.6601486753946103E-5</v>
+        <v>1.1972898327516999E-4</v>
       </c>
       <c r="AH20">
-        <v>-7.9830955202576659E-3</v>
+        <v>-5.8164010782282283E-3</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.45">
@@ -7201,103 +7199,103 @@
         <v>56</v>
       </c>
       <c r="B21" s="70">
-        <v>0.30384041980502863</v>
+        <v>0.22549848389276073</v>
       </c>
       <c r="C21">
-        <v>-1.019910618028241E-4</v>
+        <v>-8.0301543213293861E-5</v>
       </c>
       <c r="D21">
-        <v>9.360004001487557E-7</v>
+        <v>7.6260806998332103E-7</v>
       </c>
       <c r="E21">
-        <v>-7.0396947513200463E-4</v>
+        <v>-4.2905062022221657E-4</v>
       </c>
       <c r="F21">
-        <v>-9.0669195419038463E-4</v>
+        <v>-6.5843084379327049E-4</v>
       </c>
       <c r="G21">
-        <v>1.0380942255241003E-3</v>
+        <v>6.9908739526200058E-4</v>
       </c>
       <c r="H21">
-        <v>1.0359243020726682E-3</v>
+        <v>7.4653402797510084E-4</v>
       </c>
       <c r="I21">
-        <v>5.3318286867863347E-5</v>
+        <v>1.3131558112083452E-5</v>
       </c>
       <c r="J21">
-        <v>2.3883781165199951E-5</v>
+        <v>1.025313310076887E-4</v>
       </c>
       <c r="K21">
-        <v>-2.351927279367603E-4</v>
+        <v>-2.2303042085283786E-4</v>
       </c>
       <c r="L21">
-        <v>-5.3284161107704751E-4</v>
+        <v>-2.2204024396257883E-4</v>
       </c>
       <c r="M21">
-        <v>-3.3432832530227524E-4</v>
+        <v>-3.1149609337646159E-4</v>
       </c>
       <c r="N21">
-        <v>2.0554145713218687E-4</v>
+        <v>1.091991635180095E-4</v>
       </c>
       <c r="O21">
-        <v>4.1103157321447346E-4</v>
+        <v>3.946409795289988E-4</v>
       </c>
       <c r="P21">
-        <v>1.2420066178323612E-3</v>
+        <v>8.0017760115612955E-4</v>
       </c>
       <c r="Q21">
-        <v>-3.8967900326035846E-6</v>
+        <v>-3.5922290652456333E-5</v>
       </c>
       <c r="R21">
-        <v>1.3636567733391384E-4</v>
+        <v>2.479898379141776E-4</v>
       </c>
       <c r="S21">
-        <v>-2.1382541413972065E-5</v>
+        <v>-1.3566630065054812E-5</v>
       </c>
       <c r="T21">
-        <v>-3.2058109437211528E-5</v>
+        <v>-2.8648534535752102E-5</v>
       </c>
       <c r="U21">
-        <v>-2.4091819155335555E-4</v>
+        <v>-9.9009534499861038E-5</v>
       </c>
       <c r="V21">
-        <v>6.6559273423613769E-3</v>
+        <v>5.9707368021207092E-3</v>
       </c>
       <c r="W21">
-        <v>1.1402657835890852E-3</v>
+        <v>7.2793274180673066E-4</v>
       </c>
       <c r="X21">
-        <v>4.234360843515631E-3</v>
+        <v>3.5934284574858214E-3</v>
       </c>
       <c r="Y21">
-        <v>4.6172688840516452E-4</v>
+        <v>4.211262684231952E-4</v>
       </c>
       <c r="Z21">
-        <v>-4.7314925028799011E-4</v>
+        <v>-4.3907639964783896E-4</v>
       </c>
       <c r="AA21">
-        <v>-9.2517896262819246E-5</v>
+        <v>4.2023600701277647E-5</v>
       </c>
       <c r="AB21">
-        <v>-2.6037447063991957E-4</v>
+        <v>-1.9384885007807493E-5</v>
       </c>
       <c r="AC21">
-        <v>4.298153227218042E-5</v>
+        <v>1.920063038279102E-4</v>
       </c>
       <c r="AD21">
-        <v>5.5501164737366282E-5</v>
+        <v>1.5684943704298779E-4</v>
       </c>
       <c r="AE21">
-        <v>1.2124318516316134E-5</v>
+        <v>-1.7461813923905014E-6</v>
       </c>
       <c r="AF21">
-        <v>-3.4952500046115135E-4</v>
+        <v>-1.8833673290542279E-4</v>
       </c>
       <c r="AG21">
-        <v>-2.9733270406017082E-4</v>
+        <v>-9.7896748364260412E-5</v>
       </c>
       <c r="AH21">
-        <v>-2.4895861864870188E-3</v>
+        <v>-2.2445468882269165E-3</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.45">
@@ -7305,103 +7303,103 @@
         <v>57</v>
       </c>
       <c r="B22" s="70">
-        <v>7.0102882553187404E-2</v>
+        <v>3.5951722657701787E-2</v>
       </c>
       <c r="C22">
-        <v>-6.9967476581933127E-5</v>
+        <v>-3.3237686588919528E-5</v>
       </c>
       <c r="D22">
-        <v>4.7625244445155492E-7</v>
+        <v>2.0735588201544661E-7</v>
       </c>
       <c r="E22">
-        <v>-1.0263865793513488E-3</v>
+        <v>-7.2067777670717999E-4</v>
       </c>
       <c r="F22">
-        <v>-8.8339806734055173E-4</v>
+        <v>-6.6739867523443882E-4</v>
       </c>
       <c r="G22">
-        <v>9.4249604615810048E-4</v>
+        <v>6.4794466962815665E-4</v>
       </c>
       <c r="H22">
-        <v>7.3576268697854495E-4</v>
+        <v>4.847160538450629E-4</v>
       </c>
       <c r="I22">
-        <v>-6.6023900353242779E-4</v>
+        <v>-4.817125354114795E-4</v>
       </c>
       <c r="J22">
-        <v>-5.6389533861264283E-4</v>
+        <v>-4.7958057456351483E-4</v>
       </c>
       <c r="K22">
-        <v>-7.867910338259156E-4</v>
+        <v>-7.3286644225640726E-4</v>
       </c>
       <c r="L22">
-        <v>-1.3678459231161188E-3</v>
+        <v>-1.0143009496531143E-3</v>
       </c>
       <c r="M22">
-        <v>-7.546949672663837E-5</v>
+        <v>-4.2706872057890608E-6</v>
       </c>
       <c r="N22">
-        <v>-1.138676432776193E-4</v>
+        <v>-8.8056535820185488E-5</v>
       </c>
       <c r="O22">
-        <v>1.3245962183027049E-4</v>
+        <v>2.410780826163233E-4</v>
       </c>
       <c r="P22">
-        <v>4.1818508674163466E-4</v>
+        <v>2.4493959033998659E-4</v>
       </c>
       <c r="Q22">
-        <v>-9.0484443139840533E-5</v>
+        <v>-9.8755130161622297E-5</v>
       </c>
       <c r="R22">
-        <v>5.1756911830142948E-4</v>
+        <v>4.126891225907682E-4</v>
       </c>
       <c r="S22">
-        <v>-3.7708728192999707E-5</v>
+        <v>-3.3525836897163978E-5</v>
       </c>
       <c r="T22">
-        <v>-2.3576539066741457E-4</v>
+        <v>-1.2939896172501513E-4</v>
       </c>
       <c r="U22">
-        <v>-6.4729492356548806E-4</v>
+        <v>-4.8713810560364835E-4</v>
       </c>
       <c r="V22">
-        <v>1.1402657835890852E-3</v>
+        <v>7.2793274180673066E-4</v>
       </c>
       <c r="W22">
-        <v>4.8622578808671119E-3</v>
+        <v>3.8252854624391333E-3</v>
       </c>
       <c r="X22">
-        <v>3.3289915180106057E-3</v>
+        <v>2.5726026683438731E-3</v>
       </c>
       <c r="Y22">
-        <v>3.1767907364209792E-4</v>
+        <v>2.5603488703031371E-4</v>
       </c>
       <c r="Z22">
-        <v>-9.8707711516392749E-6</v>
+        <v>3.081876453887988E-6</v>
       </c>
       <c r="AA22">
-        <v>-3.5995885020704004E-4</v>
+        <v>-3.0150106575916387E-4</v>
       </c>
       <c r="AB22">
-        <v>-3.7366057112976593E-4</v>
+        <v>-1.6623455903463219E-4</v>
       </c>
       <c r="AC22">
-        <v>-4.2258071679987953E-4</v>
+        <v>-3.1909461402227423E-4</v>
       </c>
       <c r="AD22">
-        <v>-3.8848541532100127E-4</v>
+        <v>-3.1198957522855699E-4</v>
       </c>
       <c r="AE22">
-        <v>4.8947954631227371E-5</v>
+        <v>2.7053843301247206E-5</v>
       </c>
       <c r="AF22">
-        <v>-4.0565321277931339E-4</v>
+        <v>-2.3692626017385088E-4</v>
       </c>
       <c r="AG22">
-        <v>-3.1911219616083267E-4</v>
+        <v>-1.1728150594056581E-4</v>
       </c>
       <c r="AH22">
-        <v>-4.853003301963499E-4</v>
+        <v>-7.7890607165371291E-4</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.45">
@@ -7409,103 +7407,103 @@
         <v>58</v>
       </c>
       <c r="B23" s="70">
-        <v>0.30526805258129025</v>
+        <v>0.27073339861956758</v>
       </c>
       <c r="C23">
-        <v>-5.0026104955194924E-5</v>
+        <v>-3.3240630011531686E-5</v>
       </c>
       <c r="D23">
-        <v>8.6483732848455753E-8</v>
+        <v>-5.5469449500260378E-8</v>
       </c>
       <c r="E23">
-        <v>-1.4202124782104503E-3</v>
+        <v>-9.5758375514419839E-4</v>
       </c>
       <c r="F23">
-        <v>-1.4456451495670655E-3</v>
+        <v>-9.9627315929907805E-4</v>
       </c>
       <c r="G23">
-        <v>1.726045388539638E-3</v>
+        <v>1.2935488076916417E-3</v>
       </c>
       <c r="H23">
-        <v>1.6364574423033858E-3</v>
+        <v>1.2667973619605044E-3</v>
       </c>
       <c r="I23">
-        <v>1.3188249615194185E-4</v>
+        <v>2.5261462699567409E-5</v>
       </c>
       <c r="J23">
-        <v>2.631292020529169E-4</v>
+        <v>3.0920888123562792E-4</v>
       </c>
       <c r="K23">
-        <v>-1.8681004764557882E-4</v>
+        <v>-1.3690761186020911E-4</v>
       </c>
       <c r="L23">
-        <v>-1.0811003116257358E-3</v>
+        <v>-5.2847350649478904E-4</v>
       </c>
       <c r="M23">
-        <v>-1.1112922332562163E-4</v>
+        <v>-8.0656514025231689E-5</v>
       </c>
       <c r="N23">
-        <v>6.4772220540824043E-5</v>
+        <v>4.8178073067467724E-5</v>
       </c>
       <c r="O23">
-        <v>6.6293018325124463E-4</v>
+        <v>5.2663053796632019E-4</v>
       </c>
       <c r="P23">
-        <v>1.0465566075211902E-3</v>
+        <v>8.2596276492063006E-4</v>
       </c>
       <c r="Q23">
-        <v>-4.886512047495228E-5</v>
+        <v>-6.3086287262443811E-5</v>
       </c>
       <c r="R23">
-        <v>-1.3891121681499459E-4</v>
+        <v>-9.2948401108058475E-5</v>
       </c>
       <c r="S23">
-        <v>-4.6628877575454812E-5</v>
+        <v>-3.4586193474027527E-5</v>
       </c>
       <c r="T23">
-        <v>6.5692168291344951E-5</v>
+        <v>1.9496021394593756E-5</v>
       </c>
       <c r="U23">
-        <v>-5.2633882661253005E-4</v>
+        <v>-4.4309574003856332E-4</v>
       </c>
       <c r="V23">
-        <v>4.234360843515631E-3</v>
+        <v>3.5934284574858214E-3</v>
       </c>
       <c r="W23">
-        <v>3.3289915180106057E-3</v>
+        <v>2.5726026683438731E-3</v>
       </c>
       <c r="X23">
-        <v>8.2958697673256414E-3</v>
+        <v>7.3204624368549808E-3</v>
       </c>
       <c r="Y23">
-        <v>8.854483996354744E-4</v>
+        <v>7.9506014704669274E-4</v>
       </c>
       <c r="Z23">
-        <v>-4.5801481422624564E-4</v>
+        <v>-4.2703203160031214E-4</v>
       </c>
       <c r="AA23">
-        <v>-7.3423417940297084E-4</v>
+        <v>-5.4774275036180236E-4</v>
       </c>
       <c r="AB23">
-        <v>-1.1780698906125242E-3</v>
+        <v>-8.7266525319701132E-4</v>
       </c>
       <c r="AC23">
-        <v>-6.4213858465588664E-4</v>
+        <v>-4.6955897287717825E-4</v>
       </c>
       <c r="AD23">
-        <v>-7.2281253338427227E-4</v>
+        <v>-5.0622896550488379E-4</v>
       </c>
       <c r="AE23">
-        <v>7.4008589760472609E-5</v>
+        <v>6.8713869018981102E-5</v>
       </c>
       <c r="AF23">
-        <v>-6.4059410842310597E-4</v>
+        <v>-4.6085400191797057E-4</v>
       </c>
       <c r="AG23">
-        <v>-5.9835219704650489E-4</v>
+        <v>-4.4298272233866433E-4</v>
       </c>
       <c r="AH23">
-        <v>-6.293511212937513E-3</v>
+        <v>-5.8403823299051534E-3</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
@@ -7513,103 +7511,103 @@
         <v>59</v>
       </c>
       <c r="B24" s="70">
-        <v>2.1302066676578975E-2</v>
+        <v>2.3334481126873419E-2</v>
       </c>
       <c r="C24">
-        <v>-8.3829536879142732E-6</v>
+        <v>-1.2251409094043744E-5</v>
       </c>
       <c r="D24">
-        <v>1.319171438326068E-7</v>
+        <v>1.5156777573398513E-7</v>
       </c>
       <c r="E24">
-        <v>-1.2078801774345587E-4</v>
+        <v>-6.1470130723912143E-5</v>
       </c>
       <c r="F24">
-        <v>-1.496177434298762E-4</v>
+        <v>-7.8759877183033752E-5</v>
       </c>
       <c r="G24">
-        <v>2.8805882396136371E-4</v>
+        <v>2.2984521842928524E-4</v>
       </c>
       <c r="H24">
-        <v>2.833500081692162E-4</v>
+        <v>2.2934587085191233E-4</v>
       </c>
       <c r="I24">
-        <v>-1.4417266699757027E-5</v>
+        <v>-1.7648585330074385E-5</v>
       </c>
       <c r="J24">
-        <v>2.8057980118393407E-5</v>
+        <v>3.6772744930903115E-5</v>
       </c>
       <c r="K24">
-        <v>-6.7982775360260711E-5</v>
+        <v>-4.1001680116000284E-5</v>
       </c>
       <c r="L24">
-        <v>-2.2719831484950277E-4</v>
+        <v>-1.4355567821228594E-4</v>
       </c>
       <c r="M24">
-        <v>-2.8083417839475187E-5</v>
+        <v>-2.7800393313237134E-5</v>
       </c>
       <c r="N24">
-        <v>-2.2991222181661629E-5</v>
+        <v>-2.1859496404863621E-5</v>
       </c>
       <c r="O24">
-        <v>3.1521643648491749E-5</v>
+        <v>1.7509702035011448E-5</v>
       </c>
       <c r="P24">
-        <v>4.9041037904818167E-5</v>
+        <v>6.1832571033003272E-5</v>
       </c>
       <c r="Q24">
-        <v>-1.5447695594184943E-5</v>
+        <v>-1.2585700865156471E-5</v>
       </c>
       <c r="R24">
-        <v>-3.4690519106975702E-5</v>
+        <v>-4.6587143415280417E-5</v>
       </c>
       <c r="S24">
-        <v>-1.1952513030773598E-5</v>
+        <v>-9.3486774926414412E-6</v>
       </c>
       <c r="T24">
-        <v>4.4025672389670634E-5</v>
+        <v>2.522813839255082E-5</v>
       </c>
       <c r="U24">
-        <v>-5.0787351305825061E-5</v>
+        <v>-5.6360767100958881E-5</v>
       </c>
       <c r="V24">
-        <v>4.6172688840516452E-4</v>
+        <v>4.211262684231952E-4</v>
       </c>
       <c r="W24">
-        <v>3.1767907364209792E-4</v>
+        <v>2.5603488703031371E-4</v>
       </c>
       <c r="X24">
-        <v>8.854483996354744E-4</v>
+        <v>7.9506014704669274E-4</v>
       </c>
       <c r="Y24">
-        <v>1.6779648944408525E-4</v>
+        <v>1.496968792064256E-4</v>
       </c>
       <c r="Z24">
-        <v>-8.688157995252235E-5</v>
+        <v>-8.0527164848242245E-5</v>
       </c>
       <c r="AA24">
-        <v>-1.0099912577276151E-4</v>
+        <v>-8.1801108243617084E-5</v>
       </c>
       <c r="AB24">
-        <v>-1.3037919600305501E-4</v>
+        <v>-1.1274572037530764E-4</v>
       </c>
       <c r="AC24">
-        <v>-8.270956919051686E-5</v>
+        <v>-7.1917570666260892E-5</v>
       </c>
       <c r="AD24">
-        <v>-8.9827344707526038E-5</v>
+        <v>-7.1237743002400906E-5</v>
       </c>
       <c r="AE24">
-        <v>7.7810452578029159E-6</v>
+        <v>7.9621166745354939E-6</v>
       </c>
       <c r="AF24">
-        <v>-1.5365945060110496E-4</v>
+        <v>-1.3334407318809998E-4</v>
       </c>
       <c r="AG24">
-        <v>-8.8552924653571526E-5</v>
+        <v>-7.8100387000791549E-5</v>
       </c>
       <c r="AH24">
-        <v>-1.1827215744155287E-3</v>
+        <v>-9.4669001743513128E-4</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.45">
@@ -7617,103 +7615,103 @@
         <v>60</v>
       </c>
       <c r="B25" s="70">
-        <v>-7.2594692541402732E-3</v>
+        <v>-6.8669162197302963E-3</v>
       </c>
       <c r="C25">
-        <v>3.6139074672553596E-6</v>
+        <v>5.8910565372704047E-6</v>
       </c>
       <c r="D25">
-        <v>-6.3005054347181637E-8</v>
+        <v>-7.540478761750486E-8</v>
       </c>
       <c r="E25">
-        <v>6.6281016307092528E-5</v>
+        <v>3.506367697943599E-5</v>
       </c>
       <c r="F25">
-        <v>9.5936418989351512E-5</v>
+        <v>5.6232362050062076E-5</v>
       </c>
       <c r="G25">
-        <v>-1.3313796317861035E-4</v>
+        <v>-1.1404828278571537E-4</v>
       </c>
       <c r="H25">
-        <v>-1.355448590404723E-4</v>
+        <v>-1.1925119720454241E-4</v>
       </c>
       <c r="I25">
-        <v>-5.7720722002652146E-6</v>
+        <v>-2.9265044842706478E-6</v>
       </c>
       <c r="J25">
-        <v>-3.251663263839638E-5</v>
+        <v>-3.8603895839080336E-5</v>
       </c>
       <c r="K25">
-        <v>2.4161435005324488E-5</v>
+        <v>8.8604117683435636E-6</v>
       </c>
       <c r="L25">
-        <v>1.9607407569884787E-5</v>
+        <v>2.5879003309921809E-6</v>
       </c>
       <c r="M25">
-        <v>1.0696697418870112E-5</v>
+        <v>1.2821117983558854E-5</v>
       </c>
       <c r="N25">
-        <v>-3.75711253710794E-6</v>
+        <v>1.5285665407818472E-6</v>
       </c>
       <c r="O25">
-        <v>-8.9732678647264769E-6</v>
+        <v>4.2559355300941944E-6</v>
       </c>
       <c r="P25">
-        <v>8.4085532305841785E-7</v>
+        <v>-1.5028083034650328E-5</v>
       </c>
       <c r="Q25">
-        <v>2.0691335960087487E-6</v>
+        <v>1.9652648046822938E-6</v>
       </c>
       <c r="R25">
-        <v>-1.008649840051381E-5</v>
+        <v>-1.6928704992886698E-6</v>
       </c>
       <c r="S25">
-        <v>5.8040031785201444E-6</v>
+        <v>3.7991675654772518E-6</v>
       </c>
       <c r="T25">
-        <v>5.1940387761415907E-6</v>
+        <v>1.1604270832717418E-5</v>
       </c>
       <c r="U25">
-        <v>3.6566719097777338E-5</v>
+        <v>2.7258474336605966E-5</v>
       </c>
       <c r="V25">
-        <v>-4.7314925028799011E-4</v>
+        <v>-4.3907639964783896E-4</v>
       </c>
       <c r="W25">
-        <v>-9.8707711516392749E-6</v>
+        <v>3.081876453887988E-6</v>
       </c>
       <c r="X25">
-        <v>-4.5801481422624564E-4</v>
+        <v>-4.2703203160031214E-4</v>
       </c>
       <c r="Y25">
-        <v>-8.688157995252235E-5</v>
+        <v>-8.0527164848242245E-5</v>
       </c>
       <c r="Z25">
-        <v>8.2472510860742251E-5</v>
+        <v>7.7273559033112909E-5</v>
       </c>
       <c r="AA25">
-        <v>5.0061109705107229E-5</v>
+        <v>3.5871283308996579E-5</v>
       </c>
       <c r="AB25">
-        <v>5.0923998515487281E-5</v>
+        <v>3.3303793297122819E-5</v>
       </c>
       <c r="AC25">
-        <v>3.4349323684473192E-5</v>
+        <v>2.5053450608593413E-5</v>
       </c>
       <c r="AD25">
-        <v>3.9732504533135192E-5</v>
+        <v>2.9659351952490286E-5</v>
       </c>
       <c r="AE25">
-        <v>-2.6563553739833073E-6</v>
+        <v>-2.8009293480607474E-6</v>
       </c>
       <c r="AF25">
-        <v>6.4503070225794136E-5</v>
+        <v>4.9398993556308973E-5</v>
       </c>
       <c r="AG25">
-        <v>4.8890559147340897E-5</v>
+        <v>3.9474381056132024E-5</v>
       </c>
       <c r="AH25">
-        <v>6.4551119460572279E-4</v>
+        <v>5.3883776651590838E-4</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.45">
@@ -7721,103 +7719,103 @@
         <v>61</v>
       </c>
       <c r="B26" s="70">
-        <v>-5.7920466725692801E-3</v>
+        <v>-1.2427822121155797E-3</v>
       </c>
       <c r="C26">
-        <v>-3.524000945359651E-6</v>
+        <v>-1.1140137744877548E-5</v>
       </c>
       <c r="D26">
-        <v>8.4997844054788044E-8</v>
+        <v>1.4514709808537336E-7</v>
       </c>
       <c r="E26">
-        <v>3.0224247379015824E-4</v>
+        <v>2.1366900124756086E-4</v>
       </c>
       <c r="F26">
-        <v>-1.6774759903172699E-4</v>
+        <v>-1.5950974376013785E-4</v>
       </c>
       <c r="G26">
-        <v>-7.4227361517208699E-5</v>
+        <v>-9.9598573771554253E-5</v>
       </c>
       <c r="H26">
-        <v>-3.5966263156068565E-5</v>
+        <v>-4.585312367051187E-5</v>
       </c>
       <c r="I26">
-        <v>5.4004727333365268E-5</v>
+        <v>-4.475556181929817E-5</v>
       </c>
       <c r="J26">
-        <v>-5.1172596402682818E-5</v>
+        <v>-3.9656065016181134E-5</v>
       </c>
       <c r="K26">
-        <v>1.3978328911809241E-5</v>
+        <v>-6.3150755855945206E-5</v>
       </c>
       <c r="L26">
-        <v>3.065308740866652E-5</v>
+        <v>5.8024073059764238E-5</v>
       </c>
       <c r="M26">
-        <v>-1.6190078418270909E-4</v>
+        <v>-1.2782646667973071E-4</v>
       </c>
       <c r="N26">
-        <v>-1.4908204037283586E-4</v>
+        <v>-2.7995890706523604E-4</v>
       </c>
       <c r="O26">
-        <v>-2.045750722288746E-4</v>
+        <v>1.4939421622887483E-5</v>
       </c>
       <c r="P26">
-        <v>-2.0623760974220959E-4</v>
+        <v>-1.0801727758468589E-4</v>
       </c>
       <c r="Q26">
-        <v>-8.1730801896684585E-5</v>
+        <v>-7.2827378468144397E-5</v>
       </c>
       <c r="R26">
-        <v>4.4338354354679817E-5</v>
+        <v>1.8623031669881725E-5</v>
       </c>
       <c r="S26">
-        <v>3.2604523619233518E-5</v>
+        <v>2.1270526788667343E-5</v>
       </c>
       <c r="T26">
-        <v>5.5670702948816303E-5</v>
+        <v>5.0493887201412792E-6</v>
       </c>
       <c r="U26">
-        <v>1.4533854267007604E-4</v>
+        <v>1.1713627276073923E-4</v>
       </c>
       <c r="V26">
-        <v>-9.2517896262819246E-5</v>
+        <v>4.2023600701277647E-5</v>
       </c>
       <c r="W26">
-        <v>-3.5995885020704004E-4</v>
+        <v>-3.0150106575916387E-4</v>
       </c>
       <c r="X26">
-        <v>-7.3423417940297084E-4</v>
+        <v>-5.4774275036180236E-4</v>
       </c>
       <c r="Y26">
-        <v>-1.0099912577276151E-4</v>
+        <v>-8.1801108243617084E-5</v>
       </c>
       <c r="Z26">
-        <v>5.0061109705107229E-5</v>
+        <v>3.5871283308996579E-5</v>
       </c>
       <c r="AA26">
-        <v>2.9634114037798034E-3</v>
+        <v>2.567930223907318E-3</v>
       </c>
       <c r="AB26">
-        <v>1.615735566332056E-3</v>
+        <v>1.3770973845855018E-3</v>
       </c>
       <c r="AC26">
-        <v>1.6462496162003789E-3</v>
+        <v>1.4050876128098399E-3</v>
       </c>
       <c r="AD26">
-        <v>1.6199718550837143E-3</v>
+        <v>1.3905311593803184E-3</v>
       </c>
       <c r="AE26">
-        <v>-1.987308849077186E-5</v>
+        <v>-2.7633612751578167E-5</v>
       </c>
       <c r="AF26">
-        <v>-2.9271589814263002E-4</v>
+        <v>-1.7942107244471784E-4</v>
       </c>
       <c r="AG26">
-        <v>2.2687704658370337E-4</v>
+        <v>2.3981080752719097E-4</v>
       </c>
       <c r="AH26">
-        <v>-3.0749224837095502E-4</v>
+        <v>1.3053850831251776E-4</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.45">
@@ -7825,103 +7823,103 @@
         <v>62</v>
       </c>
       <c r="B27" s="70">
-        <v>4.6839086479094613E-2</v>
+        <v>1.7349201938040026E-2</v>
       </c>
       <c r="C27">
-        <v>7.9980500314309842E-6</v>
+        <v>4.8373847198328627E-6</v>
       </c>
       <c r="D27">
-        <v>-4.9807738557689716E-8</v>
+        <v>-3.4324282955958447E-8</v>
       </c>
       <c r="E27">
-        <v>2.7579879513013361E-4</v>
+        <v>1.7837490788022954E-4</v>
       </c>
       <c r="F27">
-        <v>1.0758247358818148E-4</v>
+        <v>3.5689019499657304E-5</v>
       </c>
       <c r="G27">
-        <v>-2.6291178791981756E-4</v>
+        <v>-2.2232744134344711E-4</v>
       </c>
       <c r="H27">
-        <v>-2.7352152880314633E-4</v>
+        <v>-2.403810099546188E-4</v>
       </c>
       <c r="I27">
-        <v>-7.003057503420099E-4</v>
+        <v>-6.9532986509027281E-4</v>
       </c>
       <c r="J27">
-        <v>-6.4527425681749364E-4</v>
+        <v>-6.5226836452044888E-4</v>
       </c>
       <c r="K27">
-        <v>-6.0291543013126924E-4</v>
+        <v>-7.0010718366429335E-4</v>
       </c>
       <c r="L27">
-        <v>-6.513115522114323E-4</v>
+        <v>-5.9933273295621238E-4</v>
       </c>
       <c r="M27">
-        <v>-9.5107067035933102E-5</v>
+        <v>-3.3165369354122955E-5</v>
       </c>
       <c r="N27">
-        <v>-1.6157283575488567E-4</v>
+        <v>-2.6536812509652974E-4</v>
       </c>
       <c r="O27">
-        <v>-1.2869603438934703E-4</v>
+        <v>3.2126765055617975E-5</v>
       </c>
       <c r="P27">
-        <v>-2.2541125764109619E-4</v>
+        <v>-1.5496297960862189E-4</v>
       </c>
       <c r="Q27">
-        <v>-1.0409675418636333E-4</v>
+        <v>-9.023953440526299E-5</v>
       </c>
       <c r="R27">
-        <v>-1.5129768630272201E-4</v>
+        <v>-1.3419758582241376E-4</v>
       </c>
       <c r="S27">
-        <v>3.5671066860840958E-5</v>
+        <v>2.3417722813167612E-5</v>
       </c>
       <c r="T27">
-        <v>6.1433580110712024E-5</v>
+        <v>-5.8221526910926793E-6</v>
       </c>
       <c r="U27">
-        <v>-9.8977506102957812E-5</v>
+        <v>-4.2524495911597108E-6</v>
       </c>
       <c r="V27">
-        <v>-2.6037447063991957E-4</v>
+        <v>-1.9384885007807493E-5</v>
       </c>
       <c r="W27">
-        <v>-3.7366057112976593E-4</v>
+        <v>-1.6623455903463219E-4</v>
       </c>
       <c r="X27">
-        <v>-1.1780698906125242E-3</v>
+        <v>-8.7266525319701132E-4</v>
       </c>
       <c r="Y27">
-        <v>-1.3037919600305501E-4</v>
+        <v>-1.1274572037530764E-4</v>
       </c>
       <c r="Z27">
-        <v>5.0923998515487281E-5</v>
+        <v>3.3303793297122819E-5</v>
       </c>
       <c r="AA27">
-        <v>1.615735566332056E-3</v>
+        <v>1.3770973845855018E-3</v>
       </c>
       <c r="AB27">
-        <v>4.0130977339030557E-3</v>
+        <v>3.576797212814134E-3</v>
       </c>
       <c r="AC27">
-        <v>1.6301008987284079E-3</v>
+        <v>1.3962563959914976E-3</v>
       </c>
       <c r="AD27">
-        <v>1.6219974481442216E-3</v>
+        <v>1.3913123505786627E-3</v>
       </c>
       <c r="AE27">
-        <v>4.9012992097809339E-6</v>
+        <v>-9.8832991636133496E-6</v>
       </c>
       <c r="AF27">
-        <v>-5.1975643021682832E-4</v>
+        <v>-3.3789645231331047E-4</v>
       </c>
       <c r="AG27">
-        <v>1.7272559571255631E-4</v>
+        <v>2.3253015103977877E-4</v>
       </c>
       <c r="AH27">
-        <v>2.2696220037143346E-4</v>
+        <v>5.3321949910785978E-4</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.45">
@@ -7929,103 +7927,103 @@
         <v>63</v>
       </c>
       <c r="B28" s="70">
-        <v>-3.6002766722864364E-2</v>
+        <v>-5.273936277464944E-2</v>
       </c>
       <c r="C28">
-        <v>-3.4045878657405423E-5</v>
+        <v>-3.4822229877893305E-5</v>
       </c>
       <c r="D28">
-        <v>3.8877526432968941E-7</v>
+        <v>3.859670653835226E-7</v>
       </c>
       <c r="E28">
-        <v>2.3209800453284374E-4</v>
+        <v>1.6339985237467586E-4</v>
       </c>
       <c r="F28">
-        <v>-2.2661089049854808E-4</v>
+        <v>-2.1305765785051246E-4</v>
       </c>
       <c r="G28">
-        <v>-1.1017247577642625E-4</v>
+        <v>-1.4618516658667085E-4</v>
       </c>
       <c r="H28">
-        <v>-1.7290934849355493E-4</v>
+        <v>-1.9440958574212797E-4</v>
       </c>
       <c r="I28">
-        <v>-1.9792047663944826E-4</v>
+        <v>-2.4619913063507037E-4</v>
       </c>
       <c r="J28">
-        <v>-1.8766455476575995E-4</v>
+        <v>-1.7280026316008647E-4</v>
       </c>
       <c r="K28">
-        <v>-6.8412689980658879E-5</v>
+        <v>-1.6673060377957183E-4</v>
       </c>
       <c r="L28">
-        <v>2.1676851625643256E-5</v>
+        <v>-4.0052864117734455E-5</v>
       </c>
       <c r="M28">
-        <v>-6.1650294638597707E-6</v>
+        <v>-1.2528466280805782E-5</v>
       </c>
       <c r="N28">
-        <v>-5.5179043577708101E-5</v>
+        <v>-1.6758743717495495E-4</v>
       </c>
       <c r="O28">
-        <v>-1.6822340470483725E-4</v>
+        <v>4.2899997419893095E-5</v>
       </c>
       <c r="P28">
-        <v>-1.4326830704728798E-5</v>
+        <v>7.8471729095292049E-5</v>
       </c>
       <c r="Q28">
-        <v>-5.0335168300436479E-5</v>
+        <v>-5.148370937645773E-5</v>
       </c>
       <c r="R28">
-        <v>-1.3075376309173645E-4</v>
+        <v>-1.3681765188567566E-4</v>
       </c>
       <c r="S28">
-        <v>2.7135692641097201E-5</v>
+        <v>1.5272075163704239E-5</v>
       </c>
       <c r="T28">
-        <v>1.0455894206985099E-4</v>
+        <v>4.0665460221011532E-5</v>
       </c>
       <c r="U28">
-        <v>1.5752823296774415E-4</v>
+        <v>3.2516228266427777E-4</v>
       </c>
       <c r="V28">
-        <v>4.298153227218042E-5</v>
+        <v>1.920063038279102E-4</v>
       </c>
       <c r="W28">
-        <v>-4.2258071679987953E-4</v>
+        <v>-3.1909461402227423E-4</v>
       </c>
       <c r="X28">
-        <v>-6.4213858465588664E-4</v>
+        <v>-4.6955897287717825E-4</v>
       </c>
       <c r="Y28">
-        <v>-8.270956919051686E-5</v>
+        <v>-7.1917570666260892E-5</v>
       </c>
       <c r="Z28">
-        <v>3.4349323684473192E-5</v>
+        <v>2.5053450608593413E-5</v>
       </c>
       <c r="AA28">
-        <v>1.6462496162003789E-3</v>
+        <v>1.4050876128098399E-3</v>
       </c>
       <c r="AB28">
-        <v>1.6301008987284079E-3</v>
+        <v>1.3962563959914976E-3</v>
       </c>
       <c r="AC28">
-        <v>2.8818613616842944E-3</v>
+        <v>2.5151102341067714E-3</v>
       </c>
       <c r="AD28">
-        <v>1.6352873539852641E-3</v>
+        <v>1.3989818555411133E-3</v>
       </c>
       <c r="AE28">
-        <v>-4.5617951220507974E-5</v>
+        <v>-4.3938600080035011E-5</v>
       </c>
       <c r="AF28">
-        <v>-2.3903233095832872E-4</v>
+        <v>-1.4345052413384011E-4</v>
       </c>
       <c r="AG28">
-        <v>3.7079061537926726E-4</v>
+        <v>3.4288294489269564E-4</v>
       </c>
       <c r="AH28">
-        <v>7.0366141709495543E-4</v>
+        <v>8.7208501170915782E-4</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.45">
@@ -8033,103 +8031,103 @@
         <v>65</v>
       </c>
       <c r="B29" s="70">
-        <v>-9.822282005646844E-3</v>
+        <v>-1.5522985900251524E-2</v>
       </c>
       <c r="C29">
-        <v>-1.6386122485671632E-5</v>
+        <v>-3.5044089676677785E-5</v>
       </c>
       <c r="D29">
-        <v>2.226815795570637E-7</v>
+        <v>3.5322944952830573E-7</v>
       </c>
       <c r="E29">
-        <v>3.9371058437999104E-4</v>
+        <v>2.4008640753897206E-4</v>
       </c>
       <c r="F29">
-        <v>-3.7528320126746723E-5</v>
+        <v>-1.1710699334090916E-4</v>
       </c>
       <c r="G29">
-        <v>-1.8178175982056091E-4</v>
+        <v>-1.7995844462926383E-4</v>
       </c>
       <c r="H29">
-        <v>-2.4723102294345041E-4</v>
+        <v>-2.1705690611973879E-4</v>
       </c>
       <c r="I29">
-        <v>-1.4949351454913388E-4</v>
+        <v>-2.3296030387573831E-4</v>
       </c>
       <c r="J29">
-        <v>-1.0310090765774374E-4</v>
+        <v>-1.3817122597918163E-4</v>
       </c>
       <c r="K29">
-        <v>-2.046235910389653E-5</v>
+        <v>-1.4454005554316238E-4</v>
       </c>
       <c r="L29">
-        <v>2.0467460852525423E-4</v>
+        <v>1.2366264352095232E-4</v>
       </c>
       <c r="M29">
-        <v>-1.2795692404729737E-4</v>
+        <v>-1.4201030477189178E-4</v>
       </c>
       <c r="N29">
-        <v>-6.5385598261938631E-5</v>
+        <v>-2.0903981867523541E-4</v>
       </c>
       <c r="O29">
-        <v>-1.2461070445251307E-4</v>
+        <v>1.5843869722385667E-5</v>
       </c>
       <c r="P29">
-        <v>-4.7187903728321094E-5</v>
+        <v>1.9307120090013459E-4</v>
       </c>
       <c r="Q29">
-        <v>-1.8941718426902909E-5</v>
+        <v>-1.3836442704146109E-5</v>
       </c>
       <c r="R29">
-        <v>1.4015818675995541E-4</v>
+        <v>7.613306478666728E-7</v>
       </c>
       <c r="S29">
-        <v>3.1007109102615312E-5</v>
+        <v>1.8024040442837168E-5</v>
       </c>
       <c r="T29">
-        <v>3.6102671589986627E-5</v>
+        <v>-4.2263331776033525E-5</v>
       </c>
       <c r="U29">
-        <v>2.0170640622974804E-4</v>
+        <v>9.9755815308595467E-5</v>
       </c>
       <c r="V29">
-        <v>5.5501164737366282E-5</v>
+        <v>1.5684943704298779E-4</v>
       </c>
       <c r="W29">
-        <v>-3.8848541532100127E-4</v>
+        <v>-3.1198957522855699E-4</v>
       </c>
       <c r="X29">
-        <v>-7.2281253338427227E-4</v>
+        <v>-5.0622896550488379E-4</v>
       </c>
       <c r="Y29">
-        <v>-8.9827344707526038E-5</v>
+        <v>-7.1237743002400906E-5</v>
       </c>
       <c r="Z29">
-        <v>3.9732504533135192E-5</v>
+        <v>2.9659351952490286E-5</v>
       </c>
       <c r="AA29">
-        <v>1.6199718550837143E-3</v>
+        <v>1.3905311593803184E-3</v>
       </c>
       <c r="AB29">
-        <v>1.6219974481442216E-3</v>
+        <v>1.3913123505786627E-3</v>
       </c>
       <c r="AC29">
-        <v>1.6352873539852641E-3</v>
+        <v>1.3989818555411133E-3</v>
       </c>
       <c r="AD29">
-        <v>2.2270488468567901E-3</v>
+        <v>1.9823096150179418E-3</v>
       </c>
       <c r="AE29">
-        <v>-3.156183771018865E-5</v>
+        <v>-2.42631936280741E-5</v>
       </c>
       <c r="AF29">
-        <v>-1.2510057701508725E-4</v>
+        <v>-1.2144460900680187E-4</v>
       </c>
       <c r="AG29">
-        <v>2.6487063239105831E-4</v>
+        <v>2.0142863778956988E-4</v>
       </c>
       <c r="AH29">
-        <v>-5.9891713452638317E-5</v>
+        <v>6.2888862357364267E-4</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.45">
@@ -8137,103 +8135,103 @@
         <v>22</v>
       </c>
       <c r="B30" s="70">
-        <v>9.027329311827797E-4</v>
+        <v>3.8864179467266954E-3</v>
       </c>
       <c r="C30">
-        <v>4.6969100784759557E-6</v>
+        <v>-1.7124173794073622E-7</v>
       </c>
       <c r="D30">
-        <v>-5.306651751269544E-8</v>
+        <v>-1.5494793648283718E-8</v>
       </c>
       <c r="E30">
-        <v>6.5806797417319784E-6</v>
+        <v>2.6468373123847931E-7</v>
       </c>
       <c r="F30">
-        <v>1.3099079534449438E-5</v>
+        <v>9.2602457383230173E-6</v>
       </c>
       <c r="G30">
-        <v>3.0054066418303936E-5</v>
+        <v>4.2176744307403773E-5</v>
       </c>
       <c r="H30">
-        <v>4.6315083678628188E-5</v>
+        <v>5.5625020171766476E-5</v>
       </c>
       <c r="I30">
-        <v>2.2836740197475642E-5</v>
+        <v>1.7765658610318562E-5</v>
       </c>
       <c r="J30">
-        <v>2.0733093074448369E-5</v>
+        <v>1.4727479325777552E-5</v>
       </c>
       <c r="K30">
-        <v>-1.9139331432654346E-5</v>
+        <v>-5.0429640093759844E-6</v>
       </c>
       <c r="L30">
-        <v>-2.1254512816734942E-5</v>
+        <v>-3.2668623234956826E-6</v>
       </c>
       <c r="M30">
-        <v>1.3654502829658934E-5</v>
+        <v>1.1006112887670927E-5</v>
       </c>
       <c r="N30">
-        <v>-3.9747989372203085E-6</v>
+        <v>-2.9116528500905972E-6</v>
       </c>
       <c r="O30">
-        <v>2.47164115540121E-5</v>
+        <v>7.1012706173904201E-6</v>
       </c>
       <c r="P30">
-        <v>-1.6614594938539894E-5</v>
+        <v>7.7914062958155074E-6</v>
       </c>
       <c r="Q30">
-        <v>-1.2510496424523879E-5</v>
+        <v>-7.5466032673838067E-6</v>
       </c>
       <c r="R30">
-        <v>4.3066934023536978E-5</v>
+        <v>1.5097331941554506E-5</v>
       </c>
       <c r="S30">
-        <v>-2.0078598903981074E-6</v>
+        <v>-9.4316531934100256E-7</v>
       </c>
       <c r="T30">
-        <v>1.1372831309129376E-5</v>
+        <v>-4.6642829834525021E-6</v>
       </c>
       <c r="U30">
-        <v>-5.5975157163402455E-6</v>
+        <v>-2.0559400597197901E-5</v>
       </c>
       <c r="V30">
-        <v>1.2124318516316134E-5</v>
+        <v>-1.7461813923905014E-6</v>
       </c>
       <c r="W30">
-        <v>4.8947954631227371E-5</v>
+        <v>2.7053843301247206E-5</v>
       </c>
       <c r="X30">
-        <v>7.4008589760472609E-5</v>
+        <v>6.8713869018981102E-5</v>
       </c>
       <c r="Y30">
-        <v>7.7810452578029159E-6</v>
+        <v>7.9621166745354939E-6</v>
       </c>
       <c r="Z30">
-        <v>-2.6563553739833073E-6</v>
+        <v>-2.8009293480607474E-6</v>
       </c>
       <c r="AA30">
-        <v>-1.987308849077186E-5</v>
+        <v>-2.7633612751578167E-5</v>
       </c>
       <c r="AB30">
-        <v>4.9012992097809339E-6</v>
+        <v>-9.8832991636133496E-6</v>
       </c>
       <c r="AC30">
-        <v>-4.5617951220507974E-5</v>
+        <v>-4.3938600080035011E-5</v>
       </c>
       <c r="AD30">
-        <v>-3.156183771018865E-5</v>
+        <v>-2.42631936280741E-5</v>
       </c>
       <c r="AE30">
-        <v>2.3887752362825642E-5</v>
+        <v>2.2657272508604593E-5</v>
       </c>
       <c r="AF30">
-        <v>-8.5968371449534313E-5</v>
+        <v>-8.2627153201431542E-5</v>
       </c>
       <c r="AG30">
-        <v>-1.0516365786407202E-4</v>
+        <v>-1.0316173471884869E-4</v>
       </c>
       <c r="AH30">
-        <v>-5.421441921756293E-4</v>
+        <v>-3.751576089102628E-4</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.45">
@@ -8241,103 +8239,103 @@
         <v>39</v>
       </c>
       <c r="B31" s="70">
-        <v>0.15594684347828366</v>
+        <v>9.931224528621789E-2</v>
       </c>
       <c r="C31">
-        <v>-5.3684611292019956E-6</v>
+        <v>2.1259225772894206E-5</v>
       </c>
       <c r="D31">
-        <v>-5.2848655520025017E-8</v>
+        <v>-2.434148545432601E-7</v>
       </c>
       <c r="E31">
-        <v>2.3153874923141822E-4</v>
+        <v>1.8296050968189947E-4</v>
       </c>
       <c r="F31">
-        <v>7.1829765546291388E-4</v>
+        <v>5.3131433928185203E-4</v>
       </c>
       <c r="G31">
-        <v>-5.395465657720462E-4</v>
+        <v>-4.7134757553512574E-4</v>
       </c>
       <c r="H31">
-        <v>-7.1565113979791444E-4</v>
+        <v>-5.8133836410261973E-4</v>
       </c>
       <c r="I31">
-        <v>-1.169110632960131E-4</v>
+        <v>-2.5926608284038938E-5</v>
       </c>
       <c r="J31">
-        <v>-1.0209827624395903E-4</v>
+        <v>-1.4746069866406698E-5</v>
       </c>
       <c r="K31">
-        <v>3.2876524274645007E-5</v>
+        <v>1.0693163025841819E-4</v>
       </c>
       <c r="L31">
-        <v>5.6641074948035413E-4</v>
+        <v>4.8723106803700374E-4</v>
       </c>
       <c r="M31">
-        <v>-1.1593796321971811E-4</v>
+        <v>-1.2413628066848054E-4</v>
       </c>
       <c r="N31">
-        <v>-4.0155022366110101E-5</v>
+        <v>2.2803992437284654E-5</v>
       </c>
       <c r="O31">
-        <v>2.4132284635216498E-5</v>
+        <v>-1.0896007453635186E-4</v>
       </c>
       <c r="P31">
-        <v>-2.0680481290873283E-4</v>
+        <v>-3.3920400936961377E-4</v>
       </c>
       <c r="Q31">
-        <v>3.7119725541969449E-5</v>
+        <v>1.5019664275524796E-5</v>
       </c>
       <c r="R31">
-        <v>-6.0905904574368706E-4</v>
+        <v>-3.1582469742710405E-4</v>
       </c>
       <c r="S31">
-        <v>8.2128411874288714E-6</v>
+        <v>5.8184941599807235E-6</v>
       </c>
       <c r="T31">
-        <v>-2.4070003922243042E-4</v>
+        <v>-1.0834211489452471E-4</v>
       </c>
       <c r="U31">
-        <v>1.140321608239243E-4</v>
+        <v>1.8228789421250368E-4</v>
       </c>
       <c r="V31">
-        <v>-3.4952500046115135E-4</v>
+        <v>-1.8833673290542279E-4</v>
       </c>
       <c r="W31">
-        <v>-4.0565321277931339E-4</v>
+        <v>-2.3692626017385088E-4</v>
       </c>
       <c r="X31">
-        <v>-6.4059410842310597E-4</v>
+        <v>-4.6085400191797057E-4</v>
       </c>
       <c r="Y31">
-        <v>-1.5365945060110496E-4</v>
+        <v>-1.3334407318809998E-4</v>
       </c>
       <c r="Z31">
-        <v>6.4503070225794136E-5</v>
+        <v>4.9398993556308973E-5</v>
       </c>
       <c r="AA31">
-        <v>-2.9271589814263002E-4</v>
+        <v>-1.7942107244471784E-4</v>
       </c>
       <c r="AB31">
-        <v>-5.1975643021682832E-4</v>
+        <v>-3.3789645231331047E-4</v>
       </c>
       <c r="AC31">
-        <v>-2.3903233095832872E-4</v>
+        <v>-1.4345052413384011E-4</v>
       </c>
       <c r="AD31">
-        <v>-1.2510057701508725E-4</v>
+        <v>-1.2144460900680187E-4</v>
       </c>
       <c r="AE31">
-        <v>-8.5968371449534313E-5</v>
+        <v>-8.2627153201431542E-5</v>
       </c>
       <c r="AF31">
-        <v>3.2783172089317822E-3</v>
+        <v>2.9114774051144168E-3</v>
       </c>
       <c r="AG31">
-        <v>7.4020658837440148E-4</v>
+        <v>7.0287565612870925E-4</v>
       </c>
       <c r="AH31">
-        <v>2.9086350174844637E-3</v>
+        <v>1.7324894187905483E-3</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.45">
@@ -8345,103 +8343,103 @@
         <v>40</v>
       </c>
       <c r="B32" s="70">
-        <v>0.11926555811725456</v>
+        <v>0.1031973363869844</v>
       </c>
       <c r="C32">
-        <v>-3.6683628138603876E-5</v>
+        <v>-1.3747743967566306E-5</v>
       </c>
       <c r="D32">
-        <v>3.0239448051055689E-7</v>
+        <v>1.4458351085410225E-7</v>
       </c>
       <c r="E32">
-        <v>4.4534098756123034E-5</v>
+        <v>9.1858635457887699E-5</v>
       </c>
       <c r="F32">
-        <v>7.9372879431120779E-5</v>
+        <v>8.8658980245121866E-5</v>
       </c>
       <c r="G32">
-        <v>-3.1321825850824604E-4</v>
+        <v>-3.4694679842011149E-4</v>
       </c>
       <c r="H32">
-        <v>-3.7831091517296386E-4</v>
+        <v>-3.9814919855902598E-4</v>
       </c>
       <c r="I32">
-        <v>-1.0191069935649739E-4</v>
+        <v>-4.138196837290796E-5</v>
       </c>
       <c r="J32">
-        <v>-8.4381578360878846E-5</v>
+        <v>1.6530703553409819E-5</v>
       </c>
       <c r="K32">
-        <v>9.8039395808773196E-5</v>
+        <v>2.930688700025167E-5</v>
       </c>
       <c r="L32">
-        <v>-3.6916270965800697E-5</v>
+        <v>6.9971647561910613E-5</v>
       </c>
       <c r="M32">
-        <v>2.4661664432381984E-5</v>
+        <v>2.976218869775644E-5</v>
       </c>
       <c r="N32">
-        <v>-2.2162139681539388E-6</v>
+        <v>-1.2387882069759453E-5</v>
       </c>
       <c r="O32">
-        <v>-2.8217193882374195E-4</v>
+        <v>-8.520051276428341E-5</v>
       </c>
       <c r="P32">
-        <v>1.863637445891856E-5</v>
+        <v>-1.7442716534945852E-4</v>
       </c>
       <c r="Q32">
-        <v>-1.3112245798571712E-4</v>
+        <v>-1.3792080379415822E-4</v>
       </c>
       <c r="R32">
-        <v>-6.8144503084715353E-4</v>
+        <v>-4.9257555521116598E-4</v>
       </c>
       <c r="S32">
-        <v>5.8032973684906292E-6</v>
+        <v>-1.2821482748228319E-6</v>
       </c>
       <c r="T32">
-        <v>-1.2169663663915038E-4</v>
+        <v>-2.1186082700366165E-5</v>
       </c>
       <c r="U32">
-        <v>7.6601486753946103E-5</v>
+        <v>1.1972898327516999E-4</v>
       </c>
       <c r="V32">
-        <v>-2.9733270406017082E-4</v>
+        <v>-9.7896748364260412E-5</v>
       </c>
       <c r="W32">
-        <v>-3.1911219616083267E-4</v>
+        <v>-1.1728150594056581E-4</v>
       </c>
       <c r="X32">
-        <v>-5.9835219704650489E-4</v>
+        <v>-4.4298272233866433E-4</v>
       </c>
       <c r="Y32">
-        <v>-8.8552924653571526E-5</v>
+        <v>-7.8100387000791549E-5</v>
       </c>
       <c r="Z32">
-        <v>4.8890559147340897E-5</v>
+        <v>3.9474381056132024E-5</v>
       </c>
       <c r="AA32">
-        <v>2.2687704658370337E-4</v>
+        <v>2.3981080752719097E-4</v>
       </c>
       <c r="AB32">
-        <v>1.7272559571255631E-4</v>
+        <v>2.3253015103977877E-4</v>
       </c>
       <c r="AC32">
-        <v>3.7079061537926726E-4</v>
+        <v>3.4288294489269564E-4</v>
       </c>
       <c r="AD32">
-        <v>2.6487063239105831E-4</v>
+        <v>2.0142863778956988E-4</v>
       </c>
       <c r="AE32">
-        <v>-1.0516365786407202E-4</v>
+        <v>-1.0316173471884869E-4</v>
       </c>
       <c r="AF32">
-        <v>7.4020658837440148E-4</v>
+        <v>7.0287565612870925E-4</v>
       </c>
       <c r="AG32">
-        <v>2.9324430650073726E-3</v>
+        <v>2.7061866896037328E-3</v>
       </c>
       <c r="AH32">
-        <v>3.5165879757767253E-3</v>
+        <v>2.4858295285565754E-3</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.45">
@@ -8449,103 +8447,103 @@
         <v>23</v>
       </c>
       <c r="B33" s="70">
-        <v>-1.1571741873817194</v>
+        <v>-1.0845419756294523</v>
       </c>
       <c r="C33">
-        <v>-2.3177011674301697E-3</v>
+        <v>-1.7783090093793953E-3</v>
       </c>
       <c r="D33">
-        <v>1.8279140317102818E-5</v>
+        <v>1.4336139869019076E-5</v>
       </c>
       <c r="E33">
-        <v>-5.4390659643359471E-4</v>
+        <v>-7.778003334258885E-4</v>
       </c>
       <c r="F33">
-        <v>-8.0335339080521526E-4</v>
+        <v>-9.756723868810822E-4</v>
       </c>
       <c r="G33">
-        <v>-3.8015901288227815E-3</v>
+        <v>-2.3153696567982671E-3</v>
       </c>
       <c r="H33">
-        <v>-4.7544620897012006E-3</v>
+        <v>-3.190339167151154E-3</v>
       </c>
       <c r="I33">
-        <v>-7.4132519428141107E-3</v>
+        <v>-7.5518116317570445E-3</v>
       </c>
       <c r="J33">
-        <v>-7.4190183162775583E-3</v>
+        <v>-7.619683208598212E-3</v>
       </c>
       <c r="K33">
-        <v>-6.2716472006394079E-3</v>
+        <v>-7.1711411685051341E-3</v>
       </c>
       <c r="L33">
-        <v>-8.762362293492679E-3</v>
+        <v>-7.8059958810408735E-3</v>
       </c>
       <c r="M33">
-        <v>-1.3174617703123068E-3</v>
+        <v>-1.3724320617802717E-3</v>
       </c>
       <c r="N33">
-        <v>-9.1822288698628369E-4</v>
+        <v>-1.141858544532243E-3</v>
       </c>
       <c r="O33">
-        <v>-3.749332041597617E-3</v>
+        <v>-3.1151133080578796E-3</v>
       </c>
       <c r="P33">
-        <v>-5.0638665291732011E-3</v>
+        <v>-3.5675029329963644E-3</v>
       </c>
       <c r="Q33">
-        <v>4.4863334362120897E-6</v>
+        <v>1.8270359765945821E-6</v>
       </c>
       <c r="R33">
-        <v>-1.0321466084707387E-2</v>
+        <v>-8.6937978559884378E-3</v>
       </c>
       <c r="S33">
-        <v>1.7630603821852434E-4</v>
+        <v>1.3180973169653736E-4</v>
       </c>
       <c r="T33">
-        <v>-3.7046668356851549E-3</v>
+        <v>-2.6342556162728507E-3</v>
       </c>
       <c r="U33">
-        <v>-7.9830955202576659E-3</v>
+        <v>-5.8164010782282283E-3</v>
       </c>
       <c r="V33">
-        <v>-2.4895861864870188E-3</v>
+        <v>-2.2445468882269165E-3</v>
       </c>
       <c r="W33">
-        <v>-4.853003301963499E-4</v>
+        <v>-7.7890607165371291E-4</v>
       </c>
       <c r="X33">
-        <v>-6.293511212937513E-3</v>
+        <v>-5.8403823299051534E-3</v>
       </c>
       <c r="Y33">
-        <v>-1.1827215744155287E-3</v>
+        <v>-9.4669001743513128E-4</v>
       </c>
       <c r="Z33">
-        <v>6.4551119460572279E-4</v>
+        <v>5.3883776651590838E-4</v>
       </c>
       <c r="AA33">
-        <v>-3.0749224837095502E-4</v>
+        <v>1.3053850831251776E-4</v>
       </c>
       <c r="AB33">
-        <v>2.2696220037143346E-4</v>
+        <v>5.3321949910785978E-4</v>
       </c>
       <c r="AC33">
-        <v>7.0366141709495543E-4</v>
+        <v>8.7208501170915782E-4</v>
       </c>
       <c r="AD33">
-        <v>-5.9891713452638317E-5</v>
+        <v>6.2888862357364267E-4</v>
       </c>
       <c r="AE33">
-        <v>-5.421441921756293E-4</v>
+        <v>-3.751576089102628E-4</v>
       </c>
       <c r="AF33">
-        <v>2.9086350174844637E-3</v>
+        <v>1.7324894187905483E-3</v>
       </c>
       <c r="AG33">
-        <v>3.5165879757767253E-3</v>
+        <v>2.4858295285565754E-3</v>
       </c>
       <c r="AH33">
-        <v>9.9900889715626079E-2</v>
+        <v>7.7120207509709549E-2</v>
       </c>
     </row>
   </sheetData>
